--- a/BackTest/2020-01-23 BackTest FCT.xlsx
+++ b/BackTest/2020-01-23 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M183"/>
+  <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.8</v>
+        <v>30.75</v>
       </c>
       <c r="C2" t="n">
-        <v>30.8</v>
+        <v>30.75</v>
       </c>
       <c r="D2" t="n">
-        <v>30.8</v>
+        <v>30.75</v>
       </c>
       <c r="E2" t="n">
-        <v>30.8</v>
+        <v>30.75</v>
       </c>
       <c r="F2" t="n">
-        <v>21.8633</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="n">
-        <v>30.85766666666666</v>
+        <v>30.85933333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.75</v>
+        <v>30.8</v>
       </c>
       <c r="C3" t="n">
-        <v>30.85</v>
+        <v>30.8</v>
       </c>
       <c r="D3" t="n">
-        <v>30.85</v>
+        <v>30.8</v>
       </c>
       <c r="E3" t="n">
-        <v>30.75</v>
+        <v>30.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1463.8</v>
+        <v>21.8633</v>
       </c>
       <c r="G3" t="n">
-        <v>30.85683333333333</v>
+        <v>30.85766666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.85</v>
+        <v>30.75</v>
       </c>
       <c r="C4" t="n">
         <v>30.85</v>
@@ -512,13 +512,13 @@
         <v>30.85</v>
       </c>
       <c r="E4" t="n">
-        <v>30.85</v>
+        <v>30.75</v>
       </c>
       <c r="F4" t="n">
-        <v>15296.36</v>
+        <v>1463.8</v>
       </c>
       <c r="G4" t="n">
-        <v>30.85599999999999</v>
+        <v>30.85683333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.76</v>
+        <v>30.85</v>
       </c>
       <c r="C5" t="n">
         <v>30.85</v>
@@ -547,13 +547,13 @@
         <v>30.85</v>
       </c>
       <c r="E5" t="n">
-        <v>30.76</v>
+        <v>30.85</v>
       </c>
       <c r="F5" t="n">
-        <v>1430</v>
+        <v>15296.36</v>
       </c>
       <c r="G5" t="n">
-        <v>30.85683333333332</v>
+        <v>30.85599999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.85</v>
+        <v>30.76</v>
       </c>
       <c r="C6" t="n">
         <v>30.85</v>
@@ -582,13 +582,13 @@
         <v>30.85</v>
       </c>
       <c r="E6" t="n">
-        <v>30.85</v>
+        <v>30.76</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>1430</v>
       </c>
       <c r="G6" t="n">
-        <v>30.85883333333332</v>
+        <v>30.85683333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.76</v>
+        <v>30.85</v>
       </c>
       <c r="C7" t="n">
-        <v>30.76</v>
+        <v>30.85</v>
       </c>
       <c r="D7" t="n">
-        <v>30.76</v>
+        <v>30.85</v>
       </c>
       <c r="E7" t="n">
-        <v>30.76</v>
+        <v>30.85</v>
       </c>
       <c r="F7" t="n">
-        <v>3248.1381</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="n">
-        <v>30.85816666666665</v>
+        <v>30.85883333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.85</v>
+        <v>30.76</v>
       </c>
       <c r="C8" t="n">
-        <v>30.6</v>
+        <v>30.76</v>
       </c>
       <c r="D8" t="n">
-        <v>30.85</v>
+        <v>30.76</v>
       </c>
       <c r="E8" t="n">
-        <v>30.6</v>
+        <v>30.76</v>
       </c>
       <c r="F8" t="n">
-        <v>60737.8755</v>
+        <v>3248.1381</v>
       </c>
       <c r="G8" t="n">
-        <v>30.85149999999999</v>
+        <v>30.85816666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>30.85</v>
       </c>
       <c r="C9" t="n">
-        <v>30.85</v>
+        <v>30.6</v>
       </c>
       <c r="D9" t="n">
         <v>30.85</v>
       </c>
       <c r="E9" t="n">
-        <v>30.85</v>
+        <v>30.6</v>
       </c>
       <c r="F9" t="n">
-        <v>21.7272</v>
+        <v>60737.8755</v>
       </c>
       <c r="G9" t="n">
-        <v>30.85383333333332</v>
+        <v>30.85149999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.7</v>
+        <v>30.85</v>
       </c>
       <c r="C10" t="n">
         <v>30.85</v>
@@ -722,13 +722,13 @@
         <v>30.85</v>
       </c>
       <c r="E10" t="n">
-        <v>30.7</v>
+        <v>30.85</v>
       </c>
       <c r="F10" t="n">
-        <v>1415.7</v>
+        <v>21.7272</v>
       </c>
       <c r="G10" t="n">
-        <v>30.85133333333332</v>
+        <v>30.85383333333332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6</v>
+        <v>30.85</v>
       </c>
       <c r="D11" t="n">
-        <v>30.6</v>
+        <v>30.85</v>
       </c>
       <c r="E11" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="F11" t="n">
-        <v>23157.7404</v>
+        <v>1415.7</v>
       </c>
       <c r="G11" t="n">
-        <v>30.84366666666665</v>
+        <v>30.85133333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30.45</v>
+        <v>30.6</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="D12" t="n">
-        <v>30.45</v>
+        <v>30.6</v>
       </c>
       <c r="E12" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="F12" t="n">
-        <v>55517.8867</v>
+        <v>23157.7404</v>
       </c>
       <c r="G12" t="n">
-        <v>30.83699999999999</v>
+        <v>30.84366666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.79</v>
+        <v>30.45</v>
       </c>
       <c r="C13" t="n">
-        <v>30.79</v>
+        <v>30.4</v>
       </c>
       <c r="D13" t="n">
-        <v>30.79</v>
+        <v>30.45</v>
       </c>
       <c r="E13" t="n">
-        <v>30.79</v>
+        <v>30.4</v>
       </c>
       <c r="F13" t="n">
-        <v>36.7175</v>
+        <v>55517.8867</v>
       </c>
       <c r="G13" t="n">
-        <v>30.82599999999998</v>
+        <v>30.83699999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.45</v>
+        <v>30.79</v>
       </c>
       <c r="C14" t="n">
-        <v>30.9</v>
+        <v>30.79</v>
       </c>
       <c r="D14" t="n">
-        <v>30.9</v>
+        <v>30.79</v>
       </c>
       <c r="E14" t="n">
-        <v>30.42</v>
+        <v>30.79</v>
       </c>
       <c r="F14" t="n">
-        <v>36000</v>
+        <v>36.7175</v>
       </c>
       <c r="G14" t="n">
-        <v>30.82433333333332</v>
+        <v>30.82599999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30.54</v>
+        <v>30.45</v>
       </c>
       <c r="C15" t="n">
         <v>30.9</v>
@@ -897,13 +897,13 @@
         <v>30.9</v>
       </c>
       <c r="E15" t="n">
-        <v>30.54</v>
+        <v>30.42</v>
       </c>
       <c r="F15" t="n">
-        <v>1384.5</v>
+        <v>36000</v>
       </c>
       <c r="G15" t="n">
-        <v>30.82116666666666</v>
+        <v>30.82433333333332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>30.54</v>
       </c>
       <c r="C16" t="n">
-        <v>30.54</v>
+        <v>30.9</v>
       </c>
       <c r="D16" t="n">
-        <v>30.54</v>
+        <v>30.9</v>
       </c>
       <c r="E16" t="n">
         <v>30.54</v>
       </c>
       <c r="F16" t="n">
-        <v>29521.4719</v>
+        <v>1384.5</v>
       </c>
       <c r="G16" t="n">
-        <v>30.81199999999999</v>
+        <v>30.82116666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.88</v>
+        <v>30.54</v>
       </c>
       <c r="C17" t="n">
-        <v>30.88</v>
+        <v>30.54</v>
       </c>
       <c r="D17" t="n">
-        <v>30.88</v>
+        <v>30.54</v>
       </c>
       <c r="E17" t="n">
-        <v>30.88</v>
+        <v>30.54</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>29521.4719</v>
       </c>
       <c r="G17" t="n">
-        <v>30.80849999999999</v>
+        <v>30.81199999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.54</v>
+        <v>30.88</v>
       </c>
       <c r="C18" t="n">
         <v>30.88</v>
@@ -1002,13 +1002,13 @@
         <v>30.88</v>
       </c>
       <c r="E18" t="n">
-        <v>30.54</v>
+        <v>30.88</v>
       </c>
       <c r="F18" t="n">
-        <v>1345.5</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>30.80483333333333</v>
+        <v>30.80849999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>30.54</v>
       </c>
       <c r="F19" t="n">
-        <v>1289.6</v>
+        <v>1345.5</v>
       </c>
       <c r="G19" t="n">
-        <v>30.79616666666666</v>
+        <v>30.80483333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.88</v>
+        <v>30.54</v>
       </c>
       <c r="C20" t="n">
         <v>30.88</v>
@@ -1072,13 +1072,13 @@
         <v>30.88</v>
       </c>
       <c r="E20" t="n">
-        <v>30.88</v>
+        <v>30.54</v>
       </c>
       <c r="F20" t="n">
-        <v>8328.864</v>
+        <v>1289.6</v>
       </c>
       <c r="G20" t="n">
-        <v>30.7925</v>
+        <v>30.79616666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.54</v>
+        <v>30.88</v>
       </c>
       <c r="C21" t="n">
-        <v>30.89</v>
+        <v>30.88</v>
       </c>
       <c r="D21" t="n">
-        <v>30.89</v>
+        <v>30.88</v>
       </c>
       <c r="E21" t="n">
-        <v>30.54</v>
+        <v>30.88</v>
       </c>
       <c r="F21" t="n">
-        <v>1242.8</v>
+        <v>8328.864</v>
       </c>
       <c r="G21" t="n">
-        <v>30.79166666666667</v>
+        <v>30.7925</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>30.54</v>
       </c>
       <c r="F22" t="n">
-        <v>1184.3</v>
+        <v>1242.8</v>
       </c>
       <c r="G22" t="n">
-        <v>30.79083333333334</v>
+        <v>30.79166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.89</v>
+        <v>30.54</v>
       </c>
       <c r="C23" t="n">
         <v>30.89</v>
@@ -1177,13 +1177,13 @@
         <v>30.89</v>
       </c>
       <c r="E23" t="n">
-        <v>30.89</v>
+        <v>30.54</v>
       </c>
       <c r="F23" t="n">
-        <v>11876.7295</v>
+        <v>1184.3</v>
       </c>
       <c r="G23" t="n">
-        <v>30.79</v>
+        <v>30.79083333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>30.89</v>
       </c>
       <c r="F24" t="n">
-        <v>10497.0735</v>
+        <v>11876.7295</v>
       </c>
       <c r="G24" t="n">
-        <v>30.79283333333334</v>
+        <v>30.79</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>30.89</v>
       </c>
       <c r="F25" t="n">
-        <v>9918.4023</v>
+        <v>10497.0735</v>
       </c>
       <c r="G25" t="n">
-        <v>30.79583333333334</v>
+        <v>30.79283333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>30.54</v>
+        <v>30.89</v>
       </c>
       <c r="C26" t="n">
         <v>30.89</v>
@@ -1282,13 +1282,13 @@
         <v>30.89</v>
       </c>
       <c r="E26" t="n">
-        <v>30.54</v>
+        <v>30.89</v>
       </c>
       <c r="F26" t="n">
-        <v>1175.2</v>
+        <v>9918.4023</v>
       </c>
       <c r="G26" t="n">
-        <v>30.79733333333334</v>
+        <v>30.79583333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>30.54</v>
       </c>
       <c r="C27" t="n">
-        <v>30.79</v>
+        <v>30.89</v>
       </c>
       <c r="D27" t="n">
-        <v>30.79</v>
+        <v>30.89</v>
       </c>
       <c r="E27" t="n">
-        <v>30.38</v>
+        <v>30.54</v>
       </c>
       <c r="F27" t="n">
-        <v>76927.9657</v>
+        <v>1175.2</v>
       </c>
       <c r="G27" t="n">
-        <v>30.79866666666667</v>
+        <v>30.79733333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30.5</v>
+        <v>30.54</v>
       </c>
       <c r="C28" t="n">
-        <v>30.5</v>
+        <v>30.79</v>
       </c>
       <c r="D28" t="n">
-        <v>30.5</v>
+        <v>30.79</v>
       </c>
       <c r="E28" t="n">
-        <v>30.5</v>
+        <v>30.38</v>
       </c>
       <c r="F28" t="n">
-        <v>2425.5662</v>
+        <v>76927.9657</v>
       </c>
       <c r="G28" t="n">
-        <v>30.79516666666667</v>
+        <v>30.79866666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.38</v>
+        <v>30.5</v>
       </c>
       <c r="C29" t="n">
-        <v>30.38</v>
+        <v>30.5</v>
       </c>
       <c r="D29" t="n">
-        <v>30.38</v>
+        <v>30.5</v>
       </c>
       <c r="E29" t="n">
-        <v>30.38</v>
+        <v>30.5</v>
       </c>
       <c r="F29" t="n">
-        <v>3490.7725</v>
+        <v>2425.5662</v>
       </c>
       <c r="G29" t="n">
-        <v>30.78333333333334</v>
+        <v>30.79516666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="C30" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="D30" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="E30" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="F30" t="n">
-        <v>17.2828</v>
+        <v>3490.7725</v>
       </c>
       <c r="G30" t="n">
-        <v>30.77666666666668</v>
+        <v>30.78333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30.38</v>
+        <v>30.69</v>
       </c>
       <c r="C31" t="n">
         <v>30.69</v>
@@ -1457,13 +1457,13 @@
         <v>30.69</v>
       </c>
       <c r="E31" t="n">
-        <v>30.38</v>
+        <v>30.69</v>
       </c>
       <c r="F31" t="n">
-        <v>1190.8</v>
+        <v>17.2828</v>
       </c>
       <c r="G31" t="n">
-        <v>30.77316666666668</v>
+        <v>30.77666666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="C32" t="n">
         <v>30.69</v>
@@ -1492,13 +1492,13 @@
         <v>30.69</v>
       </c>
       <c r="E32" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="F32" t="n">
-        <v>18</v>
+        <v>1190.8</v>
       </c>
       <c r="G32" t="n">
-        <v>30.77283333333334</v>
+        <v>30.77316666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>30.69</v>
       </c>
       <c r="F33" t="n">
-        <v>2269.0526</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
-        <v>30.77433333333335</v>
+        <v>30.77283333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.38</v>
+        <v>30.69</v>
       </c>
       <c r="C34" t="n">
         <v>30.69</v>
@@ -1562,13 +1562,13 @@
         <v>30.69</v>
       </c>
       <c r="E34" t="n">
-        <v>30.38</v>
+        <v>30.69</v>
       </c>
       <c r="F34" t="n">
-        <v>1164.8</v>
+        <v>2269.0526</v>
       </c>
       <c r="G34" t="n">
-        <v>30.77583333333335</v>
+        <v>30.77433333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="C35" t="n">
         <v>30.69</v>
@@ -1597,13 +1597,13 @@
         <v>30.69</v>
       </c>
       <c r="E35" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="F35" t="n">
-        <v>13088.3096</v>
+        <v>1164.8</v>
       </c>
       <c r="G35" t="n">
-        <v>30.77733333333335</v>
+        <v>30.77583333333335</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="C36" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="D36" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="E36" t="n">
         <v>30.69</v>
       </c>
       <c r="F36" t="n">
-        <v>38280.0133</v>
+        <v>13088.3096</v>
       </c>
       <c r="G36" t="n">
-        <v>30.78066666666668</v>
+        <v>30.77733333333335</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30.69</v>
+        <v>30.8</v>
       </c>
       <c r="C37" t="n">
         <v>30.8</v>
@@ -1667,13 +1667,13 @@
         <v>30.8</v>
       </c>
       <c r="E37" t="n">
-        <v>30.38</v>
+        <v>30.69</v>
       </c>
       <c r="F37" t="n">
-        <v>25909.2322</v>
+        <v>38280.0133</v>
       </c>
       <c r="G37" t="n">
-        <v>30.78683333333335</v>
+        <v>30.78066666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.42</v>
+        <v>30.69</v>
       </c>
       <c r="C38" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="D38" t="n">
-        <v>30.42</v>
+        <v>30.8</v>
       </c>
       <c r="E38" t="n">
-        <v>30.42</v>
+        <v>30.38</v>
       </c>
       <c r="F38" t="n">
-        <v>22698.2576</v>
+        <v>25909.2322</v>
       </c>
       <c r="G38" t="n">
-        <v>30.77716666666668</v>
+        <v>30.78683333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.43</v>
+        <v>30.42</v>
       </c>
       <c r="C39" t="n">
-        <v>30.8</v>
+        <v>30.42</v>
       </c>
       <c r="D39" t="n">
-        <v>30.8</v>
+        <v>30.42</v>
       </c>
       <c r="E39" t="n">
-        <v>30.43</v>
+        <v>30.42</v>
       </c>
       <c r="F39" t="n">
-        <v>1237.6</v>
+        <v>22698.2576</v>
       </c>
       <c r="G39" t="n">
-        <v>30.77400000000002</v>
+        <v>30.77716666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>30.43</v>
       </c>
       <c r="C40" t="n">
-        <v>30.41</v>
+        <v>30.8</v>
       </c>
       <c r="D40" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E40" t="n">
         <v>30.43</v>
       </c>
-      <c r="E40" t="n">
-        <v>30.41</v>
-      </c>
       <c r="F40" t="n">
-        <v>47737.8951</v>
+        <v>1237.6</v>
       </c>
       <c r="G40" t="n">
-        <v>30.76450000000002</v>
+        <v>30.77400000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.79</v>
+        <v>30.43</v>
       </c>
       <c r="C41" t="n">
-        <v>30.79</v>
+        <v>30.41</v>
       </c>
       <c r="D41" t="n">
-        <v>30.79</v>
+        <v>30.43</v>
       </c>
       <c r="E41" t="n">
-        <v>30.79</v>
+        <v>30.41</v>
       </c>
       <c r="F41" t="n">
-        <v>17.4856</v>
+        <v>47737.8951</v>
       </c>
       <c r="G41" t="n">
-        <v>30.76600000000002</v>
+        <v>30.76450000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30.41</v>
+        <v>30.79</v>
       </c>
       <c r="C42" t="n">
         <v>30.79</v>
@@ -1842,13 +1842,13 @@
         <v>30.79</v>
       </c>
       <c r="E42" t="n">
-        <v>30.41</v>
+        <v>30.79</v>
       </c>
       <c r="F42" t="n">
-        <v>1224.6</v>
+        <v>17.4856</v>
       </c>
       <c r="G42" t="n">
-        <v>30.77266666666668</v>
+        <v>30.76600000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.79</v>
+        <v>30.41</v>
       </c>
       <c r="C43" t="n">
         <v>30.79</v>
@@ -1877,13 +1877,13 @@
         <v>30.79</v>
       </c>
       <c r="E43" t="n">
-        <v>30.79</v>
+        <v>30.41</v>
       </c>
       <c r="F43" t="n">
-        <v>18.254</v>
+        <v>1224.6</v>
       </c>
       <c r="G43" t="n">
-        <v>30.77133333333335</v>
+        <v>30.77266666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.41</v>
+        <v>30.79</v>
       </c>
       <c r="C44" t="n">
-        <v>30.41</v>
+        <v>30.79</v>
       </c>
       <c r="D44" t="n">
-        <v>30.41</v>
+        <v>30.79</v>
       </c>
       <c r="E44" t="n">
-        <v>30.41</v>
+        <v>30.79</v>
       </c>
       <c r="F44" t="n">
-        <v>34999.4697</v>
+        <v>18.254</v>
       </c>
       <c r="G44" t="n">
-        <v>30.76383333333335</v>
+        <v>30.77133333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.4</v>
+        <v>30.41</v>
       </c>
       <c r="C45" t="n">
-        <v>30.79</v>
+        <v>30.41</v>
       </c>
       <c r="D45" t="n">
-        <v>30.79</v>
+        <v>30.41</v>
       </c>
       <c r="E45" t="n">
-        <v>30.38</v>
+        <v>30.41</v>
       </c>
       <c r="F45" t="n">
-        <v>35017</v>
+        <v>34999.4697</v>
       </c>
       <c r="G45" t="n">
-        <v>30.76300000000002</v>
+        <v>30.76383333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.38</v>
+        <v>30.4</v>
       </c>
       <c r="C46" t="n">
-        <v>30.77</v>
+        <v>30.79</v>
       </c>
       <c r="D46" t="n">
-        <v>30.77</v>
+        <v>30.79</v>
       </c>
       <c r="E46" t="n">
         <v>30.38</v>
       </c>
       <c r="F46" t="n">
-        <v>1207.7</v>
+        <v>35017</v>
       </c>
       <c r="G46" t="n">
-        <v>30.76183333333335</v>
+        <v>30.76300000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>30.38</v>
       </c>
       <c r="C47" t="n">
-        <v>30.59</v>
+        <v>30.77</v>
       </c>
       <c r="D47" t="n">
-        <v>30.59</v>
+        <v>30.77</v>
       </c>
       <c r="E47" t="n">
-        <v>30.27</v>
+        <v>30.38</v>
       </c>
       <c r="F47" t="n">
-        <v>35033.7381</v>
+        <v>1207.7</v>
       </c>
       <c r="G47" t="n">
-        <v>30.76166666666669</v>
+        <v>30.76183333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.27</v>
+        <v>30.38</v>
       </c>
       <c r="C48" t="n">
         <v>30.59</v>
@@ -2052,13 +2052,13 @@
         <v>30.59</v>
       </c>
       <c r="E48" t="n">
-        <v>30.21</v>
+        <v>30.27</v>
       </c>
       <c r="F48" t="n">
-        <v>1176.5</v>
+        <v>35033.7381</v>
       </c>
       <c r="G48" t="n">
-        <v>30.75533333333335</v>
+        <v>30.76166666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.21</v>
+        <v>30.27</v>
       </c>
       <c r="C49" t="n">
-        <v>30.21</v>
+        <v>30.59</v>
       </c>
       <c r="D49" t="n">
-        <v>30.21</v>
+        <v>30.59</v>
       </c>
       <c r="E49" t="n">
         <v>30.21</v>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>1176.5</v>
       </c>
       <c r="G49" t="n">
-        <v>30.74283333333335</v>
+        <v>30.75533333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.44</v>
+        <v>30.21</v>
       </c>
       <c r="C50" t="n">
-        <v>30.44</v>
+        <v>30.21</v>
       </c>
       <c r="D50" t="n">
-        <v>30.44</v>
+        <v>30.21</v>
       </c>
       <c r="E50" t="n">
-        <v>30.44</v>
+        <v>30.21</v>
       </c>
       <c r="F50" t="n">
-        <v>12464.8464</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="n">
-        <v>30.73683333333335</v>
+        <v>30.74283333333335</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.25</v>
+        <v>30.44</v>
       </c>
       <c r="C51" t="n">
-        <v>30.25</v>
+        <v>30.44</v>
       </c>
       <c r="D51" t="n">
-        <v>30.25</v>
+        <v>30.44</v>
       </c>
       <c r="E51" t="n">
-        <v>30.25</v>
+        <v>30.44</v>
       </c>
       <c r="F51" t="n">
-        <v>10000</v>
+        <v>12464.8464</v>
       </c>
       <c r="G51" t="n">
-        <v>30.72766666666669</v>
+        <v>30.73683333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30.26</v>
+        <v>30.25</v>
       </c>
       <c r="C52" t="n">
-        <v>30.26</v>
+        <v>30.25</v>
       </c>
       <c r="D52" t="n">
-        <v>30.26</v>
+        <v>30.25</v>
       </c>
       <c r="E52" t="n">
-        <v>30.26</v>
+        <v>30.25</v>
       </c>
       <c r="F52" t="n">
-        <v>1626.1779</v>
+        <v>10000</v>
       </c>
       <c r="G52" t="n">
-        <v>30.72200000000002</v>
+        <v>30.72766666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>30.26</v>
       </c>
       <c r="C53" t="n">
-        <v>30.02</v>
+        <v>30.26</v>
       </c>
       <c r="D53" t="n">
         <v>30.26</v>
       </c>
       <c r="E53" t="n">
-        <v>30.02</v>
+        <v>30.26</v>
       </c>
       <c r="F53" t="n">
-        <v>77542.46060000001</v>
+        <v>1626.1779</v>
       </c>
       <c r="G53" t="n">
-        <v>30.70900000000002</v>
+        <v>30.72200000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="C54" t="n">
         <v>30.02</v>
       </c>
-      <c r="C54" t="n">
-        <v>30.44</v>
-      </c>
       <c r="D54" t="n">
-        <v>30.44</v>
+        <v>30.26</v>
       </c>
       <c r="E54" t="n">
         <v>30.02</v>
       </c>
       <c r="F54" t="n">
-        <v>1138.8</v>
+        <v>77542.46060000001</v>
       </c>
       <c r="G54" t="n">
-        <v>30.70300000000002</v>
+        <v>30.70900000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2291,19 @@
         <v>30.02</v>
       </c>
       <c r="C55" t="n">
-        <v>29.97</v>
+        <v>30.44</v>
       </c>
       <c r="D55" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="E55" t="n">
         <v>30.02</v>
       </c>
-      <c r="E55" t="n">
-        <v>29.97</v>
-      </c>
       <c r="F55" t="n">
-        <v>84770.79700000001</v>
+        <v>1138.8</v>
       </c>
       <c r="G55" t="n">
-        <v>30.68750000000002</v>
+        <v>30.70300000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.97</v>
+        <v>30.02</v>
       </c>
       <c r="C56" t="n">
         <v>29.97</v>
       </c>
       <c r="D56" t="n">
-        <v>29.97</v>
+        <v>30.02</v>
       </c>
       <c r="E56" t="n">
         <v>29.97</v>
       </c>
       <c r="F56" t="n">
-        <v>33216.0733</v>
+        <v>84770.79700000001</v>
       </c>
       <c r="G56" t="n">
-        <v>30.67366666666669</v>
+        <v>30.68750000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>29.97</v>
       </c>
       <c r="C57" t="n">
-        <v>30.29</v>
+        <v>29.97</v>
       </c>
       <c r="D57" t="n">
-        <v>30.29</v>
+        <v>29.97</v>
       </c>
       <c r="E57" t="n">
         <v>29.97</v>
       </c>
       <c r="F57" t="n">
-        <v>1158.3</v>
+        <v>33216.0733</v>
       </c>
       <c r="G57" t="n">
-        <v>30.66683333333335</v>
+        <v>30.67366666666669</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>29.97</v>
       </c>
       <c r="C58" t="n">
-        <v>29.97</v>
+        <v>30.29</v>
       </c>
       <c r="D58" t="n">
-        <v>29.97</v>
+        <v>30.29</v>
       </c>
       <c r="E58" t="n">
         <v>29.97</v>
       </c>
       <c r="F58" t="n">
-        <v>22000</v>
+        <v>1158.3</v>
       </c>
       <c r="G58" t="n">
-        <v>30.65133333333335</v>
+        <v>30.66683333333335</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.29</v>
+        <v>29.97</v>
       </c>
       <c r="C59" t="n">
-        <v>30.29</v>
+        <v>29.97</v>
       </c>
       <c r="D59" t="n">
-        <v>30.29</v>
+        <v>29.97</v>
       </c>
       <c r="E59" t="n">
-        <v>30.29</v>
+        <v>29.97</v>
       </c>
       <c r="F59" t="n">
-        <v>65354.4316</v>
+        <v>22000</v>
       </c>
       <c r="G59" t="n">
-        <v>30.64200000000002</v>
+        <v>30.65133333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>30.29</v>
       </c>
       <c r="C60" t="n">
-        <v>29.9</v>
+        <v>30.29</v>
       </c>
       <c r="D60" t="n">
         <v>30.29</v>
       </c>
       <c r="E60" t="n">
-        <v>29.9</v>
+        <v>30.29</v>
       </c>
       <c r="F60" t="n">
-        <v>32058.6077</v>
+        <v>65354.4316</v>
       </c>
       <c r="G60" t="n">
-        <v>30.62616666666669</v>
+        <v>30.64200000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30</v>
+        <v>30.29</v>
       </c>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>30.29</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F61" t="n">
-        <v>80766.6828</v>
+        <v>32058.6077</v>
       </c>
       <c r="G61" t="n">
-        <v>30.61366666666669</v>
+        <v>30.62616666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>30</v>
       </c>
       <c r="F62" t="n">
-        <v>29233.3172</v>
+        <v>80766.6828</v>
       </c>
       <c r="G62" t="n">
-        <v>30.60033333333336</v>
+        <v>30.61366666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.33</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
-        <v>30.33</v>
+        <v>30</v>
       </c>
       <c r="E63" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="F63" t="n">
-        <v>84587.62729999999</v>
+        <v>29233.3172</v>
       </c>
       <c r="G63" t="n">
-        <v>30.58450000000003</v>
+        <v>30.60033333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="C64" t="n">
         <v>29.9</v>
-      </c>
-      <c r="C64" t="n">
-        <v>30.33</v>
       </c>
       <c r="D64" t="n">
         <v>30.33</v>
       </c>
       <c r="E64" t="n">
-        <v>29.89</v>
+        <v>29.9</v>
       </c>
       <c r="F64" t="n">
-        <v>45216.6037</v>
+        <v>84587.62729999999</v>
       </c>
       <c r="G64" t="n">
-        <v>30.57583333333336</v>
+        <v>30.58450000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="D65" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="E65" t="n">
         <v>29.89</v>
       </c>
-      <c r="C65" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>29.89</v>
-      </c>
-      <c r="E65" t="n">
-        <v>29.8</v>
-      </c>
       <c r="F65" t="n">
-        <v>14961.0487</v>
+        <v>45216.6037</v>
       </c>
       <c r="G65" t="n">
-        <v>30.55833333333336</v>
+        <v>30.57583333333336</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>29.89</v>
       </c>
       <c r="C66" t="n">
-        <v>29.89</v>
+        <v>29.8</v>
       </c>
       <c r="D66" t="n">
         <v>29.89</v>
       </c>
       <c r="E66" t="n">
-        <v>29.89</v>
+        <v>29.8</v>
       </c>
       <c r="F66" t="n">
-        <v>8871.3182</v>
+        <v>14961.0487</v>
       </c>
       <c r="G66" t="n">
-        <v>30.54233333333337</v>
+        <v>30.55833333333336</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29.9</v>
+        <v>29.89</v>
       </c>
       <c r="C67" t="n">
         <v>29.89</v>
       </c>
       <c r="D67" t="n">
-        <v>29.9</v>
+        <v>29.89</v>
       </c>
       <c r="E67" t="n">
         <v>29.89</v>
       </c>
       <c r="F67" t="n">
-        <v>4720.2834</v>
+        <v>8871.3182</v>
       </c>
       <c r="G67" t="n">
-        <v>30.52783333333337</v>
+        <v>30.54233333333337</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.89</v>
+        <v>29.9</v>
       </c>
       <c r="C68" t="n">
         <v>29.89</v>
       </c>
       <c r="D68" t="n">
-        <v>29.89</v>
+        <v>29.9</v>
       </c>
       <c r="E68" t="n">
         <v>29.89</v>
       </c>
       <c r="F68" t="n">
-        <v>9844.464900000001</v>
+        <v>4720.2834</v>
       </c>
       <c r="G68" t="n">
-        <v>30.51600000000004</v>
+        <v>30.52783333333337</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>29.89</v>
       </c>
       <c r="F69" t="n">
-        <v>8865.767</v>
+        <v>9844.464900000001</v>
       </c>
       <c r="G69" t="n">
-        <v>30.50000000000004</v>
+        <v>30.51600000000004</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.81</v>
+        <v>29.89</v>
       </c>
       <c r="C70" t="n">
-        <v>29.61</v>
+        <v>29.89</v>
       </c>
       <c r="D70" t="n">
-        <v>29.81</v>
+        <v>29.89</v>
       </c>
       <c r="E70" t="n">
-        <v>29.61</v>
+        <v>29.89</v>
       </c>
       <c r="F70" t="n">
-        <v>65354.4316</v>
+        <v>8865.767</v>
       </c>
       <c r="G70" t="n">
-        <v>30.47933333333338</v>
+        <v>30.50000000000004</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>29.8</v>
+        <v>29.81</v>
       </c>
       <c r="C71" t="n">
-        <v>29.8</v>
+        <v>29.61</v>
       </c>
       <c r="D71" t="n">
-        <v>29.8</v>
+        <v>29.81</v>
       </c>
       <c r="E71" t="n">
-        <v>29.8</v>
+        <v>29.61</v>
       </c>
       <c r="F71" t="n">
-        <v>18079.1191</v>
+        <v>65354.4316</v>
       </c>
       <c r="G71" t="n">
-        <v>30.46600000000004</v>
+        <v>30.47933333333338</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>29.8</v>
       </c>
       <c r="F72" t="n">
-        <v>7254.8184</v>
+        <v>18079.1191</v>
       </c>
       <c r="G72" t="n">
-        <v>30.45600000000004</v>
+        <v>30.46600000000004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>29.65</v>
+        <v>29.8</v>
       </c>
       <c r="C73" t="n">
         <v>29.8</v>
@@ -2927,13 +2927,13 @@
         <v>29.8</v>
       </c>
       <c r="E73" t="n">
-        <v>29.65</v>
+        <v>29.8</v>
       </c>
       <c r="F73" t="n">
-        <v>1240.2</v>
+        <v>7254.8184</v>
       </c>
       <c r="G73" t="n">
-        <v>30.43950000000004</v>
+        <v>30.45600000000004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="C74" t="n">
         <v>29.8</v>
       </c>
-      <c r="C74" t="n">
-        <v>30.19</v>
-      </c>
       <c r="D74" t="n">
-        <v>30.19</v>
+        <v>29.8</v>
       </c>
       <c r="E74" t="n">
-        <v>29.8</v>
+        <v>29.65</v>
       </c>
       <c r="F74" t="n">
-        <v>11630.6792</v>
+        <v>1240.2</v>
       </c>
       <c r="G74" t="n">
-        <v>30.42766666666671</v>
+        <v>30.43950000000004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>29.8</v>
       </c>
       <c r="C75" t="n">
-        <v>29.8</v>
+        <v>30.19</v>
       </c>
       <c r="D75" t="n">
-        <v>29.8</v>
+        <v>30.19</v>
       </c>
       <c r="E75" t="n">
         <v>29.8</v>
       </c>
       <c r="F75" t="n">
-        <v>8723.101699999999</v>
+        <v>11630.6792</v>
       </c>
       <c r="G75" t="n">
-        <v>30.40933333333337</v>
+        <v>30.42766666666671</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>29.65</v>
+        <v>29.8</v>
       </c>
       <c r="C76" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D76" t="n">
-        <v>29.65</v>
+        <v>29.8</v>
       </c>
       <c r="E76" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="F76" t="n">
-        <v>166326.6534</v>
+        <v>8723.101699999999</v>
       </c>
       <c r="G76" t="n">
-        <v>30.39200000000004</v>
+        <v>30.40933333333337</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.4</v>
+        <v>29.65</v>
       </c>
       <c r="C77" t="n">
-        <v>29.36</v>
+        <v>29.5</v>
       </c>
       <c r="D77" t="n">
-        <v>29.4</v>
+        <v>29.65</v>
       </c>
       <c r="E77" t="n">
-        <v>29.36</v>
+        <v>29.5</v>
       </c>
       <c r="F77" t="n">
-        <v>31287.0993</v>
+        <v>166326.6534</v>
       </c>
       <c r="G77" t="n">
-        <v>30.3666666666667</v>
+        <v>30.39200000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.24</v>
+        <v>29.4</v>
       </c>
       <c r="C78" t="n">
-        <v>29.2</v>
+        <v>29.36</v>
       </c>
       <c r="D78" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E78" t="n">
         <v>29.36</v>
       </c>
-      <c r="E78" t="n">
-        <v>29.2</v>
-      </c>
       <c r="F78" t="n">
-        <v>8107.3269</v>
+        <v>31287.0993</v>
       </c>
       <c r="G78" t="n">
-        <v>30.3386666666667</v>
+        <v>30.3666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.3</v>
+        <v>29.24</v>
       </c>
       <c r="C79" t="n">
-        <v>29.12</v>
+        <v>29.2</v>
       </c>
       <c r="D79" t="n">
-        <v>29.3</v>
+        <v>29.36</v>
       </c>
       <c r="E79" t="n">
-        <v>29.12</v>
+        <v>29.2</v>
       </c>
       <c r="F79" t="n">
-        <v>30447.0103</v>
+        <v>8107.3269</v>
       </c>
       <c r="G79" t="n">
-        <v>30.30933333333336</v>
+        <v>30.3386666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C80" t="n">
-        <v>28.8</v>
+        <v>29.12</v>
       </c>
       <c r="D80" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E80" t="n">
-        <v>28.8</v>
+        <v>29.12</v>
       </c>
       <c r="F80" t="n">
-        <v>158617.1333</v>
+        <v>30447.0103</v>
       </c>
       <c r="G80" t="n">
-        <v>30.27466666666669</v>
+        <v>30.30933333333336</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.73</v>
+        <v>29.2</v>
       </c>
       <c r="C81" t="n">
-        <v>28.01</v>
+        <v>28.8</v>
       </c>
       <c r="D81" t="n">
-        <v>28.73</v>
+        <v>29.2</v>
       </c>
       <c r="E81" t="n">
-        <v>28.01</v>
+        <v>28.8</v>
       </c>
       <c r="F81" t="n">
-        <v>174715.0147</v>
+        <v>158617.1333</v>
       </c>
       <c r="G81" t="n">
-        <v>30.22666666666669</v>
+        <v>30.27466666666669</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.01</v>
+        <v>28.73</v>
       </c>
       <c r="C82" t="n">
-        <v>29.01</v>
+        <v>28.01</v>
       </c>
       <c r="D82" t="n">
-        <v>29.01</v>
+        <v>28.73</v>
       </c>
       <c r="E82" t="n">
-        <v>29.01</v>
+        <v>28.01</v>
       </c>
       <c r="F82" t="n">
-        <v>19</v>
+        <v>174715.0147</v>
       </c>
       <c r="G82" t="n">
-        <v>30.19533333333336</v>
+        <v>30.22666666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.49</v>
+        <v>29.01</v>
       </c>
       <c r="C83" t="n">
-        <v>28.49</v>
+        <v>29.01</v>
       </c>
       <c r="D83" t="n">
-        <v>28.49</v>
+        <v>29.01</v>
       </c>
       <c r="E83" t="n">
-        <v>28.49</v>
+        <v>29.01</v>
       </c>
       <c r="F83" t="n">
-        <v>2209.9599</v>
+        <v>19</v>
       </c>
       <c r="G83" t="n">
-        <v>30.15533333333336</v>
+        <v>30.19533333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28.41</v>
+        <v>28.49</v>
       </c>
       <c r="C84" t="n">
-        <v>28.58</v>
+        <v>28.49</v>
       </c>
       <c r="D84" t="n">
-        <v>28.58</v>
+        <v>28.49</v>
       </c>
       <c r="E84" t="n">
-        <v>28</v>
+        <v>28.49</v>
       </c>
       <c r="F84" t="n">
-        <v>201537.7801</v>
+        <v>2209.9599</v>
       </c>
       <c r="G84" t="n">
-        <v>30.11683333333335</v>
+        <v>30.15533333333336</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>28.1</v>
+        <v>28.41</v>
       </c>
       <c r="C85" t="n">
         <v>28.58</v>
@@ -3347,13 +3347,13 @@
         <v>28.58</v>
       </c>
       <c r="E85" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F85" t="n">
-        <v>1222</v>
+        <v>201537.7801</v>
       </c>
       <c r="G85" t="n">
-        <v>30.07833333333335</v>
+        <v>30.11683333333335</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="C86" t="n">
-        <v>28.3</v>
+        <v>28.58</v>
       </c>
       <c r="D86" t="n">
-        <v>28.3</v>
+        <v>28.58</v>
       </c>
       <c r="E86" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="F86" t="n">
-        <v>474</v>
+        <v>1222</v>
       </c>
       <c r="G86" t="n">
-        <v>30.03516666666668</v>
+        <v>30.07833333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>28.3</v>
       </c>
       <c r="F87" t="n">
-        <v>8970.888800000001</v>
+        <v>474</v>
       </c>
       <c r="G87" t="n">
-        <v>29.99366666666668</v>
+        <v>30.03516666666668</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,31 +3443,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.58</v>
+        <v>28.3</v>
       </c>
       <c r="C88" t="n">
-        <v>28.58</v>
+        <v>28.3</v>
       </c>
       <c r="D88" t="n">
-        <v>28.58</v>
+        <v>28.3</v>
       </c>
       <c r="E88" t="n">
-        <v>28.58</v>
+        <v>28.3</v>
       </c>
       <c r="F88" t="n">
-        <v>575.0064</v>
+        <v>8970.888800000001</v>
       </c>
       <c r="G88" t="n">
-        <v>29.96166666666668</v>
+        <v>29.99366666666668</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>28.3</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3478,32 +3482,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.89</v>
+        <v>28.58</v>
       </c>
       <c r="C89" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="D89" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="E89" t="n">
-        <v>28.89</v>
+        <v>28.58</v>
       </c>
       <c r="F89" t="n">
-        <v>29195.6889</v>
+        <v>575.0064</v>
       </c>
       <c r="G89" t="n">
-        <v>29.93816666666668</v>
+        <v>29.96166666666668</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,7 +3525,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.97</v>
+        <v>28.89</v>
       </c>
       <c r="C90" t="n">
         <v>28.97</v>
@@ -3522,27 +3534,29 @@
         <v>28.97</v>
       </c>
       <c r="E90" t="n">
-        <v>28.97</v>
+        <v>28.89</v>
       </c>
       <c r="F90" t="n">
-        <v>5642.0224</v>
+        <v>29195.6889</v>
       </c>
       <c r="G90" t="n">
-        <v>29.90950000000001</v>
+        <v>29.93816666666668</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="L90" t="inlineStr"/>
+        <v>28.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3552,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="C91" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="D91" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="E91" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="F91" t="n">
-        <v>15904.7388</v>
+        <v>5642.0224</v>
       </c>
       <c r="G91" t="n">
-        <v>29.88066666666668</v>
+        <v>29.90950000000001</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3581,11 +3595,7 @@
       <c r="K91" t="n">
         <v>28.97</v>
       </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3607,18 +3617,20 @@
         <v>28.96</v>
       </c>
       <c r="F92" t="n">
-        <v>19621.5279</v>
+        <v>15904.7388</v>
       </c>
       <c r="G92" t="n">
-        <v>29.85183333333334</v>
+        <v>29.88066666666668</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>28.97</v>
+      </c>
       <c r="K92" t="n">
         <v>28.97</v>
       </c>
@@ -3636,22 +3648,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>28.33</v>
+        <v>28.96</v>
       </c>
       <c r="C93" t="n">
-        <v>28.95</v>
+        <v>28.96</v>
       </c>
       <c r="D93" t="n">
         <v>28.96</v>
       </c>
       <c r="E93" t="n">
-        <v>28.33</v>
+        <v>28.96</v>
       </c>
       <c r="F93" t="n">
-        <v>1601.6993</v>
+        <v>19621.5279</v>
       </c>
       <c r="G93" t="n">
-        <v>29.82283333333334</v>
+        <v>29.85183333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3660,8 +3672,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3671,22 +3689,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>28.89</v>
+        <v>28.33</v>
       </c>
       <c r="C94" t="n">
-        <v>28.89</v>
+        <v>28.95</v>
       </c>
       <c r="D94" t="n">
-        <v>28.89</v>
+        <v>28.96</v>
       </c>
       <c r="E94" t="n">
-        <v>28.89</v>
+        <v>28.33</v>
       </c>
       <c r="F94" t="n">
-        <v>640.801</v>
+        <v>1601.6993</v>
       </c>
       <c r="G94" t="n">
-        <v>29.79283333333334</v>
+        <v>29.82283333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3706,22 +3724,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.9</v>
+        <v>28.89</v>
       </c>
       <c r="C95" t="n">
-        <v>28.9</v>
+        <v>28.89</v>
       </c>
       <c r="D95" t="n">
-        <v>28.9</v>
+        <v>28.89</v>
       </c>
       <c r="E95" t="n">
-        <v>28.9</v>
+        <v>28.89</v>
       </c>
       <c r="F95" t="n">
-        <v>5192.892</v>
+        <v>640.801</v>
       </c>
       <c r="G95" t="n">
-        <v>29.76300000000001</v>
+        <v>29.79283333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3741,22 +3759,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>28.96</v>
+        <v>28.9</v>
       </c>
       <c r="C96" t="n">
-        <v>28.96</v>
+        <v>28.9</v>
       </c>
       <c r="D96" t="n">
-        <v>28.96</v>
+        <v>28.9</v>
       </c>
       <c r="E96" t="n">
-        <v>28.96</v>
+        <v>28.9</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>5192.892</v>
       </c>
       <c r="G96" t="n">
-        <v>29.73233333333335</v>
+        <v>29.76300000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3788,10 +3806,10 @@
         <v>28.96</v>
       </c>
       <c r="F97" t="n">
-        <v>8768.210999999999</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>29.70166666666668</v>
+        <v>29.73233333333335</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3823,10 +3841,10 @@
         <v>28.96</v>
       </c>
       <c r="F98" t="n">
-        <v>4102.9781</v>
+        <v>8768.210999999999</v>
       </c>
       <c r="G98" t="n">
-        <v>29.67733333333335</v>
+        <v>29.70166666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3846,7 +3864,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.45</v>
+        <v>28.96</v>
       </c>
       <c r="C99" t="n">
         <v>28.96</v>
@@ -3855,13 +3873,13 @@
         <v>28.96</v>
       </c>
       <c r="E99" t="n">
-        <v>28.45</v>
+        <v>28.96</v>
       </c>
       <c r="F99" t="n">
-        <v>1254.5</v>
+        <v>4102.9781</v>
       </c>
       <c r="G99" t="n">
-        <v>29.64666666666668</v>
+        <v>29.67733333333335</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,7 +3899,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.96</v>
+        <v>28.45</v>
       </c>
       <c r="C100" t="n">
         <v>28.96</v>
@@ -3890,13 +3908,13 @@
         <v>28.96</v>
       </c>
       <c r="E100" t="n">
-        <v>28.96</v>
+        <v>28.45</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>1254.5</v>
       </c>
       <c r="G100" t="n">
-        <v>29.62250000000001</v>
+        <v>29.64666666666668</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3928,10 +3946,10 @@
         <v>28.96</v>
       </c>
       <c r="F101" t="n">
-        <v>39578.1086</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>29.59200000000002</v>
+        <v>29.62250000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3951,22 +3969,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="C102" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="D102" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="E102" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="F102" t="n">
-        <v>72571.24249999999</v>
+        <v>39578.1086</v>
       </c>
       <c r="G102" t="n">
-        <v>29.56166666666668</v>
+        <v>29.59200000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,7 +4004,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="C103" t="n">
         <v>28.97</v>
@@ -3995,13 +4013,13 @@
         <v>28.97</v>
       </c>
       <c r="E103" t="n">
-        <v>28.45</v>
+        <v>28.97</v>
       </c>
       <c r="F103" t="n">
-        <v>1297.4</v>
+        <v>72571.24249999999</v>
       </c>
       <c r="G103" t="n">
-        <v>29.53133333333335</v>
+        <v>29.56166666666668</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4021,7 +4039,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="C104" t="n">
         <v>28.97</v>
@@ -4030,13 +4048,13 @@
         <v>28.97</v>
       </c>
       <c r="E104" t="n">
-        <v>28.97</v>
+        <v>28.45</v>
       </c>
       <c r="F104" t="n">
-        <v>5750.2653</v>
+        <v>1297.4</v>
       </c>
       <c r="G104" t="n">
-        <v>29.50733333333335</v>
+        <v>29.53133333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4059,19 +4077,19 @@
         <v>28.97</v>
       </c>
       <c r="C105" t="n">
-        <v>28.61</v>
+        <v>28.97</v>
       </c>
       <c r="D105" t="n">
         <v>28.97</v>
       </c>
       <c r="E105" t="n">
-        <v>28.61</v>
+        <v>28.97</v>
       </c>
       <c r="F105" t="n">
-        <v>1014.801</v>
+        <v>5750.2653</v>
       </c>
       <c r="G105" t="n">
-        <v>29.47100000000001</v>
+        <v>29.50733333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4094,19 +4112,19 @@
         <v>28.97</v>
       </c>
       <c r="C106" t="n">
-        <v>28.97</v>
+        <v>28.61</v>
       </c>
       <c r="D106" t="n">
         <v>28.97</v>
       </c>
       <c r="E106" t="n">
-        <v>28.97</v>
+        <v>28.61</v>
       </c>
       <c r="F106" t="n">
-        <v>9693.7803</v>
+        <v>1014.801</v>
       </c>
       <c r="G106" t="n">
-        <v>29.44100000000002</v>
+        <v>29.47100000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4126,7 +4144,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28.61</v>
+        <v>28.97</v>
       </c>
       <c r="C107" t="n">
         <v>28.97</v>
@@ -4135,13 +4153,13 @@
         <v>28.97</v>
       </c>
       <c r="E107" t="n">
-        <v>28.61</v>
+        <v>28.97</v>
       </c>
       <c r="F107" t="n">
-        <v>1309.1</v>
+        <v>9693.7803</v>
       </c>
       <c r="G107" t="n">
-        <v>29.41400000000002</v>
+        <v>29.44100000000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4161,7 +4179,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.96</v>
+        <v>28.61</v>
       </c>
       <c r="C108" t="n">
         <v>28.97</v>
@@ -4170,13 +4188,13 @@
         <v>28.97</v>
       </c>
       <c r="E108" t="n">
-        <v>28.96</v>
+        <v>28.61</v>
       </c>
       <c r="F108" t="n">
-        <v>7313.7514</v>
+        <v>1309.1</v>
       </c>
       <c r="G108" t="n">
-        <v>29.38700000000002</v>
+        <v>29.41400000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4196,7 +4214,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.61</v>
+        <v>28.96</v>
       </c>
       <c r="C109" t="n">
         <v>28.97</v>
@@ -4205,13 +4223,13 @@
         <v>28.97</v>
       </c>
       <c r="E109" t="n">
-        <v>28.61</v>
+        <v>28.96</v>
       </c>
       <c r="F109" t="n">
-        <v>91851.61870000001</v>
+        <v>7313.7514</v>
       </c>
       <c r="G109" t="n">
-        <v>29.36633333333335</v>
+        <v>29.38700000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4231,7 +4249,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.85</v>
+        <v>28.61</v>
       </c>
       <c r="C110" t="n">
         <v>28.97</v>
@@ -4243,10 +4261,10 @@
         <v>28.61</v>
       </c>
       <c r="F110" t="n">
-        <v>1288.3</v>
+        <v>91851.61870000001</v>
       </c>
       <c r="G110" t="n">
-        <v>29.34183333333335</v>
+        <v>29.36633333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4266,22 +4284,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.61</v>
+        <v>28.85</v>
       </c>
       <c r="C111" t="n">
-        <v>28.61</v>
+        <v>28.97</v>
       </c>
       <c r="D111" t="n">
-        <v>28.61</v>
+        <v>28.97</v>
       </c>
       <c r="E111" t="n">
         <v>28.61</v>
       </c>
       <c r="F111" t="n">
-        <v>84.90519999999999</v>
+        <v>1288.3</v>
       </c>
       <c r="G111" t="n">
-        <v>29.31450000000002</v>
+        <v>29.34183333333335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4304,19 +4322,19 @@
         <v>28.61</v>
       </c>
       <c r="C112" t="n">
-        <v>28.97</v>
+        <v>28.61</v>
       </c>
       <c r="D112" t="n">
-        <v>28.97</v>
+        <v>28.61</v>
       </c>
       <c r="E112" t="n">
         <v>28.61</v>
       </c>
       <c r="F112" t="n">
-        <v>1298.7</v>
+        <v>84.90519999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>29.29300000000002</v>
+        <v>29.31450000000002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4336,7 +4354,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.97</v>
+        <v>28.61</v>
       </c>
       <c r="C113" t="n">
         <v>28.97</v>
@@ -4345,13 +4363,13 @@
         <v>28.97</v>
       </c>
       <c r="E113" t="n">
-        <v>28.97</v>
+        <v>28.61</v>
       </c>
       <c r="F113" t="n">
-        <v>320.6123</v>
+        <v>1298.7</v>
       </c>
       <c r="G113" t="n">
-        <v>29.27550000000002</v>
+        <v>29.29300000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,22 +4389,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28.7</v>
+        <v>28.97</v>
       </c>
       <c r="C114" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="D114" t="n">
-        <v>28.7</v>
+        <v>28.97</v>
       </c>
       <c r="E114" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="F114" t="n">
-        <v>7038.8894</v>
+        <v>320.6123</v>
       </c>
       <c r="G114" t="n">
-        <v>29.24483333333335</v>
+        <v>29.27550000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4409,19 +4427,19 @@
         <v>28.7</v>
       </c>
       <c r="C115" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D115" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E115" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F115" t="n">
-        <v>1358.5</v>
+        <v>7038.8894</v>
       </c>
       <c r="G115" t="n">
-        <v>29.22700000000002</v>
+        <v>29.24483333333335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4441,7 +4459,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.89</v>
+        <v>28.7</v>
       </c>
       <c r="C116" t="n">
         <v>28.9</v>
@@ -4450,13 +4468,13 @@
         <v>28.9</v>
       </c>
       <c r="E116" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F116" t="n">
-        <v>4941.0136</v>
+        <v>1358.5</v>
       </c>
       <c r="G116" t="n">
-        <v>29.20916666666669</v>
+        <v>29.22700000000002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4476,22 +4494,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.6</v>
+        <v>28.89</v>
       </c>
       <c r="C117" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D117" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="E117" t="n">
         <v>28.6</v>
       </c>
       <c r="F117" t="n">
-        <v>1360.2534</v>
+        <v>4941.0136</v>
       </c>
       <c r="G117" t="n">
-        <v>29.18100000000002</v>
+        <v>29.20916666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4523,10 +4541,10 @@
         <v>28.6</v>
       </c>
       <c r="F118" t="n">
-        <v>1360.2535</v>
+        <v>1360.2534</v>
       </c>
       <c r="G118" t="n">
-        <v>29.15816666666668</v>
+        <v>29.18100000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4549,19 +4567,19 @@
         <v>28.6</v>
       </c>
       <c r="C119" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D119" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E119" t="n">
         <v>28.6</v>
       </c>
       <c r="F119" t="n">
-        <v>6186.836</v>
+        <v>1360.2535</v>
       </c>
       <c r="G119" t="n">
-        <v>29.13500000000002</v>
+        <v>29.15816666666668</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4581,22 +4599,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C120" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D120" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E120" t="n">
         <v>28.6</v>
       </c>
       <c r="F120" t="n">
-        <v>10000</v>
+        <v>6186.836</v>
       </c>
       <c r="G120" t="n">
-        <v>29.11333333333335</v>
+        <v>29.13500000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4616,22 +4634,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C121" t="n">
         <v>28.6</v>
       </c>
-      <c r="C121" t="n">
-        <v>28.9</v>
-      </c>
       <c r="D121" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E121" t="n">
         <v>28.6</v>
       </c>
       <c r="F121" t="n">
-        <v>1435.2</v>
+        <v>10000</v>
       </c>
       <c r="G121" t="n">
-        <v>29.09500000000002</v>
+        <v>29.11333333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4651,7 +4669,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C122" t="n">
         <v>28.9</v>
@@ -4660,13 +4678,13 @@
         <v>28.9</v>
       </c>
       <c r="E122" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F122" t="n">
-        <v>55.3812</v>
+        <v>1435.2</v>
       </c>
       <c r="G122" t="n">
-        <v>29.07666666666669</v>
+        <v>29.09500000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4698,10 +4716,10 @@
         <v>28.9</v>
       </c>
       <c r="F123" t="n">
-        <v>9293.6463</v>
+        <v>55.3812</v>
       </c>
       <c r="G123" t="n">
-        <v>29.06000000000002</v>
+        <v>29.07666666666669</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4721,22 +4739,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="C124" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D124" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="E124" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="F124" t="n">
-        <v>40793.2005</v>
+        <v>9293.6463</v>
       </c>
       <c r="G124" t="n">
-        <v>29.03116666666669</v>
+        <v>29.06000000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4756,22 +4774,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C125" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D125" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E125" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F125" t="n">
-        <v>30000</v>
+        <v>40793.2005</v>
       </c>
       <c r="G125" t="n">
-        <v>29.00950000000002</v>
+        <v>29.03116666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4791,7 +4809,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.45</v>
+        <v>28.5</v>
       </c>
       <c r="C126" t="n">
         <v>28.5</v>
@@ -4800,13 +4818,13 @@
         <v>28.5</v>
       </c>
       <c r="E126" t="n">
-        <v>28.45</v>
+        <v>28.5</v>
       </c>
       <c r="F126" t="n">
-        <v>142961.8869</v>
+        <v>30000</v>
       </c>
       <c r="G126" t="n">
-        <v>28.98633333333335</v>
+        <v>29.00950000000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4826,22 +4844,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.97</v>
+        <v>28.45</v>
       </c>
       <c r="C127" t="n">
-        <v>28.97</v>
+        <v>28.5</v>
       </c>
       <c r="D127" t="n">
-        <v>28.97</v>
+        <v>28.5</v>
       </c>
       <c r="E127" t="n">
-        <v>28.35</v>
+        <v>28.45</v>
       </c>
       <c r="F127" t="n">
-        <v>249804.1</v>
+        <v>142961.8869</v>
       </c>
       <c r="G127" t="n">
-        <v>28.97100000000001</v>
+        <v>28.98633333333335</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4861,7 +4879,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.37</v>
+        <v>28.97</v>
       </c>
       <c r="C128" t="n">
         <v>28.97</v>
@@ -4873,10 +4891,10 @@
         <v>28.35</v>
       </c>
       <c r="F128" t="n">
-        <v>68000</v>
+        <v>249804.1</v>
       </c>
       <c r="G128" t="n">
-        <v>28.95566666666668</v>
+        <v>28.97100000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,7 +4914,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.97</v>
+        <v>28.37</v>
       </c>
       <c r="C129" t="n">
         <v>28.97</v>
@@ -4905,13 +4923,13 @@
         <v>28.97</v>
       </c>
       <c r="E129" t="n">
-        <v>28.97</v>
+        <v>28.35</v>
       </c>
       <c r="F129" t="n">
-        <v>6029.5256</v>
+        <v>68000</v>
       </c>
       <c r="G129" t="n">
-        <v>28.94033333333335</v>
+        <v>28.95566666666668</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4931,22 +4949,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28.38</v>
+        <v>28.97</v>
       </c>
       <c r="C130" t="n">
-        <v>28.38</v>
+        <v>28.97</v>
       </c>
       <c r="D130" t="n">
-        <v>28.38</v>
+        <v>28.97</v>
       </c>
       <c r="E130" t="n">
-        <v>28.38</v>
+        <v>28.97</v>
       </c>
       <c r="F130" t="n">
-        <v>832.2368</v>
+        <v>6029.5256</v>
       </c>
       <c r="G130" t="n">
-        <v>28.91983333333335</v>
+        <v>28.94033333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4966,22 +4984,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>28.97</v>
+        <v>28.38</v>
       </c>
       <c r="C131" t="n">
-        <v>28.97</v>
+        <v>28.38</v>
       </c>
       <c r="D131" t="n">
-        <v>28.97</v>
+        <v>28.38</v>
       </c>
       <c r="E131" t="n">
-        <v>28.97</v>
+        <v>28.38</v>
       </c>
       <c r="F131" t="n">
-        <v>7310.6749</v>
+        <v>832.2368</v>
       </c>
       <c r="G131" t="n">
-        <v>28.90600000000002</v>
+        <v>28.91983333333335</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5001,7 +5019,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>28.5</v>
+        <v>28.97</v>
       </c>
       <c r="C132" t="n">
         <v>28.97</v>
@@ -5010,13 +5028,13 @@
         <v>28.97</v>
       </c>
       <c r="E132" t="n">
-        <v>28.5</v>
+        <v>28.97</v>
       </c>
       <c r="F132" t="n">
-        <v>1449.5</v>
+        <v>7310.6749</v>
       </c>
       <c r="G132" t="n">
-        <v>28.89216666666669</v>
+        <v>28.90600000000002</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5036,7 +5054,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>28.97</v>
+        <v>28.5</v>
       </c>
       <c r="C133" t="n">
         <v>28.97</v>
@@ -5045,13 +5063,13 @@
         <v>28.97</v>
       </c>
       <c r="E133" t="n">
-        <v>28.97</v>
+        <v>28.5</v>
       </c>
       <c r="F133" t="n">
-        <v>33708.0257</v>
+        <v>1449.5</v>
       </c>
       <c r="G133" t="n">
-        <v>28.87833333333335</v>
+        <v>28.89216666666669</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5071,22 +5089,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>28.5</v>
+        <v>28.97</v>
       </c>
       <c r="C134" t="n">
-        <v>28.5</v>
+        <v>28.97</v>
       </c>
       <c r="D134" t="n">
-        <v>28.5</v>
+        <v>28.97</v>
       </c>
       <c r="E134" t="n">
-        <v>28.5</v>
+        <v>28.97</v>
       </c>
       <c r="F134" t="n">
-        <v>20395.2034</v>
+        <v>33708.0257</v>
       </c>
       <c r="G134" t="n">
-        <v>28.85016666666668</v>
+        <v>28.87833333333335</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5106,22 +5124,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
       <c r="C135" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="D135" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="E135" t="n">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
       <c r="F135" t="n">
-        <v>3290.727</v>
+        <v>20395.2034</v>
       </c>
       <c r="G135" t="n">
-        <v>28.83616666666669</v>
+        <v>28.85016666666668</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5141,22 +5159,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>28.51</v>
+      </c>
+      <c r="C136" t="n">
         <v>28.96</v>
       </c>
-      <c r="C136" t="n">
-        <v>28.97</v>
-      </c>
       <c r="D136" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="E136" t="n">
-        <v>28.41</v>
+        <v>28.51</v>
       </c>
       <c r="F136" t="n">
-        <v>326051.8426</v>
+        <v>3290.727</v>
       </c>
       <c r="G136" t="n">
-        <v>28.82733333333335</v>
+        <v>28.83616666666669</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5176,22 +5194,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>28.5</v>
+        <v>28.96</v>
       </c>
       <c r="C137" t="n">
-        <v>28.89</v>
+        <v>28.97</v>
       </c>
       <c r="D137" t="n">
-        <v>28.89</v>
+        <v>28.97</v>
       </c>
       <c r="E137" t="n">
-        <v>28.5</v>
+        <v>28.41</v>
       </c>
       <c r="F137" t="n">
-        <v>1340.3</v>
+        <v>326051.8426</v>
       </c>
       <c r="G137" t="n">
-        <v>28.81950000000002</v>
+        <v>28.82733333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5214,19 +5232,19 @@
         <v>28.5</v>
       </c>
       <c r="C138" t="n">
-        <v>28.43</v>
+        <v>28.89</v>
       </c>
       <c r="D138" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="E138" t="n">
         <v>28.5</v>
       </c>
-      <c r="E138" t="n">
-        <v>28.43</v>
-      </c>
       <c r="F138" t="n">
-        <v>1996.1931</v>
+        <v>1340.3</v>
       </c>
       <c r="G138" t="n">
-        <v>28.80666666666669</v>
+        <v>28.81950000000002</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5246,22 +5264,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>28.89</v>
+        <v>28.5</v>
       </c>
       <c r="C139" t="n">
-        <v>28.89</v>
+        <v>28.43</v>
       </c>
       <c r="D139" t="n">
-        <v>28.89</v>
+        <v>28.5</v>
       </c>
       <c r="E139" t="n">
-        <v>28.89</v>
+        <v>28.43</v>
       </c>
       <c r="F139" t="n">
-        <v>1829.3922</v>
+        <v>1996.1931</v>
       </c>
       <c r="G139" t="n">
-        <v>28.80283333333336</v>
+        <v>28.80666666666669</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5281,22 +5299,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>28.88</v>
+        <v>28.89</v>
       </c>
       <c r="C140" t="n">
-        <v>28.88</v>
+        <v>28.89</v>
       </c>
       <c r="D140" t="n">
-        <v>28.88</v>
+        <v>28.89</v>
       </c>
       <c r="E140" t="n">
-        <v>28.88</v>
+        <v>28.89</v>
       </c>
       <c r="F140" t="n">
-        <v>9132.4218</v>
+        <v>1829.3922</v>
       </c>
       <c r="G140" t="n">
-        <v>28.8041666666667</v>
+        <v>28.80283333333336</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5316,7 +5334,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>28.42</v>
+        <v>28.88</v>
       </c>
       <c r="C141" t="n">
         <v>28.88</v>
@@ -5325,13 +5343,13 @@
         <v>28.88</v>
       </c>
       <c r="E141" t="n">
-        <v>28.42</v>
+        <v>28.88</v>
       </c>
       <c r="F141" t="n">
-        <v>1320.8</v>
+        <v>9132.4218</v>
       </c>
       <c r="G141" t="n">
-        <v>28.8186666666667</v>
+        <v>28.8041666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5354,19 +5372,19 @@
         <v>28.42</v>
       </c>
       <c r="C142" t="n">
-        <v>28.97</v>
+        <v>28.88</v>
       </c>
       <c r="D142" t="n">
-        <v>28.97</v>
+        <v>28.88</v>
       </c>
       <c r="E142" t="n">
-        <v>28.41</v>
+        <v>28.42</v>
       </c>
       <c r="F142" t="n">
-        <v>152000</v>
+        <v>1320.8</v>
       </c>
       <c r="G142" t="n">
-        <v>28.81800000000003</v>
+        <v>28.8186666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5386,22 +5404,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>28.5</v>
+        <v>28.42</v>
       </c>
       <c r="C143" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="D143" t="n">
         <v>28.97</v>
       </c>
       <c r="E143" t="n">
-        <v>28.3</v>
+        <v>28.41</v>
       </c>
       <c r="F143" t="n">
-        <v>381933.0255</v>
+        <v>152000</v>
       </c>
       <c r="G143" t="n">
-        <v>28.82583333333337</v>
+        <v>28.81800000000003</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5421,22 +5439,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="C144" t="n">
         <v>28.96</v>
       </c>
       <c r="D144" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="E144" t="n">
-        <v>28.21</v>
+        <v>28.3</v>
       </c>
       <c r="F144" t="n">
-        <v>190000</v>
+        <v>381933.0255</v>
       </c>
       <c r="G144" t="n">
-        <v>28.8321666666667</v>
+        <v>28.82583333333337</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5456,19 +5474,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>28.22</v>
+        <v>28.4</v>
       </c>
       <c r="C145" t="n">
-        <v>28.58</v>
+        <v>28.96</v>
       </c>
       <c r="D145" t="n">
-        <v>28.58</v>
+        <v>28.96</v>
       </c>
       <c r="E145" t="n">
-        <v>28.22</v>
+        <v>28.21</v>
       </c>
       <c r="F145" t="n">
-        <v>1267.5</v>
+        <v>190000</v>
       </c>
       <c r="G145" t="n">
         <v>28.8321666666667</v>
@@ -5491,22 +5509,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28.24</v>
+        <v>28.22</v>
       </c>
       <c r="C146" t="n">
-        <v>28.24</v>
+        <v>28.58</v>
       </c>
       <c r="D146" t="n">
-        <v>28.24</v>
+        <v>28.58</v>
       </c>
       <c r="E146" t="n">
-        <v>28.24</v>
+        <v>28.22</v>
       </c>
       <c r="F146" t="n">
-        <v>1625.4057</v>
+        <v>1267.5</v>
       </c>
       <c r="G146" t="n">
-        <v>28.8311666666667</v>
+        <v>28.8321666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5526,22 +5544,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>28.25</v>
+        <v>28.24</v>
       </c>
       <c r="C147" t="n">
-        <v>28.97</v>
+        <v>28.24</v>
       </c>
       <c r="D147" t="n">
-        <v>28.97</v>
+        <v>28.24</v>
       </c>
       <c r="E147" t="n">
-        <v>28.03</v>
+        <v>28.24</v>
       </c>
       <c r="F147" t="n">
-        <v>133000</v>
+        <v>1625.4057</v>
       </c>
       <c r="G147" t="n">
-        <v>28.84233333333337</v>
+        <v>28.8311666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5561,7 +5579,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>28.21</v>
+        <v>28.25</v>
       </c>
       <c r="C148" t="n">
         <v>28.97</v>
@@ -5570,13 +5588,13 @@
         <v>28.97</v>
       </c>
       <c r="E148" t="n">
-        <v>28.05</v>
+        <v>28.03</v>
       </c>
       <c r="F148" t="n">
-        <v>760000</v>
+        <v>133000</v>
       </c>
       <c r="G148" t="n">
-        <v>28.84883333333337</v>
+        <v>28.84233333333337</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5596,22 +5614,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>28.07</v>
+        <v>28.21</v>
       </c>
       <c r="C149" t="n">
-        <v>28.58</v>
+        <v>28.97</v>
       </c>
       <c r="D149" t="n">
-        <v>28.58</v>
+        <v>28.97</v>
       </c>
       <c r="E149" t="n">
-        <v>28.07</v>
+        <v>28.05</v>
       </c>
       <c r="F149" t="n">
-        <v>1322.1</v>
+        <v>760000</v>
       </c>
       <c r="G149" t="n">
-        <v>28.84233333333337</v>
+        <v>28.84883333333337</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5631,19 +5649,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="C150" t="n">
         <v>28.58</v>
       </c>
-      <c r="C150" t="n">
-        <v>28.97</v>
-      </c>
       <c r="D150" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="E150" t="n">
-        <v>28.58</v>
+        <v>28.07</v>
       </c>
       <c r="F150" t="n">
-        <v>295151.7888</v>
+        <v>1322.1</v>
       </c>
       <c r="G150" t="n">
         <v>28.84233333333337</v>
@@ -5652,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5666,28 +5684,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>28.31</v>
+        <v>28.58</v>
       </c>
       <c r="C151" t="n">
-        <v>29.01</v>
+        <v>28.97</v>
       </c>
       <c r="D151" t="n">
-        <v>30.43</v>
+        <v>28.97</v>
       </c>
       <c r="E151" t="n">
-        <v>28.05</v>
+        <v>28.58</v>
       </c>
       <c r="F151" t="n">
-        <v>760922.2556</v>
+        <v>295151.7888</v>
       </c>
       <c r="G151" t="n">
-        <v>28.8431666666667</v>
+        <v>28.84233333333337</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5701,22 +5719,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>28.31</v>
+      </c>
+      <c r="C152" t="n">
         <v>29.01</v>
-      </c>
-      <c r="C152" t="n">
-        <v>29.45</v>
       </c>
       <c r="D152" t="n">
         <v>30.43</v>
       </c>
       <c r="E152" t="n">
-        <v>29.01</v>
+        <v>28.05</v>
       </c>
       <c r="F152" t="n">
-        <v>31442.78017147708</v>
+        <v>760922.2556</v>
       </c>
       <c r="G152" t="n">
-        <v>28.85133333333337</v>
+        <v>28.8431666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5736,22 +5754,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>28.86</v>
+        <v>29.01</v>
       </c>
       <c r="C153" t="n">
-        <v>28.81</v>
+        <v>29.45</v>
       </c>
       <c r="D153" t="n">
-        <v>28.86</v>
+        <v>30.43</v>
       </c>
       <c r="E153" t="n">
-        <v>28.81</v>
+        <v>29.01</v>
       </c>
       <c r="F153" t="n">
-        <v>16609.6004</v>
+        <v>31442.78017147708</v>
       </c>
       <c r="G153" t="n">
-        <v>28.84900000000004</v>
+        <v>28.85133333333337</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5771,28 +5789,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>28.71</v>
+        <v>28.86</v>
       </c>
       <c r="C154" t="n">
-        <v>28.6</v>
+        <v>28.81</v>
       </c>
       <c r="D154" t="n">
-        <v>28.71</v>
+        <v>28.86</v>
       </c>
       <c r="E154" t="n">
-        <v>28.6</v>
+        <v>28.81</v>
       </c>
       <c r="F154" t="n">
-        <v>25441.9362</v>
+        <v>16609.6004</v>
       </c>
       <c r="G154" t="n">
-        <v>28.8441666666667</v>
+        <v>28.84900000000004</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
@@ -5806,22 +5824,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>28.57</v>
+        <v>28.71</v>
       </c>
       <c r="C155" t="n">
-        <v>28.57</v>
+        <v>28.6</v>
       </c>
       <c r="D155" t="n">
-        <v>28.57</v>
+        <v>28.71</v>
       </c>
       <c r="E155" t="n">
-        <v>28.31</v>
+        <v>28.6</v>
       </c>
       <c r="F155" t="n">
-        <v>2099.8403</v>
+        <v>25441.9362</v>
       </c>
       <c r="G155" t="n">
-        <v>28.8386666666667</v>
+        <v>28.8441666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5844,19 +5862,19 @@
         <v>28.57</v>
       </c>
       <c r="C156" t="n">
-        <v>29.56</v>
+        <v>28.57</v>
       </c>
       <c r="D156" t="n">
-        <v>29.56</v>
+        <v>28.57</v>
       </c>
       <c r="E156" t="n">
-        <v>28.57</v>
+        <v>28.31</v>
       </c>
       <c r="F156" t="n">
-        <v>278357.9326</v>
+        <v>2099.8403</v>
       </c>
       <c r="G156" t="n">
-        <v>28.84866666666669</v>
+        <v>28.8386666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5876,22 +5894,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>29.1</v>
+        <v>28.57</v>
       </c>
       <c r="C157" t="n">
-        <v>29.01</v>
+        <v>29.56</v>
       </c>
       <c r="D157" t="n">
-        <v>29.1</v>
+        <v>29.56</v>
       </c>
       <c r="E157" t="n">
-        <v>29.01</v>
+        <v>28.57</v>
       </c>
       <c r="F157" t="n">
-        <v>33708.0257</v>
+        <v>278357.9326</v>
       </c>
       <c r="G157" t="n">
-        <v>28.84950000000003</v>
+        <v>28.84866666666669</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5911,22 +5929,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C158" t="n">
         <v>29.01</v>
       </c>
-      <c r="C158" t="n">
-        <v>29.38</v>
-      </c>
       <c r="D158" t="n">
-        <v>29.38</v>
+        <v>29.1</v>
       </c>
       <c r="E158" t="n">
         <v>29.01</v>
       </c>
       <c r="F158" t="n">
-        <v>1301.3</v>
+        <v>33708.0257</v>
       </c>
       <c r="G158" t="n">
-        <v>28.85650000000003</v>
+        <v>28.84950000000003</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5949,19 +5967,19 @@
         <v>29.01</v>
       </c>
       <c r="C159" t="n">
-        <v>28.8</v>
+        <v>29.38</v>
       </c>
       <c r="D159" t="n">
+        <v>29.38</v>
+      </c>
+      <c r="E159" t="n">
         <v>29.01</v>
       </c>
-      <c r="E159" t="n">
-        <v>28.8</v>
-      </c>
       <c r="F159" t="n">
-        <v>14843.894</v>
+        <v>1301.3</v>
       </c>
       <c r="G159" t="n">
-        <v>28.85383333333336</v>
+        <v>28.85650000000003</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5981,22 +5999,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="C160" t="n">
         <v>28.8</v>
       </c>
       <c r="D160" t="n">
-        <v>28.8</v>
+        <v>29.01</v>
       </c>
       <c r="E160" t="n">
         <v>28.8</v>
       </c>
       <c r="F160" t="n">
-        <v>30000</v>
+        <v>14843.894</v>
       </c>
       <c r="G160" t="n">
-        <v>28.85116666666669</v>
+        <v>28.85383333333336</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6016,22 +6034,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>28.99</v>
+        <v>28.8</v>
       </c>
       <c r="C161" t="n">
-        <v>28.99</v>
+        <v>28.8</v>
       </c>
       <c r="D161" t="n">
-        <v>28.99</v>
+        <v>28.8</v>
       </c>
       <c r="E161" t="n">
-        <v>28.99</v>
+        <v>28.8</v>
       </c>
       <c r="F161" t="n">
-        <v>22</v>
+        <v>30000</v>
       </c>
       <c r="G161" t="n">
-        <v>28.85166666666669</v>
+        <v>28.85116666666669</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6051,16 +6069,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>28.97</v>
+        <v>28.99</v>
       </c>
       <c r="C162" t="n">
-        <v>28.97</v>
+        <v>28.99</v>
       </c>
       <c r="D162" t="n">
-        <v>28.97</v>
+        <v>28.99</v>
       </c>
       <c r="E162" t="n">
-        <v>28.97</v>
+        <v>28.99</v>
       </c>
       <c r="F162" t="n">
         <v>22</v>
@@ -6086,7 +6104,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="C163" t="n">
         <v>28.97</v>
@@ -6095,10 +6113,10 @@
         <v>28.97</v>
       </c>
       <c r="E163" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="F163" t="n">
-        <v>1293.5</v>
+        <v>22</v>
       </c>
       <c r="G163" t="n">
         <v>28.85166666666669</v>
@@ -6121,22 +6139,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C164" t="n">
-        <v>28.9</v>
+        <v>28.97</v>
       </c>
       <c r="D164" t="n">
-        <v>28.9</v>
+        <v>28.97</v>
       </c>
       <c r="E164" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F164" t="n">
-        <v>23</v>
+        <v>1293.5</v>
       </c>
       <c r="G164" t="n">
-        <v>28.85050000000003</v>
+        <v>28.85166666666669</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6156,22 +6174,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>28.87</v>
+        <v>28.9</v>
       </c>
       <c r="C165" t="n">
-        <v>28.87</v>
+        <v>28.9</v>
       </c>
       <c r="D165" t="n">
-        <v>28.87</v>
+        <v>28.9</v>
       </c>
       <c r="E165" t="n">
-        <v>28.87</v>
+        <v>28.9</v>
       </c>
       <c r="F165" t="n">
-        <v>24.778</v>
+        <v>23</v>
       </c>
       <c r="G165" t="n">
-        <v>28.85483333333336</v>
+        <v>28.85050000000003</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6191,22 +6209,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>28.88</v>
+        <v>28.87</v>
       </c>
       <c r="C166" t="n">
-        <v>28.88</v>
+        <v>28.87</v>
       </c>
       <c r="D166" t="n">
-        <v>28.88</v>
+        <v>28.87</v>
       </c>
       <c r="E166" t="n">
-        <v>28.88</v>
+        <v>28.87</v>
       </c>
       <c r="F166" t="n">
-        <v>33</v>
+        <v>24.778</v>
       </c>
       <c r="G166" t="n">
-        <v>28.85333333333336</v>
+        <v>28.85483333333336</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6238,10 +6256,10 @@
         <v>28.88</v>
       </c>
       <c r="F167" t="n">
-        <v>34.7889</v>
+        <v>33</v>
       </c>
       <c r="G167" t="n">
-        <v>28.85183333333336</v>
+        <v>28.85333333333336</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6261,22 +6279,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>28.6</v>
+        <v>28.88</v>
       </c>
       <c r="C168" t="n">
-        <v>28.87</v>
+        <v>28.88</v>
       </c>
       <c r="D168" t="n">
-        <v>28.87</v>
+        <v>28.88</v>
       </c>
       <c r="E168" t="n">
-        <v>28.59</v>
+        <v>28.88</v>
       </c>
       <c r="F168" t="n">
-        <v>24663.1732</v>
+        <v>34.7889</v>
       </c>
       <c r="G168" t="n">
-        <v>28.85016666666669</v>
+        <v>28.85183333333336</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6296,7 +6314,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>28.65</v>
+        <v>28.6</v>
       </c>
       <c r="C169" t="n">
         <v>28.87</v>
@@ -6305,13 +6323,13 @@
         <v>28.87</v>
       </c>
       <c r="E169" t="n">
-        <v>28.65</v>
+        <v>28.59</v>
       </c>
       <c r="F169" t="n">
-        <v>46</v>
+        <v>24663.1732</v>
       </c>
       <c r="G169" t="n">
-        <v>28.84850000000002</v>
+        <v>28.85016666666669</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6331,22 +6349,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="C170" t="n">
         <v>28.87</v>
       </c>
-      <c r="C170" t="n">
-        <v>29</v>
-      </c>
       <c r="D170" t="n">
-        <v>29</v>
+        <v>28.87</v>
       </c>
       <c r="E170" t="n">
-        <v>28.87</v>
+        <v>28.65</v>
       </c>
       <c r="F170" t="n">
-        <v>30691.196</v>
+        <v>46</v>
       </c>
       <c r="G170" t="n">
-        <v>28.84900000000003</v>
+        <v>28.84850000000002</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6369,19 +6387,19 @@
         <v>28.87</v>
       </c>
       <c r="C171" t="n">
-        <v>28.88</v>
+        <v>29</v>
       </c>
       <c r="D171" t="n">
-        <v>28.88</v>
+        <v>29</v>
       </c>
       <c r="E171" t="n">
-        <v>28.58</v>
+        <v>28.87</v>
       </c>
       <c r="F171" t="n">
-        <v>1319.7</v>
+        <v>30691.196</v>
       </c>
       <c r="G171" t="n">
-        <v>28.85350000000003</v>
+        <v>28.84900000000003</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6401,22 +6419,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>28.9</v>
+        <v>28.87</v>
       </c>
       <c r="C172" t="n">
-        <v>28.8</v>
+        <v>28.88</v>
       </c>
       <c r="D172" t="n">
-        <v>29.1</v>
+        <v>28.88</v>
       </c>
       <c r="E172" t="n">
-        <v>28.76</v>
+        <v>28.58</v>
       </c>
       <c r="F172" t="n">
-        <v>6246.912</v>
+        <v>1319.7</v>
       </c>
       <c r="G172" t="n">
-        <v>28.85066666666669</v>
+        <v>28.85350000000003</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6436,22 +6454,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>28.75</v>
+        <v>28.9</v>
       </c>
       <c r="C173" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D173" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E173" t="n">
-        <v>28.65</v>
+        <v>28.76</v>
       </c>
       <c r="F173" t="n">
-        <v>16650.2017</v>
+        <v>6246.912</v>
       </c>
       <c r="G173" t="n">
-        <v>28.84950000000003</v>
+        <v>28.85066666666669</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6471,19 +6489,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>28.73</v>
+        <v>28.75</v>
       </c>
       <c r="C174" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D174" t="n">
-        <v>28.89</v>
+        <v>28.9</v>
       </c>
       <c r="E174" t="n">
-        <v>28.6</v>
+        <v>28.65</v>
       </c>
       <c r="F174" t="n">
-        <v>1517.8651</v>
+        <v>16650.2017</v>
       </c>
       <c r="G174" t="n">
         <v>28.84950000000003</v>
@@ -6506,22 +6524,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>28.9</v>
+        <v>28.73</v>
       </c>
       <c r="C175" t="n">
-        <v>29.06</v>
+        <v>28.6</v>
       </c>
       <c r="D175" t="n">
-        <v>29.06</v>
+        <v>28.89</v>
       </c>
       <c r="E175" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F175" t="n">
-        <v>70</v>
+        <v>1517.8651</v>
       </c>
       <c r="G175" t="n">
-        <v>28.85216666666669</v>
+        <v>28.84950000000003</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6541,22 +6559,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C176" t="n">
-        <v>28.7</v>
+        <v>29.06</v>
       </c>
       <c r="D176" t="n">
-        <v>29.45</v>
+        <v>29.06</v>
       </c>
       <c r="E176" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F176" t="n">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="G176" t="n">
-        <v>28.84883333333336</v>
+        <v>28.85216666666669</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6576,22 +6594,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>29.09</v>
+        <v>29.1</v>
       </c>
       <c r="C177" t="n">
-        <v>29.07</v>
+        <v>28.7</v>
       </c>
       <c r="D177" t="n">
-        <v>29.09</v>
+        <v>29.45</v>
       </c>
       <c r="E177" t="n">
-        <v>29.07</v>
+        <v>28.7</v>
       </c>
       <c r="F177" t="n">
-        <v>2422</v>
+        <v>108</v>
       </c>
       <c r="G177" t="n">
-        <v>28.85666666666669</v>
+        <v>28.84883333333336</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6611,22 +6629,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>28.6</v>
+        <v>29.09</v>
       </c>
       <c r="C178" t="n">
-        <v>28.49</v>
+        <v>29.07</v>
       </c>
       <c r="D178" t="n">
-        <v>28.6</v>
+        <v>29.09</v>
       </c>
       <c r="E178" t="n">
-        <v>28.49</v>
+        <v>29.07</v>
       </c>
       <c r="F178" t="n">
-        <v>111744.0443</v>
+        <v>2422</v>
       </c>
       <c r="G178" t="n">
-        <v>28.85483333333336</v>
+        <v>28.85666666666669</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6646,22 +6664,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C179" t="n">
         <v>28.49</v>
       </c>
-      <c r="C179" t="n">
-        <v>29.06</v>
-      </c>
       <c r="D179" t="n">
-        <v>29.06</v>
+        <v>28.6</v>
       </c>
       <c r="E179" t="n">
         <v>28.49</v>
       </c>
       <c r="F179" t="n">
-        <v>190000</v>
+        <v>111744.0443</v>
       </c>
       <c r="G179" t="n">
-        <v>28.85750000000002</v>
+        <v>28.85483333333336</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6681,22 +6699,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>28.81</v>
+        <v>28.49</v>
       </c>
       <c r="C180" t="n">
-        <v>29.3</v>
+        <v>29.06</v>
       </c>
       <c r="D180" t="n">
-        <v>29.3</v>
+        <v>29.06</v>
       </c>
       <c r="E180" t="n">
-        <v>28.81</v>
+        <v>28.49</v>
       </c>
       <c r="F180" t="n">
-        <v>35.5629</v>
+        <v>190000</v>
       </c>
       <c r="G180" t="n">
-        <v>28.86916666666669</v>
+        <v>28.85750000000002</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6716,22 +6734,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>29</v>
+        <v>28.81</v>
       </c>
       <c r="C181" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="D181" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="E181" t="n">
-        <v>29</v>
+        <v>28.81</v>
       </c>
       <c r="F181" t="n">
-        <v>2105.7234</v>
+        <v>35.5629</v>
       </c>
       <c r="G181" t="n">
-        <v>28.87083333333335</v>
+        <v>28.86916666666669</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6754,19 +6772,19 @@
         <v>29</v>
       </c>
       <c r="C182" t="n">
-        <v>29.29</v>
+        <v>29</v>
       </c>
       <c r="D182" t="n">
-        <v>29.29</v>
+        <v>29</v>
       </c>
       <c r="E182" t="n">
-        <v>28.91</v>
+        <v>29</v>
       </c>
       <c r="F182" t="n">
-        <v>1292.2</v>
+        <v>2105.7234</v>
       </c>
       <c r="G182" t="n">
-        <v>28.87733333333335</v>
+        <v>28.87083333333335</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6786,22 +6804,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>28.91</v>
+        <v>29</v>
       </c>
       <c r="C183" t="n">
-        <v>28.91</v>
+        <v>29.29</v>
       </c>
       <c r="D183" t="n">
-        <v>29.41</v>
+        <v>29.29</v>
       </c>
       <c r="E183" t="n">
         <v>28.91</v>
       </c>
       <c r="F183" t="n">
-        <v>98000</v>
+        <v>1292.2</v>
       </c>
       <c r="G183" t="n">
-        <v>28.87750000000002</v>
+        <v>28.87733333333335</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6816,6 +6834,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="C184" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="D184" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="E184" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="F184" t="n">
+        <v>98000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>28.87750000000002</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest FCT.xlsx
+++ b/BackTest/2020-01-23 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M184"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>10000</v>
       </c>
       <c r="G2" t="n">
+        <v>30.80533333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>30.85933333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>21.8633</v>
       </c>
       <c r="G3" t="n">
+        <v>30.81866666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>30.85766666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1463.8</v>
       </c>
       <c r="G4" t="n">
+        <v>30.81066666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>30.85683333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>15296.36</v>
       </c>
       <c r="G5" t="n">
+        <v>30.80333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>30.85599999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1430</v>
       </c>
       <c r="G6" t="n">
+        <v>30.80666666666668</v>
+      </c>
+      <c r="H6" t="n">
         <v>30.85683333333332</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10000</v>
       </c>
       <c r="G7" t="n">
+        <v>30.81000000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>30.85883333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3248.1381</v>
       </c>
       <c r="G8" t="n">
+        <v>30.82066666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>30.85816666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>60737.8755</v>
       </c>
       <c r="G9" t="n">
+        <v>30.80733333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>30.85149999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>21.7272</v>
       </c>
       <c r="G10" t="n">
+        <v>30.81066666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>30.85383333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1415.7</v>
       </c>
       <c r="G11" t="n">
+        <v>30.80733333333335</v>
+      </c>
+      <c r="H11" t="n">
         <v>30.85133333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>23157.7404</v>
       </c>
       <c r="G12" t="n">
+        <v>30.79400000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>30.84366666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>55517.8867</v>
       </c>
       <c r="G13" t="n">
+        <v>30.77400000000001</v>
+      </c>
+      <c r="H13" t="n">
         <v>30.83699999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>36.7175</v>
       </c>
       <c r="G14" t="n">
+        <v>30.76666666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>30.82599999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>36000</v>
       </c>
       <c r="G15" t="n">
+        <v>30.77000000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>30.82433333333332</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1384.5</v>
       </c>
       <c r="G16" t="n">
+        <v>30.77333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>30.82116666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>29521.4719</v>
       </c>
       <c r="G17" t="n">
+        <v>30.75933333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>30.81199999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1000</v>
       </c>
       <c r="G18" t="n">
+        <v>30.76466666666668</v>
+      </c>
+      <c r="H18" t="n">
         <v>30.80849999999999</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1345.5</v>
       </c>
       <c r="G19" t="n">
+        <v>30.76666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>30.80483333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1289.6</v>
       </c>
       <c r="G20" t="n">
+        <v>30.76866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>30.79616666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>8328.864</v>
       </c>
       <c r="G21" t="n">
+        <v>30.77066666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>30.7925</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1242.8</v>
       </c>
       <c r="G22" t="n">
+        <v>30.77333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>30.79166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1184.3</v>
       </c>
       <c r="G23" t="n">
+        <v>30.782</v>
+      </c>
+      <c r="H23" t="n">
         <v>30.79083333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>11876.7295</v>
       </c>
       <c r="G24" t="n">
+        <v>30.80133333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>30.79</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10497.0735</v>
       </c>
       <c r="G25" t="n">
+        <v>30.80399999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>30.79283333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>9918.4023</v>
       </c>
       <c r="G26" t="n">
+        <v>30.80666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>30.79583333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>1175.2</v>
       </c>
       <c r="G27" t="n">
+        <v>30.82599999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>30.79733333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>76927.9657</v>
       </c>
       <c r="G28" t="n">
+        <v>30.85199999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>30.79866666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>2425.5662</v>
       </c>
       <c r="G29" t="n">
+        <v>30.83266666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>30.79516666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>3490.7725</v>
       </c>
       <c r="G30" t="n">
+        <v>30.79799999999999</v>
+      </c>
+      <c r="H30" t="n">
         <v>30.78333333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>17.2828</v>
       </c>
       <c r="G31" t="n">
+        <v>30.784</v>
+      </c>
+      <c r="H31" t="n">
         <v>30.77666666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1190.8</v>
       </c>
       <c r="G32" t="n">
+        <v>30.79399999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>30.77316666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>18</v>
       </c>
       <c r="G33" t="n">
+        <v>30.78133333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>30.77283333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>2269.0526</v>
       </c>
       <c r="G34" t="n">
+        <v>30.76866666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>30.77433333333335</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1164.8</v>
       </c>
       <c r="G35" t="n">
+        <v>30.75599999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>30.77583333333335</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>13088.3096</v>
       </c>
       <c r="G36" t="n">
+        <v>30.74333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>30.77733333333335</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>38280.0133</v>
       </c>
       <c r="G37" t="n">
+        <v>30.73733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>30.78066666666668</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>25909.2322</v>
       </c>
       <c r="G38" t="n">
+        <v>30.73133333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>30.78683333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>22698.2576</v>
       </c>
       <c r="G39" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H39" t="n">
         <v>30.77716666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1237.6</v>
       </c>
       <c r="G40" t="n">
+        <v>30.694</v>
+      </c>
+      <c r="H40" t="n">
         <v>30.77400000000002</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>47737.8951</v>
       </c>
       <c r="G41" t="n">
+        <v>30.662</v>
+      </c>
+      <c r="H41" t="n">
         <v>30.76450000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>17.4856</v>
       </c>
       <c r="G42" t="n">
+        <v>30.65533333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>30.76600000000002</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1224.6</v>
       </c>
       <c r="G43" t="n">
+        <v>30.65533333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>30.77266666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>18.254</v>
       </c>
       <c r="G44" t="n">
+        <v>30.67466666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>30.77133333333335</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>34999.4697</v>
       </c>
       <c r="G45" t="n">
+        <v>30.67666666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>30.76383333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>35017</v>
       </c>
       <c r="G46" t="n">
+        <v>30.68333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>30.76300000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1207.7</v>
       </c>
       <c r="G47" t="n">
+        <v>30.68866666666668</v>
+      </c>
+      <c r="H47" t="n">
         <v>30.76183333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>35033.7381</v>
       </c>
       <c r="G48" t="n">
+        <v>30.68200000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>30.76166666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1176.5</v>
       </c>
       <c r="G49" t="n">
+        <v>30.67533333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>30.75533333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>5000</v>
       </c>
       <c r="G50" t="n">
+        <v>30.64333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>30.74283333333335</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>12464.8464</v>
       </c>
       <c r="G51" t="n">
+        <v>30.62666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>30.73683333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>10000</v>
       </c>
       <c r="G52" t="n">
+        <v>30.59000000000001</v>
+      </c>
+      <c r="H52" t="n">
         <v>30.72766666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>1626.1779</v>
       </c>
       <c r="G53" t="n">
+        <v>30.55400000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>30.72200000000002</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>77542.46060000001</v>
       </c>
       <c r="G54" t="n">
+        <v>30.52733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>30.70900000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>1138.8</v>
       </c>
       <c r="G55" t="n">
+        <v>30.50333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>30.70300000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>84770.79700000001</v>
       </c>
       <c r="G56" t="n">
+        <v>30.474</v>
+      </c>
+      <c r="H56" t="n">
         <v>30.68750000000002</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>33216.0733</v>
       </c>
       <c r="G57" t="n">
+        <v>30.41933333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>30.67366666666669</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1158.3</v>
       </c>
       <c r="G58" t="n">
+        <v>30.38599999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>30.66683333333335</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>22000</v>
       </c>
       <c r="G59" t="n">
+        <v>30.33133333333332</v>
+      </c>
+      <c r="H59" t="n">
         <v>30.65133333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>65354.4316</v>
       </c>
       <c r="G60" t="n">
+        <v>30.32333333333332</v>
+      </c>
+      <c r="H60" t="n">
         <v>30.64200000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>32058.6077</v>
       </c>
       <c r="G61" t="n">
+        <v>30.26399999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>30.62616666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>80766.6828</v>
       </c>
       <c r="G62" t="n">
+        <v>30.21266666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>30.61366666666669</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>29233.3172</v>
       </c>
       <c r="G63" t="n">
+        <v>30.17333333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>30.60033333333336</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>84587.62729999999</v>
       </c>
       <c r="G64" t="n">
+        <v>30.12733333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>30.58450000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>45216.6037</v>
       </c>
       <c r="G65" t="n">
+        <v>30.13533333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>30.57583333333336</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>14961.0487</v>
       </c>
       <c r="G66" t="n">
+        <v>30.09266666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>30.55833333333336</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>8871.3182</v>
       </c>
       <c r="G67" t="n">
+        <v>30.06866666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>30.54233333333337</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>4720.2834</v>
       </c>
       <c r="G68" t="n">
+        <v>30.04399999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>30.52783333333337</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>9844.464900000001</v>
       </c>
       <c r="G69" t="n">
+        <v>30.03533333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>30.51600000000004</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>8865.767</v>
       </c>
       <c r="G70" t="n">
+        <v>29.99866666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>30.50000000000004</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>65354.4316</v>
       </c>
       <c r="G71" t="n">
+        <v>29.97466666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>30.47933333333338</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>18079.1191</v>
       </c>
       <c r="G72" t="n">
+        <v>29.96333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>30.46600000000004</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>7254.8184</v>
       </c>
       <c r="G73" t="n">
+        <v>29.93066666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>30.45600000000004</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1240.2</v>
       </c>
       <c r="G74" t="n">
+        <v>29.91933333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>30.43950000000004</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>11630.6792</v>
       </c>
       <c r="G75" t="n">
+        <v>29.91266666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>30.42766666666671</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>8723.101699999999</v>
       </c>
       <c r="G76" t="n">
+        <v>29.906</v>
+      </c>
+      <c r="H76" t="n">
         <v>30.40933333333337</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>166326.6534</v>
       </c>
       <c r="G77" t="n">
+        <v>29.87266666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>30.39200000000004</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>31287.0993</v>
       </c>
       <c r="G78" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="H78" t="n">
         <v>30.3666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>8107.3269</v>
       </c>
       <c r="G79" t="n">
+        <v>29.78333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>30.3386666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>30447.0103</v>
       </c>
       <c r="G80" t="n">
+        <v>29.70266666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>30.30933333333336</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>158617.1333</v>
       </c>
       <c r="G81" t="n">
+        <v>29.636</v>
+      </c>
+      <c r="H81" t="n">
         <v>30.27466666666669</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>174715.0147</v>
       </c>
       <c r="G82" t="n">
+        <v>29.51066666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>30.22666666666669</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>19</v>
       </c>
       <c r="G83" t="n">
+        <v>29.452</v>
+      </c>
+      <c r="H83" t="n">
         <v>30.19533333333336</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>2209.9599</v>
       </c>
       <c r="G84" t="n">
+        <v>29.35866666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>30.15533333333336</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>201537.7801</v>
       </c>
       <c r="G85" t="n">
+        <v>29.27133333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>30.11683333333335</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1222</v>
       </c>
       <c r="G86" t="n">
+        <v>29.20266666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>30.07833333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>474</v>
       </c>
       <c r="G87" t="n">
+        <v>29.10266666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>30.03516666666668</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,22 +3721,21 @@
         <v>8970.888800000001</v>
       </c>
       <c r="G88" t="n">
+        <v>29.00266666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>29.99366666666668</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K88" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3497,26 +3759,21 @@
         <v>575.0064</v>
       </c>
       <c r="G89" t="n">
+        <v>28.92133333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>29.96166666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K89" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,24 +3797,21 @@
         <v>29195.6889</v>
       </c>
       <c r="G90" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="H90" t="n">
         <v>29.93816666666668</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,22 +3835,21 @@
         <v>5642.0224</v>
       </c>
       <c r="G91" t="n">
+        <v>28.78466666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>29.90950000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K91" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3620,26 +3873,21 @@
         <v>15904.7388</v>
       </c>
       <c r="G92" t="n">
+        <v>28.74866666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>29.88066666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K92" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3663,24 +3911,21 @@
         <v>19621.5279</v>
       </c>
       <c r="G93" t="n">
+        <v>28.72199999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>29.85183333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,18 +3949,21 @@
         <v>1601.6993</v>
       </c>
       <c r="G94" t="n">
+        <v>28.70533333333332</v>
+      </c>
+      <c r="H94" t="n">
         <v>29.82283333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,18 +3987,21 @@
         <v>640.801</v>
       </c>
       <c r="G95" t="n">
+        <v>28.68999999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>29.79283333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,18 +4025,21 @@
         <v>5192.892</v>
       </c>
       <c r="G96" t="n">
+        <v>28.69666666666665</v>
+      </c>
+      <c r="H96" t="n">
         <v>29.76300000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,18 +4063,21 @@
         <v>100</v>
       </c>
       <c r="G97" t="n">
+        <v>28.75999999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>29.73233333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +4101,21 @@
         <v>8768.210999999999</v>
       </c>
       <c r="G98" t="n">
+        <v>28.75666666666665</v>
+      </c>
+      <c r="H98" t="n">
         <v>29.70166666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,18 +4139,21 @@
         <v>4102.9781</v>
       </c>
       <c r="G99" t="n">
+        <v>28.78799999999999</v>
+      </c>
+      <c r="H99" t="n">
         <v>29.67733333333335</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,18 +4177,21 @@
         <v>1254.5</v>
       </c>
       <c r="G100" t="n">
+        <v>28.81333333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>29.64666666666668</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,18 +4215,21 @@
         <v>20</v>
       </c>
       <c r="G101" t="n">
+        <v>28.83866666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>29.62250000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,18 +4253,21 @@
         <v>39578.1086</v>
       </c>
       <c r="G102" t="n">
+        <v>28.88266666666665</v>
+      </c>
+      <c r="H102" t="n">
         <v>29.59200000000002</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,18 +4291,25 @@
         <v>72571.24249999999</v>
       </c>
       <c r="G103" t="n">
+        <v>28.92733333333331</v>
+      </c>
+      <c r="H103" t="n">
         <v>29.56166666666668</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="L103" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,18 +4333,29 @@
         <v>1297.4</v>
       </c>
       <c r="G104" t="n">
+        <v>28.95333333333331</v>
+      </c>
+      <c r="H104" t="n">
         <v>29.53133333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L104" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,18 +4379,29 @@
         <v>5750.2653</v>
       </c>
       <c r="G105" t="n">
+        <v>28.95333333333331</v>
+      </c>
+      <c r="H105" t="n">
         <v>29.50733333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L105" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,18 +4425,29 @@
         <v>1014.801</v>
       </c>
       <c r="G106" t="n">
+        <v>28.92933333333331</v>
+      </c>
+      <c r="H106" t="n">
         <v>29.47100000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L106" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,18 +4471,29 @@
         <v>9693.7803</v>
       </c>
       <c r="G107" t="n">
+        <v>28.92999999999997</v>
+      </c>
+      <c r="H107" t="n">
         <v>29.44100000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="L107" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4517,29 @@
         <v>1309.1</v>
       </c>
       <c r="G108" t="n">
+        <v>28.93066666666664</v>
+      </c>
+      <c r="H108" t="n">
         <v>29.41400000000002</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L108" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4563,29 @@
         <v>7313.7514</v>
       </c>
       <c r="G109" t="n">
+        <v>28.93199999999997</v>
+      </c>
+      <c r="H109" t="n">
         <v>29.38700000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L109" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4609,29 @@
         <v>91851.61870000001</v>
       </c>
       <c r="G110" t="n">
+        <v>28.93733333333331</v>
+      </c>
+      <c r="H110" t="n">
         <v>29.36633333333335</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L110" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,18 +4655,29 @@
         <v>1288.3</v>
       </c>
       <c r="G111" t="n">
+        <v>28.94199999999998</v>
+      </c>
+      <c r="H111" t="n">
         <v>29.34183333333335</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L111" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,18 +4701,29 @@
         <v>84.90519999999999</v>
       </c>
       <c r="G112" t="n">
+        <v>28.91866666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>29.31450000000002</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L112" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,18 +4747,27 @@
         <v>1298.7</v>
       </c>
       <c r="G113" t="n">
+        <v>28.91933333333331</v>
+      </c>
+      <c r="H113" t="n">
         <v>29.29300000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,18 +4791,27 @@
         <v>320.6123</v>
       </c>
       <c r="G114" t="n">
+        <v>28.91999999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>29.27550000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,18 +4835,27 @@
         <v>7038.8894</v>
       </c>
       <c r="G115" t="n">
+        <v>28.89599999999998</v>
+      </c>
+      <c r="H115" t="n">
         <v>29.24483333333335</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,18 +4879,27 @@
         <v>1358.5</v>
       </c>
       <c r="G116" t="n">
+        <v>28.89199999999998</v>
+      </c>
+      <c r="H116" t="n">
         <v>29.22700000000002</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,18 +4923,27 @@
         <v>4941.0136</v>
       </c>
       <c r="G117" t="n">
+        <v>28.88799999999998</v>
+      </c>
+      <c r="H117" t="n">
         <v>29.20916666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,18 +4967,27 @@
         <v>1360.2534</v>
       </c>
       <c r="G118" t="n">
+        <v>28.86333333333331</v>
+      </c>
+      <c r="H118" t="n">
         <v>29.18100000000002</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,18 +5011,27 @@
         <v>1360.2535</v>
       </c>
       <c r="G119" t="n">
+        <v>28.83866666666665</v>
+      </c>
+      <c r="H119" t="n">
         <v>29.15816666666668</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,18 +5055,27 @@
         <v>6186.836</v>
       </c>
       <c r="G120" t="n">
+        <v>28.83399999999998</v>
+      </c>
+      <c r="H120" t="n">
         <v>29.13500000000002</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,18 +5099,27 @@
         <v>10000</v>
       </c>
       <c r="G121" t="n">
+        <v>28.83333333333331</v>
+      </c>
+      <c r="H121" t="n">
         <v>29.11333333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,18 +5143,27 @@
         <v>1435.2</v>
       </c>
       <c r="G122" t="n">
+        <v>28.82866666666664</v>
+      </c>
+      <c r="H122" t="n">
         <v>29.09500000000002</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4719,18 +5187,27 @@
         <v>55.3812</v>
       </c>
       <c r="G123" t="n">
+        <v>28.82399999999997</v>
+      </c>
+      <c r="H123" t="n">
         <v>29.07666666666669</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,18 +5231,27 @@
         <v>9293.6463</v>
       </c>
       <c r="G124" t="n">
+        <v>28.8193333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>29.06000000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4789,18 +5275,27 @@
         <v>40793.2005</v>
       </c>
       <c r="G125" t="n">
+        <v>28.79466666666663</v>
+      </c>
+      <c r="H125" t="n">
         <v>29.03116666666669</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,18 +5319,27 @@
         <v>30000</v>
       </c>
       <c r="G126" t="n">
+        <v>28.7633333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>29.00950000000002</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,18 +5363,27 @@
         <v>142961.8869</v>
       </c>
       <c r="G127" t="n">
+        <v>28.75599999999996</v>
+      </c>
+      <c r="H127" t="n">
         <v>28.98633333333335</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4894,18 +5407,27 @@
         <v>249804.1</v>
       </c>
       <c r="G128" t="n">
+        <v>28.75599999999996</v>
+      </c>
+      <c r="H128" t="n">
         <v>28.97100000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4929,18 +5451,27 @@
         <v>68000</v>
       </c>
       <c r="G129" t="n">
+        <v>28.75599999999996</v>
+      </c>
+      <c r="H129" t="n">
         <v>28.95566666666668</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4964,18 +5495,27 @@
         <v>6029.5256</v>
       </c>
       <c r="G130" t="n">
+        <v>28.78066666666663</v>
+      </c>
+      <c r="H130" t="n">
         <v>28.94033333333335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,18 +5539,27 @@
         <v>832.2368</v>
       </c>
       <c r="G131" t="n">
+        <v>28.74599999999997</v>
+      </c>
+      <c r="H131" t="n">
         <v>28.91983333333335</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,18 +5583,27 @@
         <v>7310.6749</v>
       </c>
       <c r="G132" t="n">
+        <v>28.75066666666664</v>
+      </c>
+      <c r="H132" t="n">
         <v>28.90600000000002</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,18 +5627,27 @@
         <v>1449.5</v>
       </c>
       <c r="G133" t="n">
+        <v>28.7753333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>28.89216666666669</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5104,18 +5671,27 @@
         <v>33708.0257</v>
       </c>
       <c r="G134" t="n">
+        <v>28.79999999999997</v>
+      </c>
+      <c r="H134" t="n">
         <v>28.87833333333335</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5139,18 +5715,27 @@
         <v>20395.2034</v>
       </c>
       <c r="G135" t="n">
+        <v>28.77333333333331</v>
+      </c>
+      <c r="H135" t="n">
         <v>28.85016666666668</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,18 +5759,27 @@
         <v>3290.727</v>
       </c>
       <c r="G136" t="n">
+        <v>28.7973333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>28.83616666666669</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5209,18 +5803,27 @@
         <v>326051.8426</v>
       </c>
       <c r="G137" t="n">
+        <v>28.80199999999997</v>
+      </c>
+      <c r="H137" t="n">
         <v>28.82733333333335</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,18 +5847,27 @@
         <v>1340.3</v>
       </c>
       <c r="G138" t="n">
+        <v>28.8013333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>28.81950000000002</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5279,18 +5891,27 @@
         <v>1996.1931</v>
       </c>
       <c r="G139" t="n">
+        <v>28.76999999999997</v>
+      </c>
+      <c r="H139" t="n">
         <v>28.80666666666669</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,18 +5935,29 @@
         <v>1829.3922</v>
       </c>
       <c r="G140" t="n">
+        <v>28.7893333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>28.80283333333336</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>28.43</v>
+      </c>
+      <c r="L140" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,18 +5981,27 @@
         <v>9132.4218</v>
       </c>
       <c r="G141" t="n">
+        <v>28.81466666666664</v>
+      </c>
+      <c r="H141" t="n">
         <v>28.8041666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,18 +6025,27 @@
         <v>1320.8</v>
       </c>
       <c r="G142" t="n">
+        <v>28.83999999999997</v>
+      </c>
+      <c r="H142" t="n">
         <v>28.8186666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,18 +6069,27 @@
         <v>152000</v>
       </c>
       <c r="G143" t="n">
+        <v>28.83999999999996</v>
+      </c>
+      <c r="H143" t="n">
         <v>28.81800000000003</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,18 +6113,29 @@
         <v>381933.0255</v>
       </c>
       <c r="G144" t="n">
+        <v>28.8393333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>28.82583333333337</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L144" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,18 +6159,27 @@
         <v>190000</v>
       </c>
       <c r="G145" t="n">
+        <v>28.83866666666663</v>
+      </c>
+      <c r="H145" t="n">
         <v>28.8321666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5524,18 +6203,29 @@
         <v>1267.5</v>
       </c>
       <c r="G146" t="n">
+        <v>28.85199999999996</v>
+      </c>
+      <c r="H146" t="n">
         <v>28.8321666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="L146" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5559,18 +6249,29 @@
         <v>1625.4057</v>
       </c>
       <c r="G147" t="n">
+        <v>28.8033333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>28.8311666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="L147" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5594,18 +6295,29 @@
         <v>133000</v>
       </c>
       <c r="G148" t="n">
+        <v>28.8033333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>28.84233333333337</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="L148" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5629,18 +6341,29 @@
         <v>760000</v>
       </c>
       <c r="G149" t="n">
+        <v>28.8033333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>28.84883333333337</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L149" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,18 +6387,27 @@
         <v>1322.1</v>
       </c>
       <c r="G150" t="n">
+        <v>28.80866666666663</v>
+      </c>
+      <c r="H150" t="n">
         <v>28.84233333333337</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,18 +6431,27 @@
         <v>295151.7888</v>
       </c>
       <c r="G151" t="n">
+        <v>28.8093333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>28.84233333333337</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5734,18 +6475,27 @@
         <v>760922.2556</v>
       </c>
       <c r="G152" t="n">
+        <v>28.81199999999997</v>
+      </c>
+      <c r="H152" t="n">
         <v>28.8431666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5769,18 +6519,27 @@
         <v>31442.78017147708</v>
       </c>
       <c r="G153" t="n">
+        <v>28.8493333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>28.85133333333337</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5804,18 +6563,27 @@
         <v>16609.6004</v>
       </c>
       <c r="G154" t="n">
+        <v>28.87466666666663</v>
+      </c>
+      <c r="H154" t="n">
         <v>28.84900000000004</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5839,18 +6607,27 @@
         <v>25441.9362</v>
       </c>
       <c r="G155" t="n">
+        <v>28.8553333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>28.8441666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5874,18 +6651,27 @@
         <v>2099.8403</v>
       </c>
       <c r="G156" t="n">
+        <v>28.83466666666664</v>
+      </c>
+      <c r="H156" t="n">
         <v>28.8386666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5909,18 +6695,27 @@
         <v>278357.9326</v>
       </c>
       <c r="G157" t="n">
+        <v>28.87999999999997</v>
+      </c>
+      <c r="H157" t="n">
         <v>28.84866666666669</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5944,18 +6739,27 @@
         <v>33708.0257</v>
       </c>
       <c r="G158" t="n">
+        <v>28.88266666666664</v>
+      </c>
+      <c r="H158" t="n">
         <v>28.84950000000003</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5979,18 +6783,27 @@
         <v>1301.3</v>
       </c>
       <c r="G159" t="n">
+        <v>28.91066666666664</v>
+      </c>
+      <c r="H159" t="n">
         <v>28.85650000000003</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6014,18 +6827,27 @@
         <v>14843.894</v>
       </c>
       <c r="G160" t="n">
+        <v>28.89999999999997</v>
+      </c>
+      <c r="H160" t="n">
         <v>28.85383333333336</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,18 +6871,27 @@
         <v>30000</v>
       </c>
       <c r="G161" t="n">
+        <v>28.91466666666664</v>
+      </c>
+      <c r="H161" t="n">
         <v>28.85116666666669</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6084,18 +6915,27 @@
         <v>22</v>
       </c>
       <c r="G162" t="n">
+        <v>28.96466666666664</v>
+      </c>
+      <c r="H162" t="n">
         <v>28.85166666666669</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,18 +6959,27 @@
         <v>22</v>
       </c>
       <c r="G163" t="n">
+        <v>28.96466666666664</v>
+      </c>
+      <c r="H163" t="n">
         <v>28.85166666666669</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6154,18 +7003,27 @@
         <v>1293.5</v>
       </c>
       <c r="G164" t="n">
+        <v>28.96466666666664</v>
+      </c>
+      <c r="H164" t="n">
         <v>28.85166666666669</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,18 +7047,27 @@
         <v>23</v>
       </c>
       <c r="G165" t="n">
+        <v>28.98599999999997</v>
+      </c>
+      <c r="H165" t="n">
         <v>28.85050000000003</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,18 +7091,27 @@
         <v>24.778</v>
       </c>
       <c r="G166" t="n">
+        <v>28.97933333333331</v>
+      </c>
+      <c r="H166" t="n">
         <v>28.85483333333336</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,18 +7135,27 @@
         <v>33</v>
       </c>
       <c r="G167" t="n">
+        <v>28.97066666666664</v>
+      </c>
+      <c r="H167" t="n">
         <v>28.85333333333336</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,18 +7179,27 @@
         <v>34.7889</v>
       </c>
       <c r="G168" t="n">
+        <v>28.93266666666664</v>
+      </c>
+      <c r="H168" t="n">
         <v>28.85183333333336</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6329,18 +7223,27 @@
         <v>24663.1732</v>
       </c>
       <c r="G169" t="n">
+        <v>28.93666666666664</v>
+      </c>
+      <c r="H169" t="n">
         <v>28.85016666666669</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,18 +7267,27 @@
         <v>46</v>
       </c>
       <c r="G170" t="n">
+        <v>28.95466666666664</v>
+      </c>
+      <c r="H170" t="n">
         <v>28.84850000000002</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6399,18 +7311,27 @@
         <v>30691.196</v>
       </c>
       <c r="G171" t="n">
+        <v>28.98333333333331</v>
+      </c>
+      <c r="H171" t="n">
         <v>28.84900000000003</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,18 +7355,27 @@
         <v>1319.7</v>
       </c>
       <c r="G172" t="n">
+        <v>28.93799999999997</v>
+      </c>
+      <c r="H172" t="n">
         <v>28.85350000000003</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6469,18 +7399,27 @@
         <v>6246.912</v>
       </c>
       <c r="G173" t="n">
+        <v>28.92399999999997</v>
+      </c>
+      <c r="H173" t="n">
         <v>28.85066666666669</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,18 +7443,29 @@
         <v>16650.2017</v>
       </c>
       <c r="G174" t="n">
+        <v>28.89199999999997</v>
+      </c>
+      <c r="H174" t="n">
         <v>28.84950000000003</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L174" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6539,18 +7489,27 @@
         <v>1517.8651</v>
       </c>
       <c r="G175" t="n">
+        <v>28.87866666666664</v>
+      </c>
+      <c r="H175" t="n">
         <v>28.84950000000003</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,18 +7533,27 @@
         <v>70</v>
       </c>
       <c r="G176" t="n">
+        <v>28.89599999999997</v>
+      </c>
+      <c r="H176" t="n">
         <v>28.85216666666669</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6609,18 +7577,27 @@
         <v>108</v>
       </c>
       <c r="G177" t="n">
+        <v>28.87666666666664</v>
+      </c>
+      <c r="H177" t="n">
         <v>28.84883333333336</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6644,18 +7621,27 @@
         <v>2422</v>
       </c>
       <c r="G178" t="n">
+        <v>28.8833333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>28.85666666666669</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,18 +7665,27 @@
         <v>111744.0443</v>
       </c>
       <c r="G179" t="n">
+        <v>28.8513333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>28.85483333333336</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6714,18 +7709,27 @@
         <v>190000</v>
       </c>
       <c r="G180" t="n">
+        <v>28.86199999999997</v>
+      </c>
+      <c r="H180" t="n">
         <v>28.85750000000002</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6749,18 +7753,27 @@
         <v>35.5629</v>
       </c>
       <c r="G181" t="n">
+        <v>28.89066666666664</v>
+      </c>
+      <c r="H181" t="n">
         <v>28.86916666666669</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6784,18 +7797,27 @@
         <v>2105.7234</v>
       </c>
       <c r="G182" t="n">
+        <v>28.89866666666664</v>
+      </c>
+      <c r="H182" t="n">
         <v>28.87083333333335</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6819,18 +7841,27 @@
         <v>1292.2</v>
       </c>
       <c r="G183" t="n">
+        <v>28.92599999999997</v>
+      </c>
+      <c r="H183" t="n">
         <v>28.87733333333335</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6854,18 +7885,467 @@
         <v>98000</v>
       </c>
       <c r="G184" t="n">
+        <v>28.92866666666664</v>
+      </c>
+      <c r="H184" t="n">
         <v>28.87750000000002</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C185" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="D185" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="E185" t="n">
+        <v>28.49</v>
+      </c>
+      <c r="F185" t="n">
+        <v>122422.646</v>
+      </c>
+      <c r="G185" t="n">
+        <v>28.98466666666664</v>
+      </c>
+      <c r="H185" t="n">
+        <v>28.89600000000002</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="C186" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="D186" t="n">
+        <v>30.27</v>
+      </c>
+      <c r="E186" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G186" t="n">
+        <v>29.0693333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>28.92550000000002</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="C187" t="n">
+        <v>30</v>
+      </c>
+      <c r="D187" t="n">
+        <v>30</v>
+      </c>
+      <c r="E187" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1272.7</v>
+      </c>
+      <c r="G187" t="n">
+        <v>29.14399999999997</v>
+      </c>
+      <c r="H187" t="n">
+        <v>28.95050000000002</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="C188" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="D188" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="E188" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F188" t="n">
+        <v>7470.8186</v>
+      </c>
+      <c r="G188" t="n">
+        <v>29.15799999999997</v>
+      </c>
+      <c r="H188" t="n">
+        <v>28.95116666666669</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="C189" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="D189" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="E189" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="F189" t="n">
+        <v>4016.1122</v>
+      </c>
+      <c r="G189" t="n">
+        <v>29.14066666666664</v>
+      </c>
+      <c r="H189" t="n">
+        <v>28.94566666666669</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="C190" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="D190" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="E190" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="F190" t="n">
+        <v>35.5746</v>
+      </c>
+      <c r="G190" t="n">
+        <v>29.19666666666664</v>
+      </c>
+      <c r="H190" t="n">
+        <v>28.95350000000002</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="C191" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="D191" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="E191" t="n">
+        <v>29.44</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5019</v>
+      </c>
+      <c r="G191" t="n">
+        <v>29.24066666666663</v>
+      </c>
+      <c r="H191" t="n">
+        <v>28.97583333333336</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="C192" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="D192" t="n">
+        <v>29.72</v>
+      </c>
+      <c r="E192" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1294.8</v>
+      </c>
+      <c r="G192" t="n">
+        <v>29.30866666666663</v>
+      </c>
+      <c r="H192" t="n">
+        <v>28.98833333333335</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="C193" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="D193" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="E193" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1301.3</v>
+      </c>
+      <c r="G193" t="n">
+        <v>29.34999999999997</v>
+      </c>
+      <c r="H193" t="n">
+        <v>29.00033333333336</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="C194" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="D194" t="n">
+        <v>30.17</v>
+      </c>
+      <c r="E194" t="n">
+        <v>29.69</v>
+      </c>
+      <c r="F194" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G194" t="n">
+        <v>29.46199999999997</v>
+      </c>
+      <c r="H194" t="n">
+        <v>29.02033333333336</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest FCT.xlsx
+++ b/BackTest/2020-01-23 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30.8</v>
+        <v>30.45</v>
       </c>
       <c r="C2" t="n">
-        <v>30.71</v>
+        <v>30.9</v>
       </c>
       <c r="D2" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="E2" t="n">
-        <v>30.71</v>
+        <v>30.42</v>
       </c>
       <c r="F2" t="n">
-        <v>36019.2476</v>
+        <v>36000</v>
       </c>
       <c r="G2" t="n">
-        <v>-383616.762599287</v>
+        <v>-707024.5280517569</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.7</v>
+        <v>30.54</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="D3" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6</v>
+        <v>30.54</v>
       </c>
       <c r="F3" t="n">
-        <v>5352.4296</v>
+        <v>1384.5</v>
       </c>
       <c r="G3" t="n">
-        <v>-388969.1921992869</v>
+        <v>-707024.5280517569</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.59</v>
+        <v>30.54</v>
       </c>
       <c r="C4" t="n">
-        <v>30.6</v>
+        <v>30.54</v>
       </c>
       <c r="D4" t="n">
-        <v>30.6</v>
+        <v>30.54</v>
       </c>
       <c r="E4" t="n">
-        <v>30.59</v>
+        <v>30.54</v>
       </c>
       <c r="F4" t="n">
-        <v>3241.682</v>
+        <v>29521.4719</v>
       </c>
       <c r="G4" t="n">
-        <v>-388969.1921992869</v>
+        <v>-736545.9999517569</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30.6</v>
+        <v>30.88</v>
       </c>
       <c r="C5" t="n">
-        <v>30.6</v>
+        <v>30.88</v>
       </c>
       <c r="D5" t="n">
-        <v>30.6</v>
+        <v>30.88</v>
       </c>
       <c r="E5" t="n">
-        <v>30.6</v>
+        <v>30.88</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>-388969.1921992869</v>
+        <v>-735545.9999517569</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.57</v>
+        <v>30.54</v>
       </c>
       <c r="C6" t="n">
-        <v>30.6</v>
+        <v>30.88</v>
       </c>
       <c r="D6" t="n">
-        <v>30.6</v>
+        <v>30.88</v>
       </c>
       <c r="E6" t="n">
-        <v>30.42</v>
+        <v>30.54</v>
       </c>
       <c r="F6" t="n">
-        <v>32058.1404</v>
+        <v>1345.5</v>
       </c>
       <c r="G6" t="n">
-        <v>-388969.1921992869</v>
+        <v>-735545.9999517569</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.43</v>
+        <v>30.54</v>
       </c>
       <c r="C7" t="n">
-        <v>30.43</v>
+        <v>30.88</v>
       </c>
       <c r="D7" t="n">
-        <v>30.43</v>
+        <v>30.88</v>
       </c>
       <c r="E7" t="n">
-        <v>30.43</v>
+        <v>30.54</v>
       </c>
       <c r="F7" t="n">
-        <v>1210.3987</v>
+        <v>1289.6</v>
       </c>
       <c r="G7" t="n">
-        <v>-390179.590899287</v>
+        <v>-735545.9999517569</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.43</v>
+        <v>30.88</v>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>30.88</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>30.88</v>
       </c>
       <c r="E8" t="n">
-        <v>30.4</v>
+        <v>30.88</v>
       </c>
       <c r="F8" t="n">
-        <v>90000</v>
+        <v>8328.864</v>
       </c>
       <c r="G8" t="n">
-        <v>-300179.590899287</v>
+        <v>-735545.9999517569</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30.5</v>
+        <v>30.54</v>
       </c>
       <c r="C9" t="n">
-        <v>30.99</v>
+        <v>30.89</v>
       </c>
       <c r="D9" t="n">
-        <v>30.99</v>
+        <v>30.89</v>
       </c>
       <c r="E9" t="n">
-        <v>30.38</v>
+        <v>30.54</v>
       </c>
       <c r="F9" t="n">
-        <v>220000</v>
+        <v>1242.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-520179.590899287</v>
+        <v>-734303.1999517569</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.98</v>
+        <v>30.54</v>
       </c>
       <c r="C10" t="n">
-        <v>30.98</v>
+        <v>30.89</v>
       </c>
       <c r="D10" t="n">
-        <v>30.98</v>
+        <v>30.89</v>
       </c>
       <c r="E10" t="n">
-        <v>30.98</v>
+        <v>30.54</v>
       </c>
       <c r="F10" t="n">
-        <v>2200.5068</v>
+        <v>1184.3</v>
       </c>
       <c r="G10" t="n">
-        <v>-522380.0976992869</v>
+        <v>-734303.1999517569</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30.7</v>
+        <v>30.89</v>
       </c>
       <c r="C11" t="n">
-        <v>30.7</v>
+        <v>30.89</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7</v>
+        <v>30.89</v>
       </c>
       <c r="E11" t="n">
-        <v>30.7</v>
+        <v>30.89</v>
       </c>
       <c r="F11" t="n">
-        <v>1094.937</v>
+        <v>11876.7295</v>
       </c>
       <c r="G11" t="n">
-        <v>-523475.0346992869</v>
+        <v>-734303.1999517569</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30.5</v>
+        <v>30.89</v>
       </c>
       <c r="C12" t="n">
-        <v>30.39</v>
+        <v>30.89</v>
       </c>
       <c r="D12" t="n">
-        <v>30.5</v>
+        <v>30.89</v>
       </c>
       <c r="E12" t="n">
-        <v>30.39</v>
+        <v>30.89</v>
       </c>
       <c r="F12" t="n">
-        <v>20944.7688</v>
+        <v>10497.0735</v>
       </c>
       <c r="G12" t="n">
-        <v>-544419.8034992869</v>
+        <v>-734303.1999517569</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="C13" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="D13" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="E13" t="n">
-        <v>30.87</v>
+        <v>30.89</v>
       </c>
       <c r="F13" t="n">
-        <v>23.1744</v>
+        <v>9918.4023</v>
       </c>
       <c r="G13" t="n">
-        <v>-544396.6290992869</v>
+        <v>-734303.1999517569</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.86</v>
+        <v>30.54</v>
       </c>
       <c r="C14" t="n">
-        <v>30.86</v>
+        <v>30.89</v>
       </c>
       <c r="D14" t="n">
-        <v>30.86</v>
+        <v>30.89</v>
       </c>
       <c r="E14" t="n">
-        <v>30.86</v>
+        <v>30.54</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>1175.2</v>
       </c>
       <c r="G14" t="n">
-        <v>-544413.6290992869</v>
+        <v>-734303.1999517569</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30.69</v>
+        <v>30.54</v>
       </c>
       <c r="C15" t="n">
-        <v>30.84</v>
+        <v>30.79</v>
       </c>
       <c r="D15" t="n">
-        <v>30.84</v>
+        <v>30.79</v>
       </c>
       <c r="E15" t="n">
-        <v>30.69</v>
+        <v>30.38</v>
       </c>
       <c r="F15" t="n">
-        <v>12315</v>
+        <v>76927.9657</v>
       </c>
       <c r="G15" t="n">
-        <v>-556728.6290992869</v>
+        <v>-811231.1656517568</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="C16" t="n">
-        <v>30.84</v>
+        <v>30.5</v>
       </c>
       <c r="D16" t="n">
-        <v>30.84</v>
+        <v>30.5</v>
       </c>
       <c r="E16" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="F16" t="n">
-        <v>43.1343</v>
+        <v>2425.5662</v>
       </c>
       <c r="G16" t="n">
-        <v>-556728.6290992869</v>
+        <v>-813656.7318517568</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6</v>
+        <v>30.38</v>
       </c>
       <c r="C17" t="n">
-        <v>30.6</v>
+        <v>30.38</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6</v>
+        <v>30.38</v>
       </c>
       <c r="E17" t="n">
-        <v>30.6</v>
+        <v>30.38</v>
       </c>
       <c r="F17" t="n">
-        <v>35634.6229</v>
+        <v>3490.7725</v>
       </c>
       <c r="G17" t="n">
-        <v>-592363.2519992868</v>
+        <v>-817147.5043517568</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30.97</v>
+        <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>30.97</v>
+        <v>30.69</v>
       </c>
       <c r="D18" t="n">
-        <v>30.97</v>
+        <v>30.69</v>
       </c>
       <c r="E18" t="n">
-        <v>30.97</v>
+        <v>30.69</v>
       </c>
       <c r="F18" t="n">
-        <v>6457.862447529867</v>
+        <v>17.2828</v>
       </c>
       <c r="G18" t="n">
-        <v>-585905.3895517569</v>
+        <v>-817130.2215517567</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.96</v>
+        <v>30.38</v>
       </c>
       <c r="C19" t="n">
-        <v>30.96</v>
+        <v>30.69</v>
       </c>
       <c r="D19" t="n">
-        <v>30.96</v>
+        <v>30.69</v>
       </c>
       <c r="E19" t="n">
-        <v>30.96</v>
+        <v>30.38</v>
       </c>
       <c r="F19" t="n">
-        <v>3000</v>
+        <v>1190.8</v>
       </c>
       <c r="G19" t="n">
-        <v>-588905.3895517569</v>
+        <v>-817130.2215517567</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="C20" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="D20" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="E20" t="n">
-        <v>30.6</v>
+        <v>30.69</v>
       </c>
       <c r="F20" t="n">
-        <v>3860.905</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>-592766.2945517569</v>
+        <v>-817130.2215517567</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>30.61</v>
+        <v>30.69</v>
       </c>
       <c r="C21" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="D21" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="E21" t="n">
-        <v>30.61</v>
+        <v>30.69</v>
       </c>
       <c r="F21" t="n">
-        <v>11344.0055</v>
+        <v>2269.0526</v>
       </c>
       <c r="G21" t="n">
-        <v>-592766.2945517569</v>
+        <v>-817130.2215517567</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>30.8</v>
+        <v>30.38</v>
       </c>
       <c r="C22" t="n">
-        <v>30.6</v>
+        <v>30.69</v>
       </c>
       <c r="D22" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="E22" t="n">
-        <v>30.6</v>
+        <v>30.38</v>
       </c>
       <c r="F22" t="n">
-        <v>34.2608</v>
+        <v>1164.8</v>
       </c>
       <c r="G22" t="n">
-        <v>-592800.555351757</v>
+        <v>-817130.2215517567</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="C23" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="D23" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="E23" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="F23" t="n">
-        <v>1800.6445</v>
+        <v>13088.3096</v>
       </c>
       <c r="G23" t="n">
-        <v>-590999.9108517569</v>
+        <v>-817130.2215517567</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1212,19 +1239,19 @@
         <v>30.8</v>
       </c>
       <c r="E24" t="n">
-        <v>30.8</v>
+        <v>30.69</v>
       </c>
       <c r="F24" t="n">
-        <v>5791.1031</v>
+        <v>38280.0133</v>
       </c>
       <c r="G24" t="n">
-        <v>-590999.9108517569</v>
+        <v>-778850.2082517567</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C25" t="n">
         <v>30.8</v>
       </c>
-      <c r="C25" t="n">
-        <v>30.9</v>
-      </c>
       <c r="D25" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="E25" t="n">
-        <v>30.8</v>
+        <v>30.38</v>
       </c>
       <c r="F25" t="n">
-        <v>1362.4</v>
+        <v>25909.2322</v>
       </c>
       <c r="G25" t="n">
-        <v>-589637.5108517569</v>
+        <v>-778850.2082517567</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>30.8</v>
+        <v>30.42</v>
       </c>
       <c r="C26" t="n">
-        <v>30.8</v>
+        <v>30.42</v>
       </c>
       <c r="D26" t="n">
-        <v>30.8</v>
+        <v>30.42</v>
       </c>
       <c r="E26" t="n">
-        <v>30.8</v>
+        <v>30.42</v>
       </c>
       <c r="F26" t="n">
-        <v>1360.2524</v>
+        <v>22698.2576</v>
       </c>
       <c r="G26" t="n">
-        <v>-590997.7632517569</v>
+        <v>-801548.4658517567</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30.7</v>
+        <v>30.43</v>
       </c>
       <c r="C27" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="D27" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="E27" t="n">
-        <v>30.7</v>
+        <v>30.43</v>
       </c>
       <c r="F27" t="n">
-        <v>896.2320999999999</v>
+        <v>1237.6</v>
       </c>
       <c r="G27" t="n">
-        <v>-591893.9953517569</v>
+        <v>-800310.8658517568</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30.7</v>
+        <v>30.43</v>
       </c>
       <c r="C28" t="n">
-        <v>30.9</v>
+        <v>30.41</v>
       </c>
       <c r="D28" t="n">
-        <v>30.9</v>
+        <v>30.43</v>
       </c>
       <c r="E28" t="n">
-        <v>30.7</v>
+        <v>30.41</v>
       </c>
       <c r="F28" t="n">
-        <v>1332.5</v>
+        <v>47737.8951</v>
       </c>
       <c r="G28" t="n">
-        <v>-590561.4953517569</v>
+        <v>-848048.7609517567</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30.71</v>
+        <v>30.79</v>
       </c>
       <c r="C29" t="n">
-        <v>30.85</v>
+        <v>30.79</v>
       </c>
       <c r="D29" t="n">
-        <v>30.85</v>
+        <v>30.79</v>
       </c>
       <c r="E29" t="n">
-        <v>30.71</v>
+        <v>30.79</v>
       </c>
       <c r="F29" t="n">
-        <v>1345.5</v>
+        <v>17.4856</v>
       </c>
       <c r="G29" t="n">
-        <v>-591906.9953517569</v>
+        <v>-848031.2753517567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>30.73</v>
+        <v>30.41</v>
       </c>
       <c r="C30" t="n">
-        <v>30.85</v>
+        <v>30.79</v>
       </c>
       <c r="D30" t="n">
-        <v>30.85</v>
+        <v>30.79</v>
       </c>
       <c r="E30" t="n">
-        <v>30.73</v>
+        <v>30.41</v>
       </c>
       <c r="F30" t="n">
-        <v>1366.3</v>
+        <v>1224.6</v>
       </c>
       <c r="G30" t="n">
-        <v>-591906.9953517569</v>
+        <v>-848031.2753517567</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="C31" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="D31" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="E31" t="n">
-        <v>30.75</v>
+        <v>30.79</v>
       </c>
       <c r="F31" t="n">
-        <v>10000</v>
+        <v>18.254</v>
       </c>
       <c r="G31" t="n">
-        <v>-601906.9953517569</v>
+        <v>-848031.2753517567</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30.8</v>
+        <v>30.41</v>
       </c>
       <c r="C32" t="n">
-        <v>30.8</v>
+        <v>30.41</v>
       </c>
       <c r="D32" t="n">
-        <v>30.8</v>
+        <v>30.41</v>
       </c>
       <c r="E32" t="n">
-        <v>30.8</v>
+        <v>30.41</v>
       </c>
       <c r="F32" t="n">
-        <v>21.8633</v>
+        <v>34999.4697</v>
       </c>
       <c r="G32" t="n">
-        <v>-601885.132051757</v>
+        <v>-883030.7450517567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30.75</v>
+        <v>30.4</v>
       </c>
       <c r="C33" t="n">
-        <v>30.85</v>
+        <v>30.79</v>
       </c>
       <c r="D33" t="n">
-        <v>30.85</v>
+        <v>30.79</v>
       </c>
       <c r="E33" t="n">
-        <v>30.75</v>
+        <v>30.38</v>
       </c>
       <c r="F33" t="n">
-        <v>1463.8</v>
+        <v>35017</v>
       </c>
       <c r="G33" t="n">
-        <v>-600421.3320517569</v>
+        <v>-848013.7450517567</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.85</v>
+        <v>30.38</v>
       </c>
       <c r="C34" t="n">
-        <v>30.85</v>
+        <v>30.77</v>
       </c>
       <c r="D34" t="n">
-        <v>30.85</v>
+        <v>30.77</v>
       </c>
       <c r="E34" t="n">
-        <v>30.85</v>
+        <v>30.38</v>
       </c>
       <c r="F34" t="n">
-        <v>15296.36</v>
+        <v>1207.7</v>
       </c>
       <c r="G34" t="n">
-        <v>-600421.3320517569</v>
+        <v>-849221.4450517567</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>30.76</v>
+        <v>30.38</v>
       </c>
       <c r="C35" t="n">
-        <v>30.85</v>
+        <v>30.59</v>
       </c>
       <c r="D35" t="n">
-        <v>30.85</v>
+        <v>30.59</v>
       </c>
       <c r="E35" t="n">
-        <v>30.76</v>
+        <v>30.27</v>
       </c>
       <c r="F35" t="n">
-        <v>1430</v>
+        <v>35033.7381</v>
       </c>
       <c r="G35" t="n">
-        <v>-600421.3320517569</v>
+        <v>-884255.1831517566</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.85</v>
+        <v>30.27</v>
       </c>
       <c r="C36" t="n">
-        <v>30.85</v>
+        <v>30.59</v>
       </c>
       <c r="D36" t="n">
-        <v>30.85</v>
+        <v>30.59</v>
       </c>
       <c r="E36" t="n">
-        <v>30.85</v>
+        <v>30.21</v>
       </c>
       <c r="F36" t="n">
-        <v>10000</v>
+        <v>1176.5</v>
       </c>
       <c r="G36" t="n">
-        <v>-600421.3320517569</v>
+        <v>-884255.1831517566</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>30.76</v>
+        <v>30.21</v>
       </c>
       <c r="C37" t="n">
-        <v>30.76</v>
+        <v>30.21</v>
       </c>
       <c r="D37" t="n">
-        <v>30.76</v>
+        <v>30.21</v>
       </c>
       <c r="E37" t="n">
-        <v>30.76</v>
+        <v>30.21</v>
       </c>
       <c r="F37" t="n">
-        <v>3248.1381</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="n">
-        <v>-603669.4701517569</v>
+        <v>-889255.1831517566</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30.85</v>
+        <v>30.44</v>
       </c>
       <c r="C38" t="n">
-        <v>30.6</v>
+        <v>30.44</v>
       </c>
       <c r="D38" t="n">
-        <v>30.85</v>
+        <v>30.44</v>
       </c>
       <c r="E38" t="n">
-        <v>30.6</v>
+        <v>30.44</v>
       </c>
       <c r="F38" t="n">
-        <v>60737.8755</v>
+        <v>12464.8464</v>
       </c>
       <c r="G38" t="n">
-        <v>-664407.3456517569</v>
+        <v>-876790.3367517566</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30.85</v>
+        <v>30.25</v>
       </c>
       <c r="C39" t="n">
-        <v>30.85</v>
+        <v>30.25</v>
       </c>
       <c r="D39" t="n">
-        <v>30.85</v>
+        <v>30.25</v>
       </c>
       <c r="E39" t="n">
-        <v>30.85</v>
+        <v>30.25</v>
       </c>
       <c r="F39" t="n">
-        <v>21.7272</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="n">
-        <v>-664385.6184517569</v>
+        <v>-886790.3367517566</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>30.7</v>
+        <v>30.26</v>
       </c>
       <c r="C40" t="n">
-        <v>30.85</v>
+        <v>30.26</v>
       </c>
       <c r="D40" t="n">
-        <v>30.85</v>
+        <v>30.26</v>
       </c>
       <c r="E40" t="n">
-        <v>30.7</v>
+        <v>30.26</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.7</v>
+        <v>1626.1779</v>
       </c>
       <c r="G40" t="n">
-        <v>-664385.6184517569</v>
+        <v>-885164.1588517566</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>30.6</v>
+        <v>30.26</v>
       </c>
       <c r="C41" t="n">
-        <v>30.6</v>
+        <v>30.02</v>
       </c>
       <c r="D41" t="n">
-        <v>30.6</v>
+        <v>30.26</v>
       </c>
       <c r="E41" t="n">
-        <v>30.6</v>
+        <v>30.02</v>
       </c>
       <c r="F41" t="n">
-        <v>23157.7404</v>
+        <v>77542.46060000001</v>
       </c>
       <c r="G41" t="n">
-        <v>-687543.3588517569</v>
+        <v>-962706.6194517566</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30.45</v>
+        <v>30.02</v>
       </c>
       <c r="C42" t="n">
-        <v>30.4</v>
+        <v>30.44</v>
       </c>
       <c r="D42" t="n">
-        <v>30.45</v>
+        <v>30.44</v>
       </c>
       <c r="E42" t="n">
-        <v>30.4</v>
+        <v>30.02</v>
       </c>
       <c r="F42" t="n">
-        <v>55517.8867</v>
+        <v>1138.8</v>
       </c>
       <c r="G42" t="n">
-        <v>-743061.2455517569</v>
+        <v>-961567.8194517565</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.79</v>
+        <v>30.02</v>
       </c>
       <c r="C43" t="n">
-        <v>30.79</v>
+        <v>29.97</v>
       </c>
       <c r="D43" t="n">
-        <v>30.79</v>
+        <v>30.02</v>
       </c>
       <c r="E43" t="n">
-        <v>30.79</v>
+        <v>29.97</v>
       </c>
       <c r="F43" t="n">
-        <v>36.7175</v>
+        <v>84770.79700000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-743024.5280517569</v>
+        <v>-1046338.616451757</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30.45</v>
+        <v>29.97</v>
       </c>
       <c r="C44" t="n">
-        <v>30.9</v>
+        <v>29.97</v>
       </c>
       <c r="D44" t="n">
-        <v>30.9</v>
+        <v>29.97</v>
       </c>
       <c r="E44" t="n">
-        <v>30.42</v>
+        <v>29.97</v>
       </c>
       <c r="F44" t="n">
-        <v>36000</v>
+        <v>33216.0733</v>
       </c>
       <c r="G44" t="n">
-        <v>-707024.5280517569</v>
+        <v>-1046338.616451757</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>30.54</v>
+        <v>29.97</v>
       </c>
       <c r="C45" t="n">
-        <v>30.9</v>
+        <v>30.29</v>
       </c>
       <c r="D45" t="n">
-        <v>30.9</v>
+        <v>30.29</v>
       </c>
       <c r="E45" t="n">
-        <v>30.54</v>
+        <v>29.97</v>
       </c>
       <c r="F45" t="n">
-        <v>1384.5</v>
+        <v>1158.3</v>
       </c>
       <c r="G45" t="n">
-        <v>-707024.5280517569</v>
+        <v>-1045180.316451757</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.54</v>
+        <v>29.97</v>
       </c>
       <c r="C46" t="n">
-        <v>30.54</v>
+        <v>29.97</v>
       </c>
       <c r="D46" t="n">
-        <v>30.54</v>
+        <v>29.97</v>
       </c>
       <c r="E46" t="n">
-        <v>30.54</v>
+        <v>29.97</v>
       </c>
       <c r="F46" t="n">
-        <v>29521.4719</v>
+        <v>22000</v>
       </c>
       <c r="G46" t="n">
-        <v>-736545.9999517569</v>
+        <v>-1067180.316451757</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.88</v>
+        <v>30.29</v>
       </c>
       <c r="C47" t="n">
-        <v>30.88</v>
+        <v>30.29</v>
       </c>
       <c r="D47" t="n">
-        <v>30.88</v>
+        <v>30.29</v>
       </c>
       <c r="E47" t="n">
-        <v>30.88</v>
+        <v>30.29</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>65354.4316</v>
       </c>
       <c r="G47" t="n">
-        <v>-735545.9999517569</v>
+        <v>-1001825.884851757</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.54</v>
+        <v>30.29</v>
       </c>
       <c r="C48" t="n">
-        <v>30.88</v>
+        <v>29.9</v>
       </c>
       <c r="D48" t="n">
-        <v>30.88</v>
+        <v>30.29</v>
       </c>
       <c r="E48" t="n">
-        <v>30.54</v>
+        <v>29.9</v>
       </c>
       <c r="F48" t="n">
-        <v>1345.5</v>
+        <v>32058.6077</v>
       </c>
       <c r="G48" t="n">
-        <v>-735545.9999517569</v>
+        <v>-1033884.492551757</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>30.54</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
-        <v>30.88</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>30.88</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>30.54</v>
+        <v>30</v>
       </c>
       <c r="F49" t="n">
-        <v>1289.6</v>
+        <v>80766.6828</v>
       </c>
       <c r="G49" t="n">
-        <v>-735545.9999517569</v>
+        <v>-953117.8097517566</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>30.88</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
-        <v>30.88</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>30.88</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>30.88</v>
+        <v>30</v>
       </c>
       <c r="F50" t="n">
-        <v>8328.864</v>
+        <v>29233.3172</v>
       </c>
       <c r="G50" t="n">
-        <v>-735545.9999517569</v>
+        <v>-953117.8097517566</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.54</v>
+        <v>30.33</v>
       </c>
       <c r="C51" t="n">
-        <v>30.89</v>
+        <v>29.9</v>
       </c>
       <c r="D51" t="n">
-        <v>30.89</v>
+        <v>30.33</v>
       </c>
       <c r="E51" t="n">
-        <v>30.54</v>
+        <v>29.9</v>
       </c>
       <c r="F51" t="n">
-        <v>1242.8</v>
+        <v>84587.62729999999</v>
       </c>
       <c r="G51" t="n">
-        <v>-734303.1999517569</v>
+        <v>-1037705.437051757</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>30.54</v>
+        <v>29.9</v>
       </c>
       <c r="C52" t="n">
-        <v>30.89</v>
+        <v>30.33</v>
       </c>
       <c r="D52" t="n">
-        <v>30.89</v>
+        <v>30.33</v>
       </c>
       <c r="E52" t="n">
-        <v>30.54</v>
+        <v>29.89</v>
       </c>
       <c r="F52" t="n">
-        <v>1184.3</v>
+        <v>45216.6037</v>
       </c>
       <c r="G52" t="n">
-        <v>-734303.1999517569</v>
+        <v>-992488.8333517566</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="C53" t="n">
-        <v>30.89</v>
+        <v>29.8</v>
       </c>
       <c r="D53" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="E53" t="n">
-        <v>30.89</v>
+        <v>29.8</v>
       </c>
       <c r="F53" t="n">
-        <v>11876.7295</v>
+        <v>14961.0487</v>
       </c>
       <c r="G53" t="n">
-        <v>-734303.1999517569</v>
+        <v>-1007449.882051757</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,34 +2303,35 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="C54" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="D54" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="E54" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="F54" t="n">
-        <v>10497.0735</v>
+        <v>8871.3182</v>
       </c>
       <c r="G54" t="n">
-        <v>-734303.1999517569</v>
+        <v>-998578.5638517566</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>30.89</v>
+        <v>29.9</v>
       </c>
       <c r="C55" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="D55" t="n">
-        <v>30.89</v>
+        <v>29.9</v>
       </c>
       <c r="E55" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="F55" t="n">
-        <v>9918.4023</v>
+        <v>4720.2834</v>
       </c>
       <c r="G55" t="n">
-        <v>-734303.1999517569</v>
+        <v>-998578.5638517566</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>30.54</v>
+        <v>29.89</v>
       </c>
       <c r="C56" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="D56" t="n">
-        <v>30.89</v>
+        <v>29.89</v>
       </c>
       <c r="E56" t="n">
-        <v>30.54</v>
+        <v>29.89</v>
       </c>
       <c r="F56" t="n">
-        <v>1175.2</v>
+        <v>9844.464900000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-734303.1999517569</v>
+        <v>-998578.5638517566</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>30.54</v>
+        <v>29.89</v>
       </c>
       <c r="C57" t="n">
-        <v>30.79</v>
+        <v>29.89</v>
       </c>
       <c r="D57" t="n">
-        <v>30.79</v>
+        <v>29.89</v>
       </c>
       <c r="E57" t="n">
-        <v>30.38</v>
+        <v>29.89</v>
       </c>
       <c r="F57" t="n">
-        <v>76927.9657</v>
+        <v>8865.767</v>
       </c>
       <c r="G57" t="n">
-        <v>-811231.1656517568</v>
+        <v>-998578.5638517566</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.5</v>
+        <v>29.81</v>
       </c>
       <c r="C58" t="n">
-        <v>30.5</v>
+        <v>29.61</v>
       </c>
       <c r="D58" t="n">
-        <v>30.5</v>
+        <v>29.81</v>
       </c>
       <c r="E58" t="n">
-        <v>30.5</v>
+        <v>29.61</v>
       </c>
       <c r="F58" t="n">
-        <v>2425.5662</v>
+        <v>65354.4316</v>
       </c>
       <c r="G58" t="n">
-        <v>-813656.7318517568</v>
+        <v>-1063932.995451757</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.38</v>
+        <v>29.8</v>
       </c>
       <c r="C59" t="n">
-        <v>30.38</v>
+        <v>29.8</v>
       </c>
       <c r="D59" t="n">
-        <v>30.38</v>
+        <v>29.8</v>
       </c>
       <c r="E59" t="n">
-        <v>30.38</v>
+        <v>29.8</v>
       </c>
       <c r="F59" t="n">
-        <v>3490.7725</v>
+        <v>18079.1191</v>
       </c>
       <c r="G59" t="n">
-        <v>-817147.5043517568</v>
+        <v>-1045853.876351757</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="C60" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="D60" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="E60" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="F60" t="n">
-        <v>17.2828</v>
+        <v>7254.8184</v>
       </c>
       <c r="G60" t="n">
-        <v>-817130.2215517567</v>
+        <v>-1045853.876351757</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>30.38</v>
+        <v>29.65</v>
       </c>
       <c r="C61" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="D61" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="E61" t="n">
-        <v>30.38</v>
+        <v>29.65</v>
       </c>
       <c r="F61" t="n">
-        <v>1190.8</v>
+        <v>1240.2</v>
       </c>
       <c r="G61" t="n">
-        <v>-817130.2215517567</v>
+        <v>-1045853.876351757</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="C62" t="n">
-        <v>30.69</v>
+        <v>30.19</v>
       </c>
       <c r="D62" t="n">
-        <v>30.69</v>
+        <v>30.19</v>
       </c>
       <c r="E62" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>11630.6792</v>
       </c>
       <c r="G62" t="n">
-        <v>-817130.2215517567</v>
+        <v>-1034223.197151756</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="C63" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="D63" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="E63" t="n">
-        <v>30.69</v>
+        <v>29.8</v>
       </c>
       <c r="F63" t="n">
-        <v>2269.0526</v>
+        <v>8723.101699999999</v>
       </c>
       <c r="G63" t="n">
-        <v>-817130.2215517567</v>
+        <v>-1042946.298851756</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>30.38</v>
+        <v>29.65</v>
       </c>
       <c r="C64" t="n">
-        <v>30.69</v>
+        <v>29.5</v>
       </c>
       <c r="D64" t="n">
-        <v>30.69</v>
+        <v>29.65</v>
       </c>
       <c r="E64" t="n">
-        <v>30.38</v>
+        <v>29.5</v>
       </c>
       <c r="F64" t="n">
-        <v>1164.8</v>
+        <v>166326.6534</v>
       </c>
       <c r="G64" t="n">
-        <v>-817130.2215517567</v>
+        <v>-1209272.952251757</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>30.69</v>
+        <v>29.4</v>
       </c>
       <c r="C65" t="n">
-        <v>30.69</v>
+        <v>29.36</v>
       </c>
       <c r="D65" t="n">
-        <v>30.69</v>
+        <v>29.4</v>
       </c>
       <c r="E65" t="n">
-        <v>30.69</v>
+        <v>29.36</v>
       </c>
       <c r="F65" t="n">
-        <v>13088.3096</v>
+        <v>31287.0993</v>
       </c>
       <c r="G65" t="n">
-        <v>-817130.2215517567</v>
+        <v>-1240560.051551756</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30.8</v>
+        <v>29.24</v>
       </c>
       <c r="C66" t="n">
-        <v>30.8</v>
+        <v>29.2</v>
       </c>
       <c r="D66" t="n">
-        <v>30.8</v>
+        <v>29.36</v>
       </c>
       <c r="E66" t="n">
-        <v>30.69</v>
+        <v>29.2</v>
       </c>
       <c r="F66" t="n">
-        <v>38280.0133</v>
+        <v>8107.3269</v>
       </c>
       <c r="G66" t="n">
-        <v>-778850.2082517567</v>
+        <v>-1248667.378451756</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>30.69</v>
+        <v>29.3</v>
       </c>
       <c r="C67" t="n">
-        <v>30.8</v>
+        <v>29.12</v>
       </c>
       <c r="D67" t="n">
-        <v>30.8</v>
+        <v>29.3</v>
       </c>
       <c r="E67" t="n">
-        <v>30.38</v>
+        <v>29.12</v>
       </c>
       <c r="F67" t="n">
-        <v>25909.2322</v>
+        <v>30447.0103</v>
       </c>
       <c r="G67" t="n">
-        <v>-778850.2082517567</v>
+        <v>-1279114.388751756</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>30.42</v>
+        <v>29.2</v>
       </c>
       <c r="C68" t="n">
-        <v>30.42</v>
+        <v>28.8</v>
       </c>
       <c r="D68" t="n">
-        <v>30.42</v>
+        <v>29.2</v>
       </c>
       <c r="E68" t="n">
-        <v>30.42</v>
+        <v>28.8</v>
       </c>
       <c r="F68" t="n">
-        <v>22698.2576</v>
+        <v>158617.1333</v>
       </c>
       <c r="G68" t="n">
-        <v>-801548.4658517567</v>
+        <v>-1437731.522051756</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30.43</v>
+        <v>28.73</v>
       </c>
       <c r="C69" t="n">
-        <v>30.8</v>
+        <v>28.01</v>
       </c>
       <c r="D69" t="n">
-        <v>30.8</v>
+        <v>28.73</v>
       </c>
       <c r="E69" t="n">
-        <v>30.43</v>
+        <v>28.01</v>
       </c>
       <c r="F69" t="n">
-        <v>1237.6</v>
+        <v>174715.0147</v>
       </c>
       <c r="G69" t="n">
-        <v>-800310.8658517568</v>
+        <v>-1612446.536751756</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30.43</v>
+        <v>29.01</v>
       </c>
       <c r="C70" t="n">
-        <v>30.41</v>
+        <v>29.01</v>
       </c>
       <c r="D70" t="n">
-        <v>30.43</v>
+        <v>29.01</v>
       </c>
       <c r="E70" t="n">
-        <v>30.41</v>
+        <v>29.01</v>
       </c>
       <c r="F70" t="n">
-        <v>47737.8951</v>
+        <v>19</v>
       </c>
       <c r="G70" t="n">
-        <v>-848048.7609517567</v>
+        <v>-1612427.536751756</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30.79</v>
+        <v>28.49</v>
       </c>
       <c r="C71" t="n">
-        <v>30.79</v>
+        <v>28.49</v>
       </c>
       <c r="D71" t="n">
-        <v>30.79</v>
+        <v>28.49</v>
       </c>
       <c r="E71" t="n">
-        <v>30.79</v>
+        <v>28.49</v>
       </c>
       <c r="F71" t="n">
-        <v>17.4856</v>
+        <v>2209.9599</v>
       </c>
       <c r="G71" t="n">
-        <v>-848031.2753517567</v>
+        <v>-1614637.496651756</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>30.41</v>
+        <v>28.41</v>
       </c>
       <c r="C72" t="n">
-        <v>30.79</v>
+        <v>28.58</v>
       </c>
       <c r="D72" t="n">
-        <v>30.79</v>
+        <v>28.58</v>
       </c>
       <c r="E72" t="n">
-        <v>30.41</v>
+        <v>28</v>
       </c>
       <c r="F72" t="n">
-        <v>1224.6</v>
+        <v>201537.7801</v>
       </c>
       <c r="G72" t="n">
-        <v>-848031.2753517567</v>
+        <v>-1413099.716551756</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.79</v>
+        <v>28.1</v>
       </c>
       <c r="C73" t="n">
-        <v>30.79</v>
+        <v>28.58</v>
       </c>
       <c r="D73" t="n">
-        <v>30.79</v>
+        <v>28.58</v>
       </c>
       <c r="E73" t="n">
-        <v>30.79</v>
+        <v>28.1</v>
       </c>
       <c r="F73" t="n">
-        <v>18.254</v>
+        <v>1222</v>
       </c>
       <c r="G73" t="n">
-        <v>-848031.2753517567</v>
+        <v>-1413099.716551756</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,34 +3023,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30.41</v>
+        <v>28.3</v>
       </c>
       <c r="C74" t="n">
-        <v>30.41</v>
+        <v>28.3</v>
       </c>
       <c r="D74" t="n">
-        <v>30.41</v>
+        <v>28.3</v>
       </c>
       <c r="E74" t="n">
-        <v>30.41</v>
+        <v>28.3</v>
       </c>
       <c r="F74" t="n">
-        <v>34999.4697</v>
+        <v>474</v>
       </c>
       <c r="G74" t="n">
-        <v>-883030.7450517567</v>
+        <v>-1413573.716551756</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>30.4</v>
+        <v>28.3</v>
       </c>
       <c r="C75" t="n">
-        <v>30.79</v>
+        <v>28.3</v>
       </c>
       <c r="D75" t="n">
-        <v>30.79</v>
+        <v>28.3</v>
       </c>
       <c r="E75" t="n">
-        <v>30.38</v>
+        <v>28.3</v>
       </c>
       <c r="F75" t="n">
-        <v>35017</v>
+        <v>8970.888800000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-848013.7450517567</v>
+        <v>-1413573.716551756</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,693 +3095,857 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.38</v>
+        <v>28.58</v>
       </c>
       <c r="C76" t="n">
-        <v>30.77</v>
+        <v>28.58</v>
       </c>
       <c r="D76" t="n">
-        <v>30.77</v>
+        <v>28.58</v>
       </c>
       <c r="E76" t="n">
-        <v>30.38</v>
+        <v>28.58</v>
       </c>
       <c r="F76" t="n">
-        <v>1207.7</v>
+        <v>575.0064</v>
       </c>
       <c r="G76" t="n">
-        <v>-849221.4450517567</v>
+        <v>-1412998.710151756</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>28.3</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>30.38</v>
+        <v>28.89</v>
       </c>
       <c r="C77" t="n">
-        <v>30.59</v>
+        <v>28.97</v>
       </c>
       <c r="D77" t="n">
-        <v>30.59</v>
+        <v>28.97</v>
       </c>
       <c r="E77" t="n">
-        <v>30.27</v>
+        <v>28.89</v>
       </c>
       <c r="F77" t="n">
-        <v>35033.7381</v>
+        <v>29195.6889</v>
       </c>
       <c r="G77" t="n">
-        <v>-884255.1831517566</v>
+        <v>-1383803.021251756</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="K77" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.27</v>
+        <v>28.97</v>
       </c>
       <c r="C78" t="n">
-        <v>30.59</v>
+        <v>28.97</v>
       </c>
       <c r="D78" t="n">
-        <v>30.59</v>
+        <v>28.97</v>
       </c>
       <c r="E78" t="n">
-        <v>30.21</v>
+        <v>28.97</v>
       </c>
       <c r="F78" t="n">
-        <v>1176.5</v>
+        <v>5642.0224</v>
       </c>
       <c r="G78" t="n">
-        <v>-884255.1831517566</v>
+        <v>-1383803.021251756</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K78" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>30.21</v>
+        <v>28.96</v>
       </c>
       <c r="C79" t="n">
-        <v>30.21</v>
+        <v>28.96</v>
       </c>
       <c r="D79" t="n">
-        <v>30.21</v>
+        <v>28.96</v>
       </c>
       <c r="E79" t="n">
-        <v>30.21</v>
+        <v>28.96</v>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>15904.7388</v>
       </c>
       <c r="G79" t="n">
-        <v>-889255.1831517566</v>
+        <v>-1399707.760051756</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K79" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30.44</v>
+        <v>28.96</v>
       </c>
       <c r="C80" t="n">
-        <v>30.44</v>
+        <v>28.96</v>
       </c>
       <c r="D80" t="n">
-        <v>30.44</v>
+        <v>28.96</v>
       </c>
       <c r="E80" t="n">
-        <v>30.44</v>
+        <v>28.96</v>
       </c>
       <c r="F80" t="n">
-        <v>12464.8464</v>
+        <v>19621.5279</v>
       </c>
       <c r="G80" t="n">
-        <v>-876790.3367517566</v>
+        <v>-1399707.760051756</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>30.25</v>
+        <v>28.33</v>
       </c>
       <c r="C81" t="n">
-        <v>30.25</v>
+        <v>28.95</v>
       </c>
       <c r="D81" t="n">
-        <v>30.25</v>
+        <v>28.96</v>
       </c>
       <c r="E81" t="n">
-        <v>30.25</v>
+        <v>28.33</v>
       </c>
       <c r="F81" t="n">
-        <v>10000</v>
+        <v>1601.6993</v>
       </c>
       <c r="G81" t="n">
-        <v>-886790.3367517566</v>
+        <v>-1401309.459351756</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>30.26</v>
+        <v>28.89</v>
       </c>
       <c r="C82" t="n">
-        <v>30.26</v>
+        <v>28.89</v>
       </c>
       <c r="D82" t="n">
-        <v>30.26</v>
+        <v>28.89</v>
       </c>
       <c r="E82" t="n">
-        <v>30.26</v>
+        <v>28.89</v>
       </c>
       <c r="F82" t="n">
-        <v>1626.1779</v>
+        <v>640.801</v>
       </c>
       <c r="G82" t="n">
-        <v>-885164.1588517566</v>
+        <v>-1401950.260351756</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="K82" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>30.26</v>
+        <v>28.9</v>
       </c>
       <c r="C83" t="n">
-        <v>30.02</v>
+        <v>28.9</v>
       </c>
       <c r="D83" t="n">
-        <v>30.26</v>
+        <v>28.9</v>
       </c>
       <c r="E83" t="n">
-        <v>30.02</v>
+        <v>28.9</v>
       </c>
       <c r="F83" t="n">
-        <v>77542.46060000001</v>
+        <v>5192.892</v>
       </c>
       <c r="G83" t="n">
-        <v>-962706.6194517566</v>
+        <v>-1396757.368351756</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="K83" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30.02</v>
+        <v>28.96</v>
       </c>
       <c r="C84" t="n">
-        <v>30.44</v>
+        <v>28.96</v>
       </c>
       <c r="D84" t="n">
-        <v>30.44</v>
+        <v>28.96</v>
       </c>
       <c r="E84" t="n">
-        <v>30.02</v>
+        <v>28.96</v>
       </c>
       <c r="F84" t="n">
-        <v>1138.8</v>
+        <v>100</v>
       </c>
       <c r="G84" t="n">
-        <v>-961567.8194517565</v>
+        <v>-1396657.368351756</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>30.02</v>
+        <v>28.96</v>
       </c>
       <c r="C85" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="D85" t="n">
-        <v>30.02</v>
+        <v>28.96</v>
       </c>
       <c r="E85" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="F85" t="n">
-        <v>84770.79700000001</v>
+        <v>8768.210999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-1046338.616451757</v>
+        <v>-1396657.368351756</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K85" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="C86" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="D86" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="E86" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="F86" t="n">
-        <v>33216.0733</v>
+        <v>4102.9781</v>
       </c>
       <c r="G86" t="n">
-        <v>-1046338.616451757</v>
+        <v>-1396657.368351756</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K86" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.97</v>
+        <v>28.45</v>
       </c>
       <c r="C87" t="n">
-        <v>30.29</v>
+        <v>28.96</v>
       </c>
       <c r="D87" t="n">
-        <v>30.29</v>
+        <v>28.96</v>
       </c>
       <c r="E87" t="n">
-        <v>29.97</v>
+        <v>28.45</v>
       </c>
       <c r="F87" t="n">
-        <v>1158.3</v>
+        <v>1254.5</v>
       </c>
       <c r="G87" t="n">
-        <v>-1045180.316451757</v>
+        <v>-1396657.368351756</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K87" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="C88" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="D88" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="E88" t="n">
-        <v>29.97</v>
+        <v>28.96</v>
       </c>
       <c r="F88" t="n">
-        <v>22000</v>
+        <v>20</v>
       </c>
       <c r="G88" t="n">
-        <v>-1067180.316451757</v>
+        <v>-1396657.368351756</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K88" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>30.29</v>
+        <v>28.96</v>
       </c>
       <c r="C89" t="n">
-        <v>30.29</v>
+        <v>28.96</v>
       </c>
       <c r="D89" t="n">
-        <v>30.29</v>
+        <v>28.96</v>
       </c>
       <c r="E89" t="n">
-        <v>30.29</v>
+        <v>28.96</v>
       </c>
       <c r="F89" t="n">
-        <v>65354.4316</v>
+        <v>39578.1086</v>
       </c>
       <c r="G89" t="n">
-        <v>-1001825.884851757</v>
+        <v>-1396657.368351756</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K89" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>30.29</v>
+        <v>28.97</v>
       </c>
       <c r="C90" t="n">
-        <v>29.9</v>
+        <v>28.97</v>
       </c>
       <c r="D90" t="n">
-        <v>30.29</v>
+        <v>28.97</v>
       </c>
       <c r="E90" t="n">
-        <v>29.9</v>
+        <v>28.97</v>
       </c>
       <c r="F90" t="n">
-        <v>32058.6077</v>
+        <v>72571.24249999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-1033884.492551757</v>
+        <v>-1324086.125851756</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K90" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>30</v>
+        <v>28.96</v>
       </c>
       <c r="C91" t="n">
-        <v>30</v>
+        <v>28.97</v>
       </c>
       <c r="D91" t="n">
-        <v>30</v>
+        <v>28.97</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>28.45</v>
       </c>
       <c r="F91" t="n">
-        <v>80766.6828</v>
+        <v>1297.4</v>
       </c>
       <c r="G91" t="n">
-        <v>-953117.8097517566</v>
+        <v>-1324086.125851756</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K91" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>30</v>
+        <v>28.97</v>
       </c>
       <c r="C92" t="n">
-        <v>30</v>
+        <v>28.97</v>
       </c>
       <c r="D92" t="n">
-        <v>30</v>
+        <v>28.97</v>
       </c>
       <c r="E92" t="n">
-        <v>30</v>
+        <v>28.97</v>
       </c>
       <c r="F92" t="n">
-        <v>29233.3172</v>
+        <v>5750.2653</v>
       </c>
       <c r="G92" t="n">
-        <v>-953117.8097517566</v>
+        <v>-1324086.125851756</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K92" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>30.33</v>
+        <v>28.97</v>
       </c>
       <c r="C93" t="n">
-        <v>29.9</v>
+        <v>28.61</v>
       </c>
       <c r="D93" t="n">
-        <v>30.33</v>
+        <v>28.97</v>
       </c>
       <c r="E93" t="n">
-        <v>29.9</v>
+        <v>28.61</v>
       </c>
       <c r="F93" t="n">
-        <v>84587.62729999999</v>
+        <v>1014.801</v>
       </c>
       <c r="G93" t="n">
-        <v>-1037705.437051757</v>
+        <v>-1325100.926851756</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K93" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.9</v>
+        <v>28.97</v>
       </c>
       <c r="C94" t="n">
-        <v>30.33</v>
+        <v>28.97</v>
       </c>
       <c r="D94" t="n">
-        <v>30.33</v>
+        <v>28.97</v>
       </c>
       <c r="E94" t="n">
-        <v>29.89</v>
+        <v>28.97</v>
       </c>
       <c r="F94" t="n">
-        <v>45216.6037</v>
+        <v>9693.7803</v>
       </c>
       <c r="G94" t="n">
-        <v>-992488.8333517566</v>
+        <v>-1315407.146551756</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="K94" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.89</v>
+        <v>28.61</v>
       </c>
       <c r="C95" t="n">
-        <v>29.8</v>
+        <v>28.97</v>
       </c>
       <c r="D95" t="n">
-        <v>29.89</v>
+        <v>28.97</v>
       </c>
       <c r="E95" t="n">
-        <v>29.8</v>
+        <v>28.61</v>
       </c>
       <c r="F95" t="n">
-        <v>14961.0487</v>
+        <v>1309.1</v>
       </c>
       <c r="G95" t="n">
-        <v>-1007449.882051757</v>
+        <v>-1315407.146551756</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,33 +3954,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.89</v>
+        <v>28.96</v>
       </c>
       <c r="C96" t="n">
-        <v>29.89</v>
+        <v>28.97</v>
       </c>
       <c r="D96" t="n">
-        <v>29.89</v>
+        <v>28.97</v>
       </c>
       <c r="E96" t="n">
-        <v>29.89</v>
+        <v>28.96</v>
       </c>
       <c r="F96" t="n">
-        <v>8871.3182</v>
+        <v>7313.7514</v>
       </c>
       <c r="G96" t="n">
-        <v>-998578.5638517566</v>
+        <v>-1315407.146551756</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +3996,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29.9</v>
+        <v>28.61</v>
       </c>
       <c r="C97" t="n">
-        <v>29.89</v>
+        <v>28.97</v>
       </c>
       <c r="D97" t="n">
-        <v>29.9</v>
+        <v>28.97</v>
       </c>
       <c r="E97" t="n">
-        <v>29.89</v>
+        <v>28.61</v>
       </c>
       <c r="F97" t="n">
-        <v>4720.2834</v>
+        <v>91851.61870000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-998578.5638517566</v>
+        <v>-1315407.146551756</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,33 +4038,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>29.89</v>
+        <v>28.85</v>
       </c>
       <c r="C98" t="n">
-        <v>29.89</v>
+        <v>28.97</v>
       </c>
       <c r="D98" t="n">
-        <v>29.89</v>
+        <v>28.97</v>
       </c>
       <c r="E98" t="n">
-        <v>29.89</v>
+        <v>28.61</v>
       </c>
       <c r="F98" t="n">
-        <v>9844.464900000001</v>
+        <v>1288.3</v>
       </c>
       <c r="G98" t="n">
-        <v>-998578.5638517566</v>
+        <v>-1315407.146551756</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3817,33 +4080,40 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>29.89</v>
+        <v>28.61</v>
       </c>
       <c r="C99" t="n">
-        <v>29.89</v>
+        <v>28.61</v>
       </c>
       <c r="D99" t="n">
-        <v>29.89</v>
+        <v>28.61</v>
       </c>
       <c r="E99" t="n">
-        <v>29.89</v>
+        <v>28.61</v>
       </c>
       <c r="F99" t="n">
-        <v>8865.767</v>
+        <v>84.90519999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-998578.5638517566</v>
+        <v>-1315492.051751756</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,33 +4122,40 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29.81</v>
+        <v>28.61</v>
       </c>
       <c r="C100" t="n">
-        <v>29.61</v>
+        <v>28.97</v>
       </c>
       <c r="D100" t="n">
-        <v>29.81</v>
+        <v>28.97</v>
       </c>
       <c r="E100" t="n">
-        <v>29.61</v>
+        <v>28.61</v>
       </c>
       <c r="F100" t="n">
-        <v>65354.4316</v>
+        <v>1298.7</v>
       </c>
       <c r="G100" t="n">
-        <v>-1063932.995451757</v>
+        <v>-1314193.351751756</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,33 +4164,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>29.8</v>
+        <v>28.97</v>
       </c>
       <c r="C101" t="n">
-        <v>29.8</v>
+        <v>28.97</v>
       </c>
       <c r="D101" t="n">
-        <v>29.8</v>
+        <v>28.97</v>
       </c>
       <c r="E101" t="n">
-        <v>29.8</v>
+        <v>28.97</v>
       </c>
       <c r="F101" t="n">
-        <v>18079.1191</v>
+        <v>320.6123</v>
       </c>
       <c r="G101" t="n">
-        <v>-1045853.876351757</v>
+        <v>-1314193.351751756</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,33 +4206,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>29.8</v>
+        <v>28.7</v>
       </c>
       <c r="C102" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="D102" t="n">
-        <v>29.8</v>
+        <v>28.7</v>
       </c>
       <c r="E102" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="F102" t="n">
-        <v>7254.8184</v>
+        <v>7038.8894</v>
       </c>
       <c r="G102" t="n">
-        <v>-1045853.876351757</v>
+        <v>-1321232.241151756</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4248,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>29.65</v>
+        <v>28.7</v>
       </c>
       <c r="C103" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="D103" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="E103" t="n">
-        <v>29.65</v>
+        <v>28.7</v>
       </c>
       <c r="F103" t="n">
-        <v>1240.2</v>
+        <v>1358.5</v>
       </c>
       <c r="G103" t="n">
-        <v>-1045853.876351757</v>
+        <v>-1319873.741151756</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4290,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29.8</v>
+        <v>28.89</v>
       </c>
       <c r="C104" t="n">
-        <v>30.19</v>
+        <v>28.9</v>
       </c>
       <c r="D104" t="n">
-        <v>30.19</v>
+        <v>28.9</v>
       </c>
       <c r="E104" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="F104" t="n">
-        <v>11630.6792</v>
+        <v>4941.0136</v>
       </c>
       <c r="G104" t="n">
-        <v>-1034223.197151756</v>
+        <v>-1319873.741151756</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4332,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="C105" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="D105" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="E105" t="n">
-        <v>29.8</v>
+        <v>28.6</v>
       </c>
       <c r="F105" t="n">
-        <v>8723.101699999999</v>
+        <v>1360.2534</v>
       </c>
       <c r="G105" t="n">
-        <v>-1042946.298851756</v>
+        <v>-1321233.994551756</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4374,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.65</v>
+        <v>28.6</v>
       </c>
       <c r="C106" t="n">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="D106" t="n">
-        <v>29.65</v>
+        <v>28.6</v>
       </c>
       <c r="E106" t="n">
-        <v>29.5</v>
+        <v>28.6</v>
       </c>
       <c r="F106" t="n">
-        <v>166326.6534</v>
+        <v>1360.2535</v>
       </c>
       <c r="G106" t="n">
-        <v>-1209272.952251757</v>
+        <v>-1321233.994551756</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,173 +4416,216 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="C107" t="n">
-        <v>29.36</v>
+        <v>28.9</v>
       </c>
       <c r="D107" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="E107" t="n">
-        <v>29.36</v>
+        <v>28.6</v>
       </c>
       <c r="F107" t="n">
-        <v>31287.0993</v>
+        <v>6186.836</v>
       </c>
       <c r="G107" t="n">
-        <v>-1240560.051551756</v>
+        <v>-1315047.158551756</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K107" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>29.24</v>
+        <v>28.7</v>
       </c>
       <c r="C108" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="D108" t="n">
-        <v>29.36</v>
+        <v>28.7</v>
       </c>
       <c r="E108" t="n">
-        <v>29.2</v>
+        <v>28.6</v>
       </c>
       <c r="F108" t="n">
-        <v>8107.3269</v>
+        <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>-1248667.378451756</v>
+        <v>-1325047.158551756</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K108" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>29.3</v>
+        <v>28.6</v>
       </c>
       <c r="C109" t="n">
-        <v>29.12</v>
+        <v>28.9</v>
       </c>
       <c r="D109" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="E109" t="n">
-        <v>29.12</v>
+        <v>28.6</v>
       </c>
       <c r="F109" t="n">
-        <v>30447.0103</v>
+        <v>1435.2</v>
       </c>
       <c r="G109" t="n">
-        <v>-1279114.388751756</v>
+        <v>-1323611.958551756</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K109" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="C110" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D110" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="E110" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F110" t="n">
-        <v>158617.1333</v>
+        <v>55.3812</v>
       </c>
       <c r="G110" t="n">
-        <v>-1437731.522051756</v>
+        <v>-1323611.958551756</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.73</v>
+        <v>28.9</v>
       </c>
       <c r="C111" t="n">
-        <v>28.01</v>
+        <v>28.9</v>
       </c>
       <c r="D111" t="n">
-        <v>28.73</v>
+        <v>28.9</v>
       </c>
       <c r="E111" t="n">
-        <v>28.01</v>
+        <v>28.9</v>
       </c>
       <c r="F111" t="n">
-        <v>174715.0147</v>
+        <v>9293.6463</v>
       </c>
       <c r="G111" t="n">
-        <v>-1612446.536751756</v>
+        <v>-1323611.958551756</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -4272,39 +4634,42 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>28.9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29.01</v>
+        <v>28.6</v>
       </c>
       <c r="C112" t="n">
-        <v>29.01</v>
+        <v>28.6</v>
       </c>
       <c r="D112" t="n">
-        <v>29.01</v>
+        <v>28.6</v>
       </c>
       <c r="E112" t="n">
-        <v>29.01</v>
+        <v>28.6</v>
       </c>
       <c r="F112" t="n">
-        <v>19</v>
+        <v>40793.2005</v>
       </c>
       <c r="G112" t="n">
-        <v>-1612427.536751756</v>
+        <v>-1364405.159051756</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4313,9 +4678,11 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>28.01</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+        <v>28.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,28 +4691,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.49</v>
+        <v>28.5</v>
       </c>
       <c r="C113" t="n">
-        <v>28.49</v>
+        <v>28.5</v>
       </c>
       <c r="D113" t="n">
-        <v>28.49</v>
+        <v>28.5</v>
       </c>
       <c r="E113" t="n">
-        <v>28.49</v>
+        <v>28.5</v>
       </c>
       <c r="F113" t="n">
-        <v>2209.9599</v>
+        <v>30000</v>
       </c>
       <c r="G113" t="n">
-        <v>-1614637.496651756</v>
+        <v>-1394405.159051756</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4354,9 +4722,11 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+        <v>28.6</v>
+      </c>
+      <c r="K113" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4365,28 +4735,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28.41</v>
+        <v>28.45</v>
       </c>
       <c r="C114" t="n">
-        <v>28.58</v>
+        <v>28.5</v>
       </c>
       <c r="D114" t="n">
-        <v>28.58</v>
+        <v>28.5</v>
       </c>
       <c r="E114" t="n">
-        <v>28</v>
+        <v>28.45</v>
       </c>
       <c r="F114" t="n">
-        <v>201537.7801</v>
+        <v>142961.8869</v>
       </c>
       <c r="G114" t="n">
-        <v>-1413099.716551756</v>
+        <v>-1394405.159051756</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4395,9 +4766,11 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4406,28 +4779,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>28.1</v>
+        <v>28.97</v>
       </c>
       <c r="C115" t="n">
-        <v>28.58</v>
+        <v>28.97</v>
       </c>
       <c r="D115" t="n">
-        <v>28.58</v>
+        <v>28.97</v>
       </c>
       <c r="E115" t="n">
-        <v>28.1</v>
+        <v>28.35</v>
       </c>
       <c r="F115" t="n">
-        <v>1222</v>
+        <v>249804.1</v>
       </c>
       <c r="G115" t="n">
-        <v>-1413099.716551756</v>
+        <v>-1144601.059051756</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4436,9 +4810,11 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,28 +4823,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.3</v>
+        <v>28.37</v>
       </c>
       <c r="C116" t="n">
-        <v>28.3</v>
+        <v>28.97</v>
       </c>
       <c r="D116" t="n">
-        <v>28.3</v>
+        <v>28.97</v>
       </c>
       <c r="E116" t="n">
-        <v>28.3</v>
+        <v>28.35</v>
       </c>
       <c r="F116" t="n">
-        <v>474</v>
+        <v>68000</v>
       </c>
       <c r="G116" t="n">
-        <v>-1413573.716551756</v>
+        <v>-1144601.059051756</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
@@ -4477,9 +4854,11 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="K116" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,28 +4867,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.3</v>
+        <v>28.97</v>
       </c>
       <c r="C117" t="n">
-        <v>28.3</v>
+        <v>28.97</v>
       </c>
       <c r="D117" t="n">
-        <v>28.3</v>
+        <v>28.97</v>
       </c>
       <c r="E117" t="n">
-        <v>28.3</v>
+        <v>28.97</v>
       </c>
       <c r="F117" t="n">
-        <v>8970.888800000001</v>
+        <v>6029.5256</v>
       </c>
       <c r="G117" t="n">
-        <v>-1413573.716551756</v>
+        <v>-1144601.059051756</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4518,9 +4898,11 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="K117" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,28 +4911,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>28.58</v>
+        <v>28.38</v>
       </c>
       <c r="C118" t="n">
-        <v>28.58</v>
+        <v>28.38</v>
       </c>
       <c r="D118" t="n">
-        <v>28.58</v>
+        <v>28.38</v>
       </c>
       <c r="E118" t="n">
-        <v>28.58</v>
+        <v>28.38</v>
       </c>
       <c r="F118" t="n">
-        <v>575.0064</v>
+        <v>832.2368</v>
       </c>
       <c r="G118" t="n">
-        <v>-1412998.710151756</v>
+        <v>-1145433.295851756</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4559,9 +4942,11 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="K118" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,13 +4955,14 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.89</v>
+        <v>28.97</v>
       </c>
       <c r="C119" t="n">
         <v>28.97</v>
@@ -4585,13 +4971,13 @@
         <v>28.97</v>
       </c>
       <c r="E119" t="n">
-        <v>28.89</v>
+        <v>28.97</v>
       </c>
       <c r="F119" t="n">
-        <v>29195.6889</v>
+        <v>7310.6749</v>
       </c>
       <c r="G119" t="n">
-        <v>-1383803.021251756</v>
+        <v>-1138122.620951756</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4600,9 +4986,11 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+        <v>28.38</v>
+      </c>
+      <c r="K119" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4611,13 +4999,14 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.97</v>
+        <v>28.5</v>
       </c>
       <c r="C120" t="n">
         <v>28.97</v>
@@ -4626,13 +5015,13 @@
         <v>28.97</v>
       </c>
       <c r="E120" t="n">
-        <v>28.97</v>
+        <v>28.5</v>
       </c>
       <c r="F120" t="n">
-        <v>5642.0224</v>
+        <v>1449.5</v>
       </c>
       <c r="G120" t="n">
-        <v>-1383803.021251756</v>
+        <v>-1138122.620951756</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4643,7 +5032,9 @@
       <c r="J120" t="n">
         <v>28.97</v>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4652,37 +5043,42 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="C121" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="D121" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="E121" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="F121" t="n">
-        <v>15904.7388</v>
+        <v>33708.0257</v>
       </c>
       <c r="G121" t="n">
-        <v>-1399707.760051756</v>
+        <v>-1138122.620951756</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K121" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4691,28 +5087,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="C122" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="D122" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="E122" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="F122" t="n">
-        <v>19621.5279</v>
+        <v>20395.2034</v>
       </c>
       <c r="G122" t="n">
-        <v>-1399707.760051756</v>
+        <v>-1158517.824351756</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4721,9 +5118,11 @@
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="K122" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,28 +5131,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.33</v>
+        <v>28.51</v>
       </c>
       <c r="C123" t="n">
-        <v>28.95</v>
+        <v>28.96</v>
       </c>
       <c r="D123" t="n">
         <v>28.96</v>
       </c>
       <c r="E123" t="n">
-        <v>28.33</v>
+        <v>28.51</v>
       </c>
       <c r="F123" t="n">
-        <v>1601.6993</v>
+        <v>3290.727</v>
       </c>
       <c r="G123" t="n">
-        <v>-1401309.459351756</v>
+        <v>-1155227.097351756</v>
       </c>
       <c r="H123" t="n">
         <v>1</v>
@@ -4762,9 +5162,11 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+        <v>28.5</v>
+      </c>
+      <c r="K123" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,28 +5175,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.89</v>
+        <v>28.96</v>
       </c>
       <c r="C124" t="n">
-        <v>28.89</v>
+        <v>28.97</v>
       </c>
       <c r="D124" t="n">
-        <v>28.89</v>
+        <v>28.97</v>
       </c>
       <c r="E124" t="n">
-        <v>28.89</v>
+        <v>28.41</v>
       </c>
       <c r="F124" t="n">
-        <v>640.801</v>
+        <v>326051.8426</v>
       </c>
       <c r="G124" t="n">
-        <v>-1401950.260351756</v>
+        <v>-829175.2547517562</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -4803,9 +5206,11 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>28.96</v>
+      </c>
+      <c r="K124" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4814,28 +5219,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="C125" t="n">
-        <v>28.9</v>
+        <v>28.89</v>
       </c>
       <c r="D125" t="n">
-        <v>28.9</v>
+        <v>28.89</v>
       </c>
       <c r="E125" t="n">
-        <v>28.9</v>
+        <v>28.5</v>
       </c>
       <c r="F125" t="n">
-        <v>5192.892</v>
+        <v>1340.3</v>
       </c>
       <c r="G125" t="n">
-        <v>-1396757.368351756</v>
+        <v>-830515.5547517563</v>
       </c>
       <c r="H125" t="n">
         <v>1</v>
@@ -4844,9 +5250,11 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="K125" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4855,37 +5263,42 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="C126" t="n">
-        <v>28.96</v>
+        <v>28.43</v>
       </c>
       <c r="D126" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="E126" t="n">
-        <v>28.96</v>
+        <v>28.43</v>
       </c>
       <c r="F126" t="n">
-        <v>100</v>
+        <v>1996.1931</v>
       </c>
       <c r="G126" t="n">
-        <v>-1396657.368351756</v>
+        <v>-832511.7478517563</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="K126" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4894,28 +5307,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.96</v>
+        <v>28.89</v>
       </c>
       <c r="C127" t="n">
-        <v>28.96</v>
+        <v>28.89</v>
       </c>
       <c r="D127" t="n">
-        <v>28.96</v>
+        <v>28.89</v>
       </c>
       <c r="E127" t="n">
-        <v>28.96</v>
+        <v>28.89</v>
       </c>
       <c r="F127" t="n">
-        <v>8768.210999999999</v>
+        <v>1829.3922</v>
       </c>
       <c r="G127" t="n">
-        <v>-1396657.368351756</v>
+        <v>-830682.3556517563</v>
       </c>
       <c r="H127" t="n">
         <v>1</v>
@@ -4924,9 +5338,11 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>28.43</v>
+      </c>
+      <c r="K127" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4935,28 +5351,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="C128" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="D128" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="E128" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="F128" t="n">
-        <v>4102.9781</v>
+        <v>9132.4218</v>
       </c>
       <c r="G128" t="n">
-        <v>-1396657.368351756</v>
+        <v>-839814.7774517563</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4965,7 +5382,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4974,28 +5393,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.45</v>
+        <v>28.42</v>
       </c>
       <c r="C129" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="D129" t="n">
-        <v>28.96</v>
+        <v>28.88</v>
       </c>
       <c r="E129" t="n">
-        <v>28.45</v>
+        <v>28.42</v>
       </c>
       <c r="F129" t="n">
-        <v>1254.5</v>
+        <v>1320.8</v>
       </c>
       <c r="G129" t="n">
-        <v>-1396657.368351756</v>
+        <v>-839814.7774517563</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5004,7 +5424,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5013,39 +5435,40 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28.96</v>
+        <v>28.42</v>
       </c>
       <c r="C130" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="D130" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="E130" t="n">
-        <v>28.96</v>
+        <v>28.41</v>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>152000</v>
       </c>
       <c r="G130" t="n">
-        <v>-1396657.368351756</v>
+        <v>-687814.7774517563</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5054,28 +5477,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>28.96</v>
+        <v>28.5</v>
       </c>
       <c r="C131" t="n">
         <v>28.96</v>
       </c>
       <c r="D131" t="n">
-        <v>28.96</v>
+        <v>28.97</v>
       </c>
       <c r="E131" t="n">
-        <v>28.96</v>
+        <v>28.3</v>
       </c>
       <c r="F131" t="n">
-        <v>39578.1086</v>
+        <v>381933.0255</v>
       </c>
       <c r="G131" t="n">
-        <v>-1396657.368351756</v>
+        <v>-1069747.802951756</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5084,7 +5508,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5093,37 +5519,42 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>28.97</v>
+        <v>28.4</v>
       </c>
       <c r="C132" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="D132" t="n">
-        <v>28.97</v>
+        <v>28.96</v>
       </c>
       <c r="E132" t="n">
-        <v>28.97</v>
+        <v>28.21</v>
       </c>
       <c r="F132" t="n">
-        <v>72571.24249999999</v>
+        <v>190000</v>
       </c>
       <c r="G132" t="n">
-        <v>-1324086.125851756</v>
+        <v>-1069747.802951756</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="K132" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5132,28 +5563,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>28.96</v>
+        <v>28.22</v>
       </c>
       <c r="C133" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="D133" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="E133" t="n">
-        <v>28.45</v>
+        <v>28.22</v>
       </c>
       <c r="F133" t="n">
-        <v>1297.4</v>
+        <v>1267.5</v>
       </c>
       <c r="G133" t="n">
-        <v>-1324086.125851756</v>
+        <v>-1071015.302951756</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5162,7 +5594,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5171,37 +5605,42 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>28.97</v>
+        <v>28.24</v>
       </c>
       <c r="C134" t="n">
-        <v>28.97</v>
+        <v>28.24</v>
       </c>
       <c r="D134" t="n">
-        <v>28.97</v>
+        <v>28.24</v>
       </c>
       <c r="E134" t="n">
-        <v>28.97</v>
+        <v>28.24</v>
       </c>
       <c r="F134" t="n">
-        <v>5750.2653</v>
+        <v>1625.4057</v>
       </c>
       <c r="G134" t="n">
-        <v>-1324086.125851756</v>
+        <v>-1072640.708651756</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="K134" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5210,37 +5649,42 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>28.97</v>
+        <v>28.25</v>
       </c>
       <c r="C135" t="n">
-        <v>28.61</v>
+        <v>28.97</v>
       </c>
       <c r="D135" t="n">
         <v>28.97</v>
       </c>
       <c r="E135" t="n">
-        <v>28.61</v>
+        <v>28.03</v>
       </c>
       <c r="F135" t="n">
-        <v>1014.801</v>
+        <v>133000</v>
       </c>
       <c r="G135" t="n">
-        <v>-1325100.926851756</v>
+        <v>-939640.7086517564</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>28.24</v>
+      </c>
+      <c r="K135" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5249,13 +5693,14 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>28.97</v>
+        <v>28.21</v>
       </c>
       <c r="C136" t="n">
         <v>28.97</v>
@@ -5264,22 +5709,26 @@
         <v>28.97</v>
       </c>
       <c r="E136" t="n">
-        <v>28.97</v>
+        <v>28.05</v>
       </c>
       <c r="F136" t="n">
-        <v>9693.7803</v>
+        <v>760000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1315407.146551756</v>
+        <v>-939640.7086517564</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K136" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5288,28 +5737,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>28.61</v>
+        <v>28.07</v>
       </c>
       <c r="C137" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="D137" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="E137" t="n">
-        <v>28.61</v>
+        <v>28.07</v>
       </c>
       <c r="F137" t="n">
-        <v>1309.1</v>
+        <v>1322.1</v>
       </c>
       <c r="G137" t="n">
-        <v>-1315407.146551756</v>
+        <v>-940962.8086517564</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5318,7 +5768,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5327,13 +5779,14 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>28.96</v>
+        <v>28.58</v>
       </c>
       <c r="C138" t="n">
         <v>28.97</v>
@@ -5342,13 +5795,13 @@
         <v>28.97</v>
       </c>
       <c r="E138" t="n">
-        <v>28.96</v>
+        <v>28.58</v>
       </c>
       <c r="F138" t="n">
-        <v>7313.7514</v>
+        <v>295151.7888</v>
       </c>
       <c r="G138" t="n">
-        <v>-1315407.146551756</v>
+        <v>-645811.0198517564</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5357,7 +5810,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5366,28 +5821,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>28.61</v>
+        <v>28.31</v>
       </c>
       <c r="C139" t="n">
-        <v>28.97</v>
+        <v>29.01</v>
       </c>
       <c r="D139" t="n">
-        <v>28.97</v>
+        <v>30.43</v>
       </c>
       <c r="E139" t="n">
-        <v>28.61</v>
+        <v>28.05</v>
       </c>
       <c r="F139" t="n">
-        <v>91851.61870000001</v>
+        <v>760922.2556</v>
       </c>
       <c r="G139" t="n">
-        <v>-1315407.146551756</v>
+        <v>115111.2357482436</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5396,7 +5852,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5405,28 +5863,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>28.85</v>
+        <v>29.01</v>
       </c>
       <c r="C140" t="n">
-        <v>28.97</v>
+        <v>29.45</v>
       </c>
       <c r="D140" t="n">
-        <v>28.97</v>
+        <v>30.43</v>
       </c>
       <c r="E140" t="n">
-        <v>28.61</v>
+        <v>29.01</v>
       </c>
       <c r="F140" t="n">
-        <v>1288.3</v>
+        <v>31442.78017147708</v>
       </c>
       <c r="G140" t="n">
-        <v>-1315407.146551756</v>
+        <v>146554.0159197207</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5435,7 +5894,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5444,28 +5905,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>28.61</v>
+        <v>28.86</v>
       </c>
       <c r="C141" t="n">
-        <v>28.61</v>
+        <v>28.81</v>
       </c>
       <c r="D141" t="n">
-        <v>28.61</v>
+        <v>28.86</v>
       </c>
       <c r="E141" t="n">
-        <v>28.61</v>
+        <v>28.81</v>
       </c>
       <c r="F141" t="n">
-        <v>84.90519999999999</v>
+        <v>16609.6004</v>
       </c>
       <c r="G141" t="n">
-        <v>-1315492.051751756</v>
+        <v>129944.4155197207</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5474,7 +5936,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5483,39 +5947,40 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>28.61</v>
+        <v>28.71</v>
       </c>
       <c r="C142" t="n">
-        <v>28.97</v>
+        <v>28.6</v>
       </c>
       <c r="D142" t="n">
-        <v>28.97</v>
+        <v>28.71</v>
       </c>
       <c r="E142" t="n">
-        <v>28.61</v>
+        <v>28.6</v>
       </c>
       <c r="F142" t="n">
-        <v>1298.7</v>
+        <v>25441.9362</v>
       </c>
       <c r="G142" t="n">
-        <v>-1314193.351751756</v>
+        <v>104502.4793197207</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,28 +5989,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>28.97</v>
+        <v>28.57</v>
       </c>
       <c r="C143" t="n">
-        <v>28.97</v>
+        <v>28.57</v>
       </c>
       <c r="D143" t="n">
-        <v>28.97</v>
+        <v>28.57</v>
       </c>
       <c r="E143" t="n">
-        <v>28.97</v>
+        <v>28.31</v>
       </c>
       <c r="F143" t="n">
-        <v>320.6123</v>
+        <v>2099.8403</v>
       </c>
       <c r="G143" t="n">
-        <v>-1314193.351751756</v>
+        <v>102402.6390197207</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5554,7 +6020,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5563,28 +6031,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>28.7</v>
+        <v>28.57</v>
       </c>
       <c r="C144" t="n">
-        <v>28.6</v>
+        <v>29.56</v>
       </c>
       <c r="D144" t="n">
-        <v>28.7</v>
+        <v>29.56</v>
       </c>
       <c r="E144" t="n">
-        <v>28.6</v>
+        <v>28.57</v>
       </c>
       <c r="F144" t="n">
-        <v>7038.8894</v>
+        <v>278357.9326</v>
       </c>
       <c r="G144" t="n">
-        <v>-1321232.241151756</v>
+        <v>380760.5716197207</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5593,7 +6062,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5602,28 +6073,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="C145" t="n">
-        <v>28.9</v>
+        <v>29.01</v>
       </c>
       <c r="D145" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E145" t="n">
-        <v>28.7</v>
+        <v>29.01</v>
       </c>
       <c r="F145" t="n">
-        <v>1358.5</v>
+        <v>33708.0257</v>
       </c>
       <c r="G145" t="n">
-        <v>-1319873.741151756</v>
+        <v>347052.5459197207</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5632,7 +6104,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5641,28 +6115,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28.89</v>
+        <v>29.01</v>
       </c>
       <c r="C146" t="n">
-        <v>28.9</v>
+        <v>29.38</v>
       </c>
       <c r="D146" t="n">
-        <v>28.9</v>
+        <v>29.38</v>
       </c>
       <c r="E146" t="n">
-        <v>28.6</v>
+        <v>29.01</v>
       </c>
       <c r="F146" t="n">
-        <v>4941.0136</v>
+        <v>1301.3</v>
       </c>
       <c r="G146" t="n">
-        <v>-1319873.741151756</v>
+        <v>348353.8459197207</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5671,7 +6146,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5680,28 +6157,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>28.6</v>
+        <v>29.01</v>
       </c>
       <c r="C147" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="D147" t="n">
-        <v>28.6</v>
+        <v>29.01</v>
       </c>
       <c r="E147" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="F147" t="n">
-        <v>1360.2534</v>
+        <v>14843.894</v>
       </c>
       <c r="G147" t="n">
-        <v>-1321233.994551756</v>
+        <v>333509.9519197207</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5710,7 +6188,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5719,28 +6199,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="C148" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="D148" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E148" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="F148" t="n">
-        <v>1360.2535</v>
+        <v>30000</v>
       </c>
       <c r="G148" t="n">
-        <v>-1321233.994551756</v>
+        <v>333509.9519197207</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5749,7 +6230,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5758,28 +6241,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>28.6</v>
+        <v>28.99</v>
       </c>
       <c r="C149" t="n">
-        <v>28.9</v>
+        <v>28.99</v>
       </c>
       <c r="D149" t="n">
-        <v>28.9</v>
+        <v>28.99</v>
       </c>
       <c r="E149" t="n">
-        <v>28.6</v>
+        <v>28.99</v>
       </c>
       <c r="F149" t="n">
-        <v>6186.836</v>
+        <v>22</v>
       </c>
       <c r="G149" t="n">
-        <v>-1315047.158551756</v>
+        <v>333531.9519197207</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5788,7 +6272,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,28 +6283,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>28.7</v>
+        <v>28.97</v>
       </c>
       <c r="C150" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="D150" t="n">
-        <v>28.7</v>
+        <v>28.97</v>
       </c>
       <c r="E150" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="F150" t="n">
-        <v>10000</v>
+        <v>22</v>
       </c>
       <c r="G150" t="n">
-        <v>-1325047.158551756</v>
+        <v>333509.9519197207</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5827,7 +6314,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,6 +6325,7 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5845,19 +6335,19 @@
         <v>28.6</v>
       </c>
       <c r="C151" t="n">
-        <v>28.9</v>
+        <v>28.97</v>
       </c>
       <c r="D151" t="n">
-        <v>28.9</v>
+        <v>28.97</v>
       </c>
       <c r="E151" t="n">
         <v>28.6</v>
       </c>
       <c r="F151" t="n">
-        <v>1435.2</v>
+        <v>1293.5</v>
       </c>
       <c r="G151" t="n">
-        <v>-1323611.958551756</v>
+        <v>333509.9519197207</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5866,7 +6356,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5875,6 +6367,7 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5893,10 +6386,10 @@
         <v>28.9</v>
       </c>
       <c r="F152" t="n">
-        <v>55.3812</v>
+        <v>23</v>
       </c>
       <c r="G152" t="n">
-        <v>-1323611.958551756</v>
+        <v>333486.9519197207</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5905,7 +6398,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5914,28 +6409,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>28.9</v>
+        <v>28.87</v>
       </c>
       <c r="C153" t="n">
-        <v>28.9</v>
+        <v>28.87</v>
       </c>
       <c r="D153" t="n">
-        <v>28.9</v>
+        <v>28.87</v>
       </c>
       <c r="E153" t="n">
-        <v>28.9</v>
+        <v>28.87</v>
       </c>
       <c r="F153" t="n">
-        <v>9293.6463</v>
+        <v>24.778</v>
       </c>
       <c r="G153" t="n">
-        <v>-1323611.958551756</v>
+        <v>333462.1739197207</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5944,7 +6440,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5953,28 +6451,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>28.6</v>
+        <v>28.88</v>
       </c>
       <c r="C154" t="n">
-        <v>28.6</v>
+        <v>28.88</v>
       </c>
       <c r="D154" t="n">
-        <v>28.6</v>
+        <v>28.88</v>
       </c>
       <c r="E154" t="n">
-        <v>28.6</v>
+        <v>28.88</v>
       </c>
       <c r="F154" t="n">
-        <v>40793.2005</v>
+        <v>33</v>
       </c>
       <c r="G154" t="n">
-        <v>-1364405.159051756</v>
+        <v>333495.1739197207</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5983,7 +6482,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5992,28 +6493,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>28.5</v>
+        <v>28.88</v>
       </c>
       <c r="C155" t="n">
-        <v>28.5</v>
+        <v>28.88</v>
       </c>
       <c r="D155" t="n">
-        <v>28.5</v>
+        <v>28.88</v>
       </c>
       <c r="E155" t="n">
-        <v>28.5</v>
+        <v>28.88</v>
       </c>
       <c r="F155" t="n">
-        <v>30000</v>
+        <v>34.7889</v>
       </c>
       <c r="G155" t="n">
-        <v>-1394405.159051756</v>
+        <v>333495.1739197207</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6022,7 +6524,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6031,28 +6535,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>28.45</v>
+        <v>28.6</v>
       </c>
       <c r="C156" t="n">
-        <v>28.5</v>
+        <v>28.87</v>
       </c>
       <c r="D156" t="n">
-        <v>28.5</v>
+        <v>28.87</v>
       </c>
       <c r="E156" t="n">
-        <v>28.45</v>
+        <v>28.59</v>
       </c>
       <c r="F156" t="n">
-        <v>142961.8869</v>
+        <v>24663.1732</v>
       </c>
       <c r="G156" t="n">
-        <v>-1394405.159051756</v>
+        <v>308832.0007197207</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6061,7 +6566,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6070,28 +6577,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>28.97</v>
+        <v>28.65</v>
       </c>
       <c r="C157" t="n">
-        <v>28.97</v>
+        <v>28.87</v>
       </c>
       <c r="D157" t="n">
-        <v>28.97</v>
+        <v>28.87</v>
       </c>
       <c r="E157" t="n">
-        <v>28.35</v>
+        <v>28.65</v>
       </c>
       <c r="F157" t="n">
-        <v>249804.1</v>
+        <v>46</v>
       </c>
       <c r="G157" t="n">
-        <v>-1144601.059051756</v>
+        <v>308832.0007197207</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6100,7 +6608,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6109,28 +6619,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>28.37</v>
+        <v>28.87</v>
       </c>
       <c r="C158" t="n">
-        <v>28.97</v>
+        <v>29</v>
       </c>
       <c r="D158" t="n">
-        <v>28.97</v>
+        <v>29</v>
       </c>
       <c r="E158" t="n">
-        <v>28.35</v>
+        <v>28.87</v>
       </c>
       <c r="F158" t="n">
-        <v>68000</v>
+        <v>30691.196</v>
       </c>
       <c r="G158" t="n">
-        <v>-1144601.059051756</v>
+        <v>339523.1967197207</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6139,7 +6650,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6148,28 +6661,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>28.97</v>
+        <v>28.87</v>
       </c>
       <c r="C159" t="n">
-        <v>28.97</v>
+        <v>28.88</v>
       </c>
       <c r="D159" t="n">
-        <v>28.97</v>
+        <v>28.88</v>
       </c>
       <c r="E159" t="n">
-        <v>28.97</v>
+        <v>28.58</v>
       </c>
       <c r="F159" t="n">
-        <v>6029.5256</v>
+        <v>1319.7</v>
       </c>
       <c r="G159" t="n">
-        <v>-1144601.059051756</v>
+        <v>338203.4967197207</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6178,7 +6692,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,28 +6703,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.38</v>
+        <v>28.9</v>
       </c>
       <c r="C160" t="n">
-        <v>28.38</v>
+        <v>28.8</v>
       </c>
       <c r="D160" t="n">
-        <v>28.38</v>
+        <v>29.1</v>
       </c>
       <c r="E160" t="n">
-        <v>28.38</v>
+        <v>28.76</v>
       </c>
       <c r="F160" t="n">
-        <v>832.2368</v>
+        <v>6246.912</v>
       </c>
       <c r="G160" t="n">
-        <v>-1145433.295851756</v>
+        <v>331956.5847197207</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6217,7 +6734,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6226,28 +6745,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>28.97</v>
+        <v>28.75</v>
       </c>
       <c r="C161" t="n">
-        <v>28.97</v>
+        <v>28.9</v>
       </c>
       <c r="D161" t="n">
-        <v>28.97</v>
+        <v>28.9</v>
       </c>
       <c r="E161" t="n">
-        <v>28.97</v>
+        <v>28.65</v>
       </c>
       <c r="F161" t="n">
-        <v>7310.6749</v>
+        <v>16650.2017</v>
       </c>
       <c r="G161" t="n">
-        <v>-1138122.620951756</v>
+        <v>348606.7864197207</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6256,7 +6776,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,28 +6787,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>28.5</v>
+        <v>28.73</v>
       </c>
       <c r="C162" t="n">
-        <v>28.97</v>
+        <v>28.6</v>
       </c>
       <c r="D162" t="n">
-        <v>28.97</v>
+        <v>28.89</v>
       </c>
       <c r="E162" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F162" t="n">
-        <v>1449.5</v>
+        <v>1517.8651</v>
       </c>
       <c r="G162" t="n">
-        <v>-1138122.620951756</v>
+        <v>347088.9213197207</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6295,7 +6818,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6304,28 +6829,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>28.97</v>
+        <v>28.9</v>
       </c>
       <c r="C163" t="n">
-        <v>28.97</v>
+        <v>29.06</v>
       </c>
       <c r="D163" t="n">
-        <v>28.97</v>
+        <v>29.06</v>
       </c>
       <c r="E163" t="n">
-        <v>28.97</v>
+        <v>28.9</v>
       </c>
       <c r="F163" t="n">
-        <v>33708.0257</v>
+        <v>70</v>
       </c>
       <c r="G163" t="n">
-        <v>-1138122.620951756</v>
+        <v>347158.9213197207</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6334,7 +6860,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6343,28 +6871,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>28.5</v>
+        <v>29.1</v>
       </c>
       <c r="C164" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D164" t="n">
-        <v>28.5</v>
+        <v>29.45</v>
       </c>
       <c r="E164" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F164" t="n">
-        <v>20395.2034</v>
+        <v>108</v>
       </c>
       <c r="G164" t="n">
-        <v>-1158517.824351756</v>
+        <v>347050.9213197207</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6373,7 +6902,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,28 +6913,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>28.51</v>
+        <v>29.09</v>
       </c>
       <c r="C165" t="n">
-        <v>28.96</v>
+        <v>29.07</v>
       </c>
       <c r="D165" t="n">
-        <v>28.96</v>
+        <v>29.09</v>
       </c>
       <c r="E165" t="n">
-        <v>28.51</v>
+        <v>29.07</v>
       </c>
       <c r="F165" t="n">
-        <v>3290.727</v>
+        <v>2422</v>
       </c>
       <c r="G165" t="n">
-        <v>-1155227.097351756</v>
+        <v>349472.9213197207</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6412,7 +6944,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6421,28 +6955,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>28.96</v>
+        <v>28.6</v>
       </c>
       <c r="C166" t="n">
-        <v>28.97</v>
+        <v>28.49</v>
       </c>
       <c r="D166" t="n">
-        <v>28.97</v>
+        <v>28.6</v>
       </c>
       <c r="E166" t="n">
-        <v>28.41</v>
+        <v>28.49</v>
       </c>
       <c r="F166" t="n">
-        <v>326051.8426</v>
+        <v>111744.0443</v>
       </c>
       <c r="G166" t="n">
-        <v>-829175.2547517562</v>
+        <v>237728.8770197207</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6451,7 +6986,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6460,28 +6997,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>28.5</v>
+        <v>28.49</v>
       </c>
       <c r="C167" t="n">
-        <v>28.89</v>
+        <v>29.06</v>
       </c>
       <c r="D167" t="n">
-        <v>28.89</v>
+        <v>29.06</v>
       </c>
       <c r="E167" t="n">
-        <v>28.5</v>
+        <v>28.49</v>
       </c>
       <c r="F167" t="n">
-        <v>1340.3</v>
+        <v>190000</v>
       </c>
       <c r="G167" t="n">
-        <v>-830515.5547517563</v>
+        <v>427728.8770197207</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6490,7 +7028,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6499,28 +7039,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>28.5</v>
+        <v>28.81</v>
       </c>
       <c r="C168" t="n">
-        <v>28.43</v>
+        <v>29.3</v>
       </c>
       <c r="D168" t="n">
-        <v>28.5</v>
+        <v>29.3</v>
       </c>
       <c r="E168" t="n">
-        <v>28.43</v>
+        <v>28.81</v>
       </c>
       <c r="F168" t="n">
-        <v>1996.1931</v>
+        <v>35.5629</v>
       </c>
       <c r="G168" t="n">
-        <v>-832511.7478517563</v>
+        <v>427764.4399197207</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6529,7 +7070,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6538,28 +7081,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>28.89</v>
+        <v>29</v>
       </c>
       <c r="C169" t="n">
-        <v>28.89</v>
+        <v>29</v>
       </c>
       <c r="D169" t="n">
-        <v>28.89</v>
+        <v>29</v>
       </c>
       <c r="E169" t="n">
-        <v>28.89</v>
+        <v>29</v>
       </c>
       <c r="F169" t="n">
-        <v>1829.3922</v>
+        <v>2105.7234</v>
       </c>
       <c r="G169" t="n">
-        <v>-830682.3556517563</v>
+        <v>425658.7165197207</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6568,7 +7112,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,28 +7123,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>28.88</v>
+        <v>29</v>
       </c>
       <c r="C170" t="n">
-        <v>28.88</v>
+        <v>29.29</v>
       </c>
       <c r="D170" t="n">
-        <v>28.88</v>
+        <v>29.29</v>
       </c>
       <c r="E170" t="n">
-        <v>28.88</v>
+        <v>28.91</v>
       </c>
       <c r="F170" t="n">
-        <v>9132.4218</v>
+        <v>1292.2</v>
       </c>
       <c r="G170" t="n">
-        <v>-839814.7774517563</v>
+        <v>426950.9165197207</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6607,7 +7154,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6616,28 +7165,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>28.42</v>
+        <v>28.91</v>
       </c>
       <c r="C171" t="n">
-        <v>28.88</v>
+        <v>28.91</v>
       </c>
       <c r="D171" t="n">
-        <v>28.88</v>
+        <v>29.41</v>
       </c>
       <c r="E171" t="n">
-        <v>28.42</v>
+        <v>28.91</v>
       </c>
       <c r="F171" t="n">
-        <v>1320.8</v>
+        <v>98000</v>
       </c>
       <c r="G171" t="n">
-        <v>-839814.7774517563</v>
+        <v>328950.9165197207</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6646,7 +7196,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6655,28 +7207,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>28.42</v>
+        <v>28.9</v>
       </c>
       <c r="C172" t="n">
-        <v>28.97</v>
+        <v>29.71</v>
       </c>
       <c r="D172" t="n">
-        <v>28.97</v>
+        <v>30.29</v>
       </c>
       <c r="E172" t="n">
-        <v>28.41</v>
+        <v>28.49</v>
       </c>
       <c r="F172" t="n">
-        <v>152000</v>
+        <v>122422.646</v>
       </c>
       <c r="G172" t="n">
-        <v>-687814.7774517563</v>
+        <v>451373.5625197207</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6685,7 +7238,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6694,28 +7249,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>28.5</v>
+        <v>29.81</v>
       </c>
       <c r="C173" t="n">
-        <v>28.96</v>
+        <v>30.27</v>
       </c>
       <c r="D173" t="n">
-        <v>28.97</v>
+        <v>30.27</v>
       </c>
       <c r="E173" t="n">
-        <v>28.3</v>
+        <v>29.81</v>
       </c>
       <c r="F173" t="n">
-        <v>381933.0255</v>
+        <v>2400</v>
       </c>
       <c r="G173" t="n">
-        <v>-1069747.802951756</v>
+        <v>453773.5625197207</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6724,7 +7280,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6733,28 +7291,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>28.4</v>
+        <v>29.71</v>
       </c>
       <c r="C174" t="n">
-        <v>28.96</v>
+        <v>30</v>
       </c>
       <c r="D174" t="n">
-        <v>28.96</v>
+        <v>30</v>
       </c>
       <c r="E174" t="n">
-        <v>28.21</v>
+        <v>29.71</v>
       </c>
       <c r="F174" t="n">
-        <v>190000</v>
+        <v>1272.7</v>
       </c>
       <c r="G174" t="n">
-        <v>-1069747.802951756</v>
+        <v>452500.8625197207</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6763,7 +7322,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6772,28 +7333,29 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>28.22</v>
+        <v>29.71</v>
       </c>
       <c r="C175" t="n">
-        <v>28.58</v>
+        <v>29.01</v>
       </c>
       <c r="D175" t="n">
-        <v>28.58</v>
+        <v>29.71</v>
       </c>
       <c r="E175" t="n">
-        <v>28.22</v>
+        <v>29.01</v>
       </c>
       <c r="F175" t="n">
-        <v>1267.5</v>
+        <v>7470.8186</v>
       </c>
       <c r="G175" t="n">
-        <v>-1071015.302951756</v>
+        <v>445030.0439197207</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6802,7 +7364,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6811,28 +7375,29 @@
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.24</v>
+        <v>28.86</v>
       </c>
       <c r="C176" t="n">
-        <v>28.24</v>
+        <v>28.64</v>
       </c>
       <c r="D176" t="n">
-        <v>28.24</v>
+        <v>28.86</v>
       </c>
       <c r="E176" t="n">
-        <v>28.24</v>
+        <v>28.64</v>
       </c>
       <c r="F176" t="n">
-        <v>1625.4057</v>
+        <v>4016.1122</v>
       </c>
       <c r="G176" t="n">
-        <v>-1072640.708651756</v>
+        <v>441013.9317197207</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6841,7 +7406,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6850,28 +7417,29 @@
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>28.25</v>
+        <v>28.81</v>
       </c>
       <c r="C177" t="n">
-        <v>28.97</v>
+        <v>29.44</v>
       </c>
       <c r="D177" t="n">
-        <v>28.97</v>
+        <v>29.44</v>
       </c>
       <c r="E177" t="n">
-        <v>28.03</v>
+        <v>28.81</v>
       </c>
       <c r="F177" t="n">
-        <v>133000</v>
+        <v>35.5746</v>
       </c>
       <c r="G177" t="n">
-        <v>-939640.7086517564</v>
+        <v>441049.5063197207</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6880,7 +7448,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6889,28 +7459,29 @@
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>28.21</v>
+        <v>29.44</v>
       </c>
       <c r="C178" t="n">
-        <v>28.97</v>
+        <v>29.72</v>
       </c>
       <c r="D178" t="n">
-        <v>28.97</v>
+        <v>29.72</v>
       </c>
       <c r="E178" t="n">
-        <v>28.05</v>
+        <v>29.44</v>
       </c>
       <c r="F178" t="n">
-        <v>760000</v>
+        <v>5019</v>
       </c>
       <c r="G178" t="n">
-        <v>-939640.7086517564</v>
+        <v>446068.5063197207</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6919,7 +7490,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,28 +7501,29 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>28.07</v>
+        <v>29.01</v>
       </c>
       <c r="C179" t="n">
-        <v>28.58</v>
+        <v>29.72</v>
       </c>
       <c r="D179" t="n">
-        <v>28.58</v>
+        <v>29.72</v>
       </c>
       <c r="E179" t="n">
-        <v>28.07</v>
+        <v>29.01</v>
       </c>
       <c r="F179" t="n">
-        <v>1322.1</v>
+        <v>1294.8</v>
       </c>
       <c r="G179" t="n">
-        <v>-940962.8086517564</v>
+        <v>446068.5063197207</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6958,7 +7532,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,28 +7543,29 @@
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>28.58</v>
+        <v>29.01</v>
       </c>
       <c r="C180" t="n">
-        <v>28.97</v>
+        <v>29.69</v>
       </c>
       <c r="D180" t="n">
-        <v>28.97</v>
+        <v>29.69</v>
       </c>
       <c r="E180" t="n">
-        <v>28.58</v>
+        <v>29.01</v>
       </c>
       <c r="F180" t="n">
-        <v>295151.7888</v>
+        <v>1301.3</v>
       </c>
       <c r="G180" t="n">
-        <v>-645811.0198517564</v>
+        <v>444767.2063197207</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6997,7 +7574,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7006,28 +7585,29 @@
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>28.31</v>
+        <v>29.69</v>
       </c>
       <c r="C181" t="n">
-        <v>29.01</v>
+        <v>30.17</v>
       </c>
       <c r="D181" t="n">
-        <v>30.43</v>
+        <v>30.17</v>
       </c>
       <c r="E181" t="n">
-        <v>28.05</v>
+        <v>29.69</v>
       </c>
       <c r="F181" t="n">
-        <v>760922.2556</v>
+        <v>30000</v>
       </c>
       <c r="G181" t="n">
-        <v>115111.2357482436</v>
+        <v>474767.2063197207</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7036,7 +7616,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>28.97</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7045,1644 +7627,7 @@
       <c r="M181" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C182" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="D182" t="n">
-        <v>30.43</v>
-      </c>
-      <c r="E182" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F182" t="n">
-        <v>31442.78017147708</v>
-      </c>
-      <c r="G182" t="n">
-        <v>146554.0159197207</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="C183" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="D183" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="E183" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="F183" t="n">
-        <v>16609.6004</v>
-      </c>
-      <c r="G183" t="n">
-        <v>129944.4155197207</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="C184" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D184" t="n">
-        <v>28.71</v>
-      </c>
-      <c r="E184" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F184" t="n">
-        <v>25441.9362</v>
-      </c>
-      <c r="G184" t="n">
-        <v>104502.4793197207</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="C185" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="D185" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="E185" t="n">
-        <v>28.31</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2099.8403</v>
-      </c>
-      <c r="G185" t="n">
-        <v>102402.6390197207</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="C186" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="D186" t="n">
-        <v>29.56</v>
-      </c>
-      <c r="E186" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="F186" t="n">
-        <v>278357.9326</v>
-      </c>
-      <c r="G186" t="n">
-        <v>380760.5716197207</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="D187" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F187" t="n">
-        <v>33708.0257</v>
-      </c>
-      <c r="G187" t="n">
-        <v>347052.5459197207</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C188" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="D188" t="n">
-        <v>29.38</v>
-      </c>
-      <c r="E188" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1301.3</v>
-      </c>
-      <c r="G188" t="n">
-        <v>348353.8459197207</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C189" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D189" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="E189" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F189" t="n">
-        <v>14843.894</v>
-      </c>
-      <c r="G189" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C190" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D190" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E190" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F190" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G190" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="C191" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="D191" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="E191" t="n">
-        <v>28.99</v>
-      </c>
-      <c r="F191" t="n">
-        <v>22</v>
-      </c>
-      <c r="G191" t="n">
-        <v>333531.9519197207</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="C192" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="D192" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="E192" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="F192" t="n">
-        <v>22</v>
-      </c>
-      <c r="G192" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C193" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="D193" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="E193" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1293.5</v>
-      </c>
-      <c r="G193" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C194" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D194" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E194" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>23</v>
-      </c>
-      <c r="G194" t="n">
-        <v>333486.9519197207</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="C195" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="D195" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="E195" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="F195" t="n">
-        <v>24.778</v>
-      </c>
-      <c r="G195" t="n">
-        <v>333462.1739197207</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="C196" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="D196" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="E196" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="F196" t="n">
-        <v>33</v>
-      </c>
-      <c r="G196" t="n">
-        <v>333495.1739197207</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="C197" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="D197" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="E197" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="F197" t="n">
-        <v>34.7889</v>
-      </c>
-      <c r="G197" t="n">
-        <v>333495.1739197207</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C198" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="D198" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="E198" t="n">
-        <v>28.59</v>
-      </c>
-      <c r="F198" t="n">
-        <v>24663.1732</v>
-      </c>
-      <c r="G198" t="n">
-        <v>308832.0007197207</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="C199" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="D199" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="E199" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="F199" t="n">
-        <v>46</v>
-      </c>
-      <c r="G199" t="n">
-        <v>308832.0007197207</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="C200" t="n">
-        <v>29</v>
-      </c>
-      <c r="D200" t="n">
-        <v>29</v>
-      </c>
-      <c r="E200" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="F200" t="n">
-        <v>30691.196</v>
-      </c>
-      <c r="G200" t="n">
-        <v>339523.1967197207</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>28.87</v>
-      </c>
-      <c r="C201" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="D201" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="E201" t="n">
-        <v>28.58</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1319.7</v>
-      </c>
-      <c r="G201" t="n">
-        <v>338203.4967197207</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D202" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E202" t="n">
-        <v>28.76</v>
-      </c>
-      <c r="F202" t="n">
-        <v>6246.912</v>
-      </c>
-      <c r="G202" t="n">
-        <v>331956.5847197207</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="C203" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D203" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E203" t="n">
-        <v>28.65</v>
-      </c>
-      <c r="F203" t="n">
-        <v>16650.2017</v>
-      </c>
-      <c r="G203" t="n">
-        <v>348606.7864197207</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>28.73</v>
-      </c>
-      <c r="C204" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D204" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="E204" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1517.8651</v>
-      </c>
-      <c r="G204" t="n">
-        <v>347088.9213197207</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C205" t="n">
-        <v>29.06</v>
-      </c>
-      <c r="D205" t="n">
-        <v>29.06</v>
-      </c>
-      <c r="E205" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F205" t="n">
-        <v>70</v>
-      </c>
-      <c r="G205" t="n">
-        <v>347158.9213197207</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C206" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D206" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="E206" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F206" t="n">
-        <v>108</v>
-      </c>
-      <c r="G206" t="n">
-        <v>347050.9213197207</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="C207" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="D207" t="n">
-        <v>29.09</v>
-      </c>
-      <c r="E207" t="n">
-        <v>29.07</v>
-      </c>
-      <c r="F207" t="n">
-        <v>2422</v>
-      </c>
-      <c r="G207" t="n">
-        <v>349472.9213197207</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C208" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="D208" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E208" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="F208" t="n">
-        <v>111744.0443</v>
-      </c>
-      <c r="G208" t="n">
-        <v>237728.8770197207</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="C209" t="n">
-        <v>29.06</v>
-      </c>
-      <c r="D209" t="n">
-        <v>29.06</v>
-      </c>
-      <c r="E209" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="F209" t="n">
-        <v>190000</v>
-      </c>
-      <c r="G209" t="n">
-        <v>427728.8770197207</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="C210" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D210" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E210" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="F210" t="n">
-        <v>35.5629</v>
-      </c>
-      <c r="G210" t="n">
-        <v>427764.4399197207</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>29</v>
-      </c>
-      <c r="C211" t="n">
-        <v>29</v>
-      </c>
-      <c r="D211" t="n">
-        <v>29</v>
-      </c>
-      <c r="E211" t="n">
-        <v>29</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2105.7234</v>
-      </c>
-      <c r="G211" t="n">
-        <v>425658.7165197207</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>29</v>
-      </c>
-      <c r="C212" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="D212" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="E212" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1292.2</v>
-      </c>
-      <c r="G212" t="n">
-        <v>426950.9165197207</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="C213" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="D213" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="E213" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="F213" t="n">
-        <v>98000</v>
-      </c>
-      <c r="G213" t="n">
-        <v>328950.9165197207</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C214" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="D214" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="E214" t="n">
-        <v>28.49</v>
-      </c>
-      <c r="F214" t="n">
-        <v>122422.646</v>
-      </c>
-      <c r="G214" t="n">
-        <v>451373.5625197207</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>29.81</v>
-      </c>
-      <c r="C215" t="n">
-        <v>30.27</v>
-      </c>
-      <c r="D215" t="n">
-        <v>30.27</v>
-      </c>
-      <c r="E215" t="n">
-        <v>29.81</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G215" t="n">
-        <v>453773.5625197207</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="C216" t="n">
-        <v>30</v>
-      </c>
-      <c r="D216" t="n">
-        <v>30</v>
-      </c>
-      <c r="E216" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1272.7</v>
-      </c>
-      <c r="G216" t="n">
-        <v>452500.8625197207</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="C217" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="D217" t="n">
-        <v>29.71</v>
-      </c>
-      <c r="E217" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F217" t="n">
-        <v>7470.8186</v>
-      </c>
-      <c r="G217" t="n">
-        <v>445030.0439197207</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="C218" t="n">
-        <v>28.64</v>
-      </c>
-      <c r="D218" t="n">
-        <v>28.86</v>
-      </c>
-      <c r="E218" t="n">
-        <v>28.64</v>
-      </c>
-      <c r="F218" t="n">
-        <v>4016.1122</v>
-      </c>
-      <c r="G218" t="n">
-        <v>441013.9317197207</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="C219" t="n">
-        <v>29.44</v>
-      </c>
-      <c r="D219" t="n">
-        <v>29.44</v>
-      </c>
-      <c r="E219" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="F219" t="n">
-        <v>35.5746</v>
-      </c>
-      <c r="G219" t="n">
-        <v>441049.5063197207</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>29.44</v>
-      </c>
-      <c r="C220" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="D220" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="E220" t="n">
-        <v>29.44</v>
-      </c>
-      <c r="F220" t="n">
-        <v>5019</v>
-      </c>
-      <c r="G220" t="n">
-        <v>446068.5063197207</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C221" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="D221" t="n">
-        <v>29.72</v>
-      </c>
-      <c r="E221" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1294.8</v>
-      </c>
-      <c r="G221" t="n">
-        <v>446068.5063197207</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="C222" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="D222" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="E222" t="n">
-        <v>29.01</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1301.3</v>
-      </c>
-      <c r="G222" t="n">
-        <v>444767.2063197207</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="C223" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="D223" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="E223" t="n">
-        <v>29.69</v>
-      </c>
-      <c r="F223" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G223" t="n">
-        <v>474767.2063197207</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest FCT.xlsx
+++ b/BackTest/2020-01-23 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-19565.5499369971</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37089.8867369971</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-34262.9534369971</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-34254.7534369971</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-62263.4462369971</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-39460.6793369971</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-39439.6572369971</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-39539.6572369971</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-12229.43361035163</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36250.16141035163</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-28526.48481035163</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>16473.51518964837</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>13900.06788964837</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-289200.7941103516</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-317065.9659103516</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-317028.9659103516</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-347597.514999287</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-383616.762599287</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-390179.590899287</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-300179.590899287</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-520179.590899287</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-522380.0976992869</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-523475.0346992869</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-544419.8034992869</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-544396.6290992869</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-544413.6290992869</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-556728.6290992869</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-556728.6290992869</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-592363.2519992868</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-585905.3895517569</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-588905.3895517569</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-592800.555351757</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-590999.9108517569</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-590999.9108517569</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-589637.5108517569</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-590997.7632517569</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-591893.9953517569</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-590561.4953517569</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-591906.9953517569</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-591906.9953517569</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-601906.9953517569</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-601885.132051757</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-603669.4701517569</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-664407.3456517569</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-664385.6184517569</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-664385.6184517569</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-687543.3588517569</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-743061.2455517569</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-743024.5280517569</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-707024.5280517569</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-707024.5280517569</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-736545.9999517569</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-734303.1999517569</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-734303.1999517569</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-811231.1656517568</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1045853.876351757</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1045853.876351757</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1034223.197151756</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1042946.298851756</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1209272.952251757</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1612427.536751756</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1614637.496651756</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5203,10 +5203,14 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>28.3</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5236,11 +5240,19 @@
         <v>-1412998.710151756</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5281,19 @@
         <v>-1383803.021251756</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="J148" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,10 +5322,14 @@
         <v>-1383803.021251756</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J149" t="n">
+        <v>28.97</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5335,11 +5359,19 @@
         <v>-1399707.760051756</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J150" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5400,19 @@
         <v>-1399707.760051756</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J151" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5441,19 @@
         <v>-1401309.459351756</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J152" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5482,19 @@
         <v>-1401950.260351756</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="J153" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5523,19 @@
         <v>-1396757.368351756</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="J154" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5564,19 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J155" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5605,19 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J156" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5646,19 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J157" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5687,19 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J158" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5728,19 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J159" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5769,19 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J160" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5810,19 @@
         <v>-1324086.125851756</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="J161" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5851,19 @@
         <v>-1324086.125851756</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J162" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5892,19 @@
         <v>-1324086.125851756</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J163" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5933,19 @@
         <v>-1325100.926851756</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J164" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5974,19 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="J165" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6015,19 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J166" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6056,19 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J167" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6097,19 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J168" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6138,19 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J169" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6179,19 @@
         <v>-1315492.051751756</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J170" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6220,19 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="J171" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6261,19 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J172" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6302,19 @@
         <v>-1321232.241151756</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J173" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6343,19 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J174" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6384,19 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J175" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6425,19 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J176" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6466,19 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J177" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6507,19 @@
         <v>-1315047.158551756</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J178" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6548,19 @@
         <v>-1325047.158551756</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J179" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6589,19 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J180" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6630,19 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J181" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +6671,19 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J182" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6712,19 @@
         <v>-1364405.159051756</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J183" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,15 +6753,19 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>28.6</v>
       </c>
       <c r="J184" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,17 +6794,17 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>28.5</v>
       </c>
       <c r="J185" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6535,13 +6835,13 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>28.5</v>
       </c>
       <c r="J186" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6576,13 +6876,13 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>28.97</v>
       </c>
       <c r="J187" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6617,13 +6917,13 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>28.97</v>
       </c>
       <c r="J188" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6658,13 +6958,13 @@
         <v>-1145433.295851756</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>28.97</v>
       </c>
       <c r="J189" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6699,13 +6999,13 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>28.38</v>
       </c>
       <c r="J190" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6740,13 +7040,13 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>28.97</v>
       </c>
       <c r="J191" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6781,13 +7081,13 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>28.97</v>
       </c>
       <c r="J192" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6822,13 +7122,13 @@
         <v>-1158517.824351756</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>28.97</v>
       </c>
       <c r="J193" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -6863,13 +7163,13 @@
         <v>-1155227.097351756</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>28.5</v>
       </c>
       <c r="J194" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6904,13 +7204,13 @@
         <v>-829175.2547517562</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>28.96</v>
       </c>
       <c r="J195" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6945,13 +7245,13 @@
         <v>-830515.5547517563</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>28.97</v>
       </c>
       <c r="J196" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6986,13 +7286,13 @@
         <v>-832511.7478517563</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>28.89</v>
       </c>
       <c r="J197" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7027,13 +7327,13 @@
         <v>-830682.3556517563</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>28.43</v>
       </c>
       <c r="J198" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7068,13 +7368,13 @@
         <v>-839814.7774517563</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>28.89</v>
       </c>
       <c r="J199" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7109,13 +7409,13 @@
         <v>-839814.7774517563</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>28.88</v>
       </c>
       <c r="J200" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7150,13 +7450,13 @@
         <v>-687814.7774517563</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>28.88</v>
       </c>
       <c r="J201" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7191,13 +7491,13 @@
         <v>-1069747.802951756</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>28.97</v>
       </c>
       <c r="J202" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7232,13 +7532,11 @@
         <v>-1069747.802951756</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>28.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7273,13 +7571,13 @@
         <v>-1071015.302951756</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>28.96</v>
       </c>
       <c r="J204" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7314,13 +7612,11 @@
         <v>-1072640.708651756</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>28.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7355,13 +7651,13 @@
         <v>-939640.7086517564</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>28.24</v>
       </c>
       <c r="J206" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7396,13 +7692,13 @@
         <v>-939640.7086517564</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>28.97</v>
       </c>
       <c r="J207" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7437,13 +7733,11 @@
         <v>-940962.8086517564</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7478,13 +7772,11 @@
         <v>-645811.0198517564</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>28.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7523,7 +7815,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7562,7 +7854,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7601,7 +7893,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7636,13 +7928,11 @@
         <v>104502.4793197207</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>28.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7681,7 +7971,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7716,13 +8006,11 @@
         <v>380760.5716197207</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>28.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7757,13 +8045,11 @@
         <v>347052.5459197207</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>29.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7798,13 +8084,11 @@
         <v>348353.8459197207</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>29.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7839,13 +8123,11 @@
         <v>333509.9519197207</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>29.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7884,7 +8166,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7923,7 +8205,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7962,7 +8244,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8001,7 +8283,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8040,7 +8322,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8079,7 +8361,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8118,7 +8400,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8157,7 +8439,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8196,7 +8478,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8235,7 +8517,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8274,7 +8556,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8313,7 +8595,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8352,7 +8634,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8391,7 +8673,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8430,7 +8712,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8469,7 +8751,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8508,7 +8790,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8547,7 +8829,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8586,7 +8868,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8625,7 +8907,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8664,7 +8946,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8703,7 +8985,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8742,7 +9024,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8781,7 +9063,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8820,7 +9102,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8859,7 +9141,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8898,7 +9180,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8937,7 +9219,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8976,7 +9258,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9015,7 +9297,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9054,7 +9336,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9093,7 +9375,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9132,7 +9414,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9171,7 +9453,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>28.6</v>
+        <v>28.97</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9184,6 +9466,6 @@
       <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FCT.xlsx
+++ b/BackTest/2020-01-23 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-19565.5499369971</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37089.8867369971</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-34262.9534369971</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-34254.7534369971</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-62263.4462369971</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-39460.6793369971</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-39439.6572369971</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-39539.6572369971</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-12229.43361035163</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36250.16141035163</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-28526.48481035163</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>16473.51518964837</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>13900.06788964837</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-289200.7941103516</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-317065.9659103516</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-317028.9659103516</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-347597.514999287</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-383616.762599287</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-390179.590899287</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-300179.590899287</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-520179.590899287</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-522380.0976992869</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-523475.0346992869</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-544419.8034992869</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-544396.6290992869</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-544413.6290992869</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-556728.6290992869</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-556728.6290992869</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-592363.2519992868</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-585905.3895517569</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-588905.3895517569</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-592800.555351757</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-590999.9108517569</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-590999.9108517569</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-589637.5108517569</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-590997.7632517569</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-591893.9953517569</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-590561.4953517569</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-591906.9953517569</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-591906.9953517569</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-601906.9953517569</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-601885.132051757</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-600421.3320517569</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-603669.4701517569</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-664407.3456517569</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-664385.6184517569</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-664385.6184517569</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-687543.3588517569</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-743061.2455517569</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-743024.5280517569</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-707024.5280517569</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-707024.5280517569</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-736545.9999517569</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-735545.9999517569</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-734303.1999517569</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -5137,11 +5137,17 @@
         <v>-1413099.716551756</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>28.58</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5176,17 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>28.58</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5208,10 +5220,12 @@
       <c r="I146" t="n">
         <v>28.3</v>
       </c>
-      <c r="J146" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5245,12 +5259,10 @@
       <c r="I147" t="n">
         <v>28.3</v>
       </c>
-      <c r="J147" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5286,12 +5298,10 @@
       <c r="I148" t="n">
         <v>28.58</v>
       </c>
-      <c r="J148" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5322,15 +5332,15 @@
         <v>-1383803.021251756</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J149" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5359,17 +5369,13 @@
         <v>-1399707.760051756</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J150" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5400,17 +5406,13 @@
         <v>-1399707.760051756</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J151" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -5441,17 +5443,13 @@
         <v>-1401309.459351756</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J152" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -5482,14 +5480,10 @@
         <v>-1401950.260351756</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="J153" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5523,14 +5517,10 @@
         <v>-1396757.368351756</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J154" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,14 +5554,10 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J155" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,14 +5591,10 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J156" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,14 +5628,10 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J157" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5687,14 +5665,10 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J158" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5728,14 +5702,10 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J159" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5769,14 +5739,10 @@
         <v>-1396657.368351756</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J160" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,14 +5776,10 @@
         <v>-1324086.125851756</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J161" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5851,14 +5813,10 @@
         <v>-1324086.125851756</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J162" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,14 +5850,10 @@
         <v>-1324086.125851756</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J163" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,14 +5887,10 @@
         <v>-1325100.926851756</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J164" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5974,14 +5924,10 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="J165" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6015,14 +5961,10 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J166" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,14 +5998,10 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J167" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,14 +6035,10 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J168" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,14 +6072,10 @@
         <v>-1315407.146551756</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J169" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6179,14 +6109,10 @@
         <v>-1315492.051751756</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J170" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6220,14 +6146,10 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="J171" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6261,14 +6183,10 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J172" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,14 +6220,10 @@
         <v>-1321232.241151756</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J173" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6343,14 +6257,10 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6384,14 +6294,10 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J175" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6425,14 +6331,10 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J176" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6466,14 +6368,10 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J177" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,14 +6405,10 @@
         <v>-1315047.158551756</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J178" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6548,14 +6442,10 @@
         <v>-1325047.158551756</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J179" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,14 +6479,10 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J180" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6630,14 +6516,10 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J181" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,14 +6553,10 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J182" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,14 +6590,10 @@
         <v>-1364405.159051756</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J183" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6753,14 +6627,10 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J184" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,14 +6664,10 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J185" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6835,14 +6701,10 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J186" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6876,14 +6738,10 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J187" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6917,14 +6775,10 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J188" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6958,14 +6812,10 @@
         <v>-1145433.295851756</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J189" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6999,14 +6849,10 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="J190" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7040,14 +6886,10 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J191" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7081,14 +6923,10 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J192" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7122,14 +6960,10 @@
         <v>-1158517.824351756</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J193" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,14 +6997,10 @@
         <v>-1155227.097351756</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J194" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7204,14 +7034,10 @@
         <v>-829175.2547517562</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J195" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7245,14 +7071,10 @@
         <v>-830515.5547517563</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J196" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,14 +7108,10 @@
         <v>-832511.7478517563</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J197" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,14 +7145,10 @@
         <v>-830682.3556517563</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="J198" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7368,14 +7182,10 @@
         <v>-839814.7774517563</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J199" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7409,14 +7219,10 @@
         <v>-839814.7774517563</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="J200" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7450,14 +7256,10 @@
         <v>-687814.7774517563</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="J201" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7491,14 +7293,10 @@
         <v>-1069747.802951756</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J202" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,9 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,14 +7367,10 @@
         <v>-1071015.302951756</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J204" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,9 +7407,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,14 +7441,10 @@
         <v>-939640.7086517564</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="J206" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7692,14 +7478,10 @@
         <v>-939640.7086517564</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="J207" t="n">
-        <v>28.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,9 +7518,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7775,9 +7555,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7814,9 +7592,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,9 +7629,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7892,9 +7666,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7931,9 +7703,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7970,9 +7740,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,9 +7777,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8048,9 +7814,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8087,9 +7851,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8126,9 +7888,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8165,9 +7925,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8204,9 +7962,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,9 +7999,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8282,9 +8036,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,9 +8073,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8360,9 +8110,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8399,9 +8147,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,9 +8184,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8477,9 +8221,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8516,9 +8258,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8555,9 +8295,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8594,9 +8332,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8633,9 +8369,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,9 +8406,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,9 +8443,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8750,9 +8480,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,9 +8517,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,9 +8554,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,9 +8591,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,9 +8628,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,9 +8665,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8984,9 +8702,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9023,9 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,9 +8776,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9101,9 +8813,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9140,9 +8850,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9176,20 +8884,16 @@
         <v>452500.8625197207</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>28.97</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -9215,17 +8919,11 @@
         <v>445030.0439197207</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9254,17 +8952,11 @@
         <v>441013.9317197207</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9296,14 +8988,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9335,14 +9021,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9374,14 +9054,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9413,14 +9087,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9452,20 +9120,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>28.97</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
       <c r="M252" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FCT.xlsx
+++ b/BackTest/2020-01-23 BackTest FCT.xlsx
@@ -451,7 +451,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-15768.4031369971</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-19565.5499369971</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-37089.8867369971</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-34262.9534369971</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-34254.7534369971</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-62263.4462369971</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-39460.6793369971</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-39439.6572369971</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-39539.6572369971</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-12229.43361035163</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-36250.16141035163</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-28626.48481035163</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-28526.48481035163</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>16473.51518964837</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>13900.06788964837</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>856.7962896483732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-289200.7941103516</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-317065.9659103516</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-317028.9659103516</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-374052.0499103516</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-330402.079699287</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-347597.514999287</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-383616.762599287</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-388969.1921992869</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-520179.590899287</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-522380.0976992869</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-523475.0346992869</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-544419.8034992869</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-556728.6290992869</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-592766.2945517569</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -5137,17 +5137,11 @@
         <v>-1413099.716551756</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>28.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5176,17 +5170,11 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>28.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5215,17 +5203,11 @@
         <v>-1413573.716551756</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5254,17 +5236,11 @@
         <v>-1412998.710151756</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5293,17 +5269,11 @@
         <v>-1383803.021251756</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>28.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5336,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5373,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5410,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5447,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5484,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5521,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5558,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5595,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5669,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5706,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5743,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5780,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5817,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5854,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5891,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5928,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6002,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6039,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6076,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6113,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6146,13 +6028,15 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>28.61</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L171" t="n">
@@ -6183,9 +6067,11 @@
         <v>-1314193.351751756</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6220,9 +6106,11 @@
         <v>-1321232.241151756</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6257,9 +6145,11 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6294,9 +6184,11 @@
         <v>-1319873.741151756</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6331,9 +6223,11 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6368,9 +6262,11 @@
         <v>-1321233.994551756</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6405,9 +6301,11 @@
         <v>-1315047.158551756</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6442,9 +6340,11 @@
         <v>-1325047.158551756</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6479,9 +6379,11 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6516,9 +6418,11 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6553,9 +6457,11 @@
         <v>-1323611.958551756</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -6590,9 +6496,11 @@
         <v>-1364405.159051756</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6627,9 +6535,11 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6664,9 +6574,11 @@
         <v>-1394405.159051756</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -6701,9 +6613,11 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6738,9 +6652,11 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6775,9 +6691,11 @@
         <v>-1144601.059051756</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6812,9 +6730,11 @@
         <v>-1145433.295851756</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -6849,9 +6769,11 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>28.38</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -6886,9 +6808,11 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -6923,9 +6847,11 @@
         <v>-1138122.620951756</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -6960,9 +6886,11 @@
         <v>-1158517.824351756</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -6997,9 +6925,11 @@
         <v>-1155227.097351756</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7034,9 +6964,11 @@
         <v>-829175.2547517562</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>28.96</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7071,9 +7003,11 @@
         <v>-830515.5547517563</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7108,9 +7042,11 @@
         <v>-832511.7478517563</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>28.89</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7145,9 +7081,11 @@
         <v>-830682.3556517563</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>28.43</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7182,9 +7120,11 @@
         <v>-839814.7774517563</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>28.89</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7256,9 +7196,11 @@
         <v>-687814.7774517563</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>28.88</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7441,9 +7383,11 @@
         <v>-939640.7086517564</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>28.24</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -8884,16 +8828,18 @@
         <v>452500.8625197207</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -8919,11 +8865,15 @@
         <v>445030.0439197207</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8952,11 +8902,15 @@
         <v>441013.9317197207</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8989,7 +8943,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9022,7 +8980,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9055,7 +9017,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9088,7 +9054,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9121,7 +9091,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest FCT.xlsx
+++ b/BackTest/2020-01-23 BackTest FCT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M252"/>
+  <dimension ref="A1:L252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>25313.993</v>
       </c>
       <c r="G2" t="n">
-        <v>-15768.4031369971</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10019.6955</v>
       </c>
       <c r="G3" t="n">
-        <v>-15768.4031369971</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3797.1468</v>
       </c>
       <c r="G4" t="n">
-        <v>-19565.5499369971</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>17524.3368</v>
       </c>
       <c r="G5" t="n">
-        <v>-37089.8867369971</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2826.9333</v>
       </c>
       <c r="G6" t="n">
-        <v>-34262.9534369971</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-34254.7534369971</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>28008.6928</v>
       </c>
       <c r="G8" t="n">
-        <v>-62263.4462369971</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>22802.7669</v>
       </c>
       <c r="G9" t="n">
-        <v>-39460.6793369971</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>21.0221</v>
       </c>
       <c r="G10" t="n">
-        <v>-39439.6572369971</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-39539.6572369971</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>27310.22362664547</v>
       </c>
       <c r="G12" t="n">
-        <v>-12229.43361035163</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>24020.7278</v>
       </c>
       <c r="G13" t="n">
-        <v>-36250.16141035163</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>7623.6766</v>
       </c>
       <c r="G14" t="n">
-        <v>-28626.48481035163</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>95</v>
       </c>
       <c r="G15" t="n">
-        <v>-28626.48481035163</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2281.3234</v>
       </c>
       <c r="G16" t="n">
-        <v>-28626.48481035163</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>-28526.48481035163</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>45000</v>
       </c>
       <c r="G18" t="n">
-        <v>16473.51518964837</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2573.4473</v>
       </c>
       <c r="G19" t="n">
-        <v>13900.06788964837</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>13043.2716</v>
       </c>
       <c r="G20" t="n">
-        <v>856.7962896483732</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>7453</v>
       </c>
       <c r="G21" t="n">
-        <v>856.7962896483732</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2083.7284</v>
       </c>
       <c r="G22" t="n">
-        <v>856.7962896483732</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>290057.5904</v>
       </c>
       <c r="G23" t="n">
-        <v>-289200.7941103516</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>27865.1718</v>
       </c>
       <c r="G24" t="n">
-        <v>-317065.9659103516</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>-317028.9659103516</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>57023.084</v>
       </c>
       <c r="G26" t="n">
-        <v>-374052.0499103516</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>55497.1279</v>
       </c>
       <c r="G27" t="n">
-        <v>-374052.0499103516</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>43649.97021106465</v>
       </c>
       <c r="G28" t="n">
-        <v>-330402.079699287</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>9672.871800000001</v>
       </c>
       <c r="G29" t="n">
-        <v>-330402.079699287</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>17195.4353</v>
       </c>
       <c r="G30" t="n">
-        <v>-347597.514999287</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>36019.2476</v>
       </c>
       <c r="G31" t="n">
-        <v>-383616.762599287</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>5352.4296</v>
       </c>
       <c r="G32" t="n">
-        <v>-388969.1921992869</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3241.682</v>
       </c>
       <c r="G33" t="n">
-        <v>-388969.1921992869</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>30</v>
       </c>
       <c r="G34" t="n">
-        <v>-388969.1921992869</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>32058.1404</v>
       </c>
       <c r="G35" t="n">
-        <v>-388969.1921992869</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1210.3987</v>
       </c>
       <c r="G36" t="n">
-        <v>-390179.590899287</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>90000</v>
       </c>
       <c r="G37" t="n">
-        <v>-300179.590899287</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>220000</v>
       </c>
       <c r="G38" t="n">
-        <v>-520179.590899287</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2200.5068</v>
       </c>
       <c r="G39" t="n">
-        <v>-522380.0976992869</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1094.937</v>
       </c>
       <c r="G40" t="n">
-        <v>-523475.0346992869</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>20944.7688</v>
       </c>
       <c r="G41" t="n">
-        <v>-544419.8034992869</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>23.1744</v>
       </c>
       <c r="G42" t="n">
-        <v>-544396.6290992869</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>17</v>
       </c>
       <c r="G43" t="n">
-        <v>-544413.6290992869</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>12315</v>
       </c>
       <c r="G44" t="n">
-        <v>-556728.6290992869</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>43.1343</v>
       </c>
       <c r="G45" t="n">
-        <v>-556728.6290992869</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>35634.6229</v>
       </c>
       <c r="G46" t="n">
-        <v>-592363.2519992868</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>6457.862447529867</v>
       </c>
       <c r="G47" t="n">
-        <v>-585905.3895517569</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>3000</v>
       </c>
       <c r="G48" t="n">
-        <v>-588905.3895517569</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>3860.905</v>
       </c>
       <c r="G49" t="n">
-        <v>-592766.2945517569</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>11344.0055</v>
       </c>
       <c r="G50" t="n">
-        <v>-592766.2945517569</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>34.2608</v>
       </c>
       <c r="G51" t="n">
-        <v>-592800.555351757</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1800.6445</v>
       </c>
       <c r="G52" t="n">
-        <v>-590999.9108517569</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5791.1031</v>
       </c>
       <c r="G53" t="n">
-        <v>-590999.9108517569</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1362.4</v>
       </c>
       <c r="G54" t="n">
-        <v>-589637.5108517569</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1360.2524</v>
       </c>
       <c r="G55" t="n">
-        <v>-590997.7632517569</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>896.2320999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-591893.9953517569</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1332.5</v>
       </c>
       <c r="G57" t="n">
-        <v>-590561.4953517569</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1345.5</v>
       </c>
       <c r="G58" t="n">
-        <v>-591906.9953517569</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1366.3</v>
       </c>
       <c r="G59" t="n">
-        <v>-591906.9953517569</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>10000</v>
       </c>
       <c r="G60" t="n">
-        <v>-601906.9953517569</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>21.8633</v>
       </c>
       <c r="G61" t="n">
-        <v>-601885.132051757</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1463.8</v>
       </c>
       <c r="G62" t="n">
-        <v>-600421.3320517569</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>15296.36</v>
       </c>
       <c r="G63" t="n">
-        <v>-600421.3320517569</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1430</v>
       </c>
       <c r="G64" t="n">
-        <v>-600421.3320517569</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>-600421.3320517569</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3248.1381</v>
       </c>
       <c r="G66" t="n">
-        <v>-603669.4701517569</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>60737.8755</v>
       </c>
       <c r="G67" t="n">
-        <v>-664407.3456517569</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>21.7272</v>
       </c>
       <c r="G68" t="n">
-        <v>-664385.6184517569</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1415.7</v>
       </c>
       <c r="G69" t="n">
-        <v>-664385.6184517569</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>23157.7404</v>
       </c>
       <c r="G70" t="n">
-        <v>-687543.3588517569</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>55517.8867</v>
       </c>
       <c r="G71" t="n">
-        <v>-743061.2455517569</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>36.7175</v>
       </c>
       <c r="G72" t="n">
-        <v>-743024.5280517569</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>36000</v>
       </c>
       <c r="G73" t="n">
-        <v>-707024.5280517569</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1384.5</v>
       </c>
       <c r="G74" t="n">
-        <v>-707024.5280517569</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>29521.4719</v>
       </c>
       <c r="G75" t="n">
-        <v>-736545.9999517569</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>-735545.9999517569</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1345.5</v>
       </c>
       <c r="G77" t="n">
-        <v>-735545.9999517569</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1289.6</v>
       </c>
       <c r="G78" t="n">
-        <v>-735545.9999517569</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>8328.864</v>
       </c>
       <c r="G79" t="n">
-        <v>-735545.9999517569</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1242.8</v>
       </c>
       <c r="G80" t="n">
-        <v>-734303.1999517569</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1184.3</v>
       </c>
       <c r="G81" t="n">
-        <v>-734303.1999517569</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>11876.7295</v>
       </c>
       <c r="G82" t="n">
-        <v>-734303.1999517569</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10497.0735</v>
       </c>
       <c r="G83" t="n">
-        <v>-734303.1999517569</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>9918.4023</v>
       </c>
       <c r="G84" t="n">
-        <v>-734303.1999517569</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1175.2</v>
       </c>
       <c r="G85" t="n">
-        <v>-734303.1999517569</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>76927.9657</v>
       </c>
       <c r="G86" t="n">
-        <v>-811231.1656517568</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2425.5662</v>
       </c>
       <c r="G87" t="n">
-        <v>-813656.7318517568</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>3490.7725</v>
       </c>
       <c r="G88" t="n">
-        <v>-817147.5043517568</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>17.2828</v>
       </c>
       <c r="G89" t="n">
-        <v>-817130.2215517567</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1190.8</v>
       </c>
       <c r="G90" t="n">
-        <v>-817130.2215517567</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>-817130.2215517567</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2269.0526</v>
       </c>
       <c r="G92" t="n">
-        <v>-817130.2215517567</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1164.8</v>
       </c>
       <c r="G93" t="n">
-        <v>-817130.2215517567</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>13088.3096</v>
       </c>
       <c r="G94" t="n">
-        <v>-817130.2215517567</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>38280.0133</v>
       </c>
       <c r="G95" t="n">
-        <v>-778850.2082517567</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>25909.2322</v>
       </c>
       <c r="G96" t="n">
-        <v>-778850.2082517567</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>22698.2576</v>
       </c>
       <c r="G97" t="n">
-        <v>-801548.4658517567</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1237.6</v>
       </c>
       <c r="G98" t="n">
-        <v>-800310.8658517568</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>47737.8951</v>
       </c>
       <c r="G99" t="n">
-        <v>-848048.7609517567</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>17.4856</v>
       </c>
       <c r="G100" t="n">
-        <v>-848031.2753517567</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1224.6</v>
       </c>
       <c r="G101" t="n">
-        <v>-848031.2753517567</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>18.254</v>
       </c>
       <c r="G102" t="n">
-        <v>-848031.2753517567</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>34999.4697</v>
       </c>
       <c r="G103" t="n">
-        <v>-883030.7450517567</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>35017</v>
       </c>
       <c r="G104" t="n">
-        <v>-848013.7450517567</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1207.7</v>
       </c>
       <c r="G105" t="n">
-        <v>-849221.4450517567</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>35033.7381</v>
       </c>
       <c r="G106" t="n">
-        <v>-884255.1831517566</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1176.5</v>
       </c>
       <c r="G107" t="n">
-        <v>-884255.1831517566</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>5000</v>
       </c>
       <c r="G108" t="n">
-        <v>-889255.1831517566</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>12464.8464</v>
       </c>
       <c r="G109" t="n">
-        <v>-876790.3367517566</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>10000</v>
       </c>
       <c r="G110" t="n">
-        <v>-886790.3367517566</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>1626.1779</v>
       </c>
       <c r="G111" t="n">
-        <v>-885164.1588517566</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>77542.46060000001</v>
       </c>
       <c r="G112" t="n">
-        <v>-962706.6194517566</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>1138.8</v>
       </c>
       <c r="G113" t="n">
-        <v>-961567.8194517565</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>84770.79700000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-1046338.616451757</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>33216.0733</v>
       </c>
       <c r="G115" t="n">
-        <v>-1046338.616451757</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1158.3</v>
       </c>
       <c r="G116" t="n">
-        <v>-1045180.316451757</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>22000</v>
       </c>
       <c r="G117" t="n">
-        <v>-1067180.316451757</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>65354.4316</v>
       </c>
       <c r="G118" t="n">
-        <v>-1001825.884851757</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>32058.6077</v>
       </c>
       <c r="G119" t="n">
-        <v>-1033884.492551757</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>80766.6828</v>
       </c>
       <c r="G120" t="n">
-        <v>-953117.8097517566</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>29233.3172</v>
       </c>
       <c r="G121" t="n">
-        <v>-953117.8097517566</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>84587.62729999999</v>
       </c>
       <c r="G122" t="n">
-        <v>-1037705.437051757</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>45216.6037</v>
       </c>
       <c r="G123" t="n">
-        <v>-992488.8333517566</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>14961.0487</v>
       </c>
       <c r="G124" t="n">
-        <v>-1007449.882051757</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>8871.3182</v>
       </c>
       <c r="G125" t="n">
-        <v>-998578.5638517566</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>4720.2834</v>
       </c>
       <c r="G126" t="n">
-        <v>-998578.5638517566</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>9844.464900000001</v>
       </c>
       <c r="G127" t="n">
-        <v>-998578.5638517566</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>8865.767</v>
       </c>
       <c r="G128" t="n">
-        <v>-998578.5638517566</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>65354.4316</v>
       </c>
       <c r="G129" t="n">
-        <v>-1063932.995451757</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>18079.1191</v>
       </c>
       <c r="G130" t="n">
-        <v>-1045853.876351757</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>7254.8184</v>
       </c>
       <c r="G131" t="n">
-        <v>-1045853.876351757</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1240.2</v>
       </c>
       <c r="G132" t="n">
-        <v>-1045853.876351757</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>11630.6792</v>
       </c>
       <c r="G133" t="n">
-        <v>-1034223.197151756</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>8723.101699999999</v>
       </c>
       <c r="G134" t="n">
-        <v>-1042946.298851756</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>166326.6534</v>
       </c>
       <c r="G135" t="n">
-        <v>-1209272.952251757</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>31287.0993</v>
       </c>
       <c r="G136" t="n">
-        <v>-1240560.051551756</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>8107.3269</v>
       </c>
       <c r="G137" t="n">
-        <v>-1248667.378451756</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>30447.0103</v>
       </c>
       <c r="G138" t="n">
-        <v>-1279114.388751756</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>158617.1333</v>
       </c>
       <c r="G139" t="n">
-        <v>-1437731.522051756</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>174715.0147</v>
       </c>
       <c r="G140" t="n">
-        <v>-1612446.536751756</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>19</v>
       </c>
       <c r="G141" t="n">
-        <v>-1612427.536751756</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>2209.9599</v>
       </c>
       <c r="G142" t="n">
-        <v>-1614637.496651756</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>201537.7801</v>
       </c>
       <c r="G143" t="n">
-        <v>-1413099.716551756</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>1222</v>
       </c>
       <c r="G144" t="n">
-        <v>-1413099.716551756</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>474</v>
       </c>
       <c r="G145" t="n">
-        <v>-1413573.716551756</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>8970.888800000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-1413573.716551756</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,19 @@
         <v>575.0064</v>
       </c>
       <c r="G147" t="n">
-        <v>-1412998.710151756</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>28.3</v>
+      </c>
+      <c r="I147" t="n">
+        <v>28.3</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4827,23 @@
         <v>29195.6889</v>
       </c>
       <c r="G148" t="n">
-        <v>-1383803.021251756</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>28.58</v>
+      </c>
+      <c r="I148" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4865,23 @@
         <v>5642.0224</v>
       </c>
       <c r="G149" t="n">
-        <v>-1383803.021251756</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="I149" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4903,19 @@
         <v>15904.7388</v>
       </c>
       <c r="G150" t="n">
-        <v>-1399707.760051756</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="I150" t="n">
+        <v>28.97</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4937,23 @@
         <v>19621.5279</v>
       </c>
       <c r="G151" t="n">
-        <v>-1399707.760051756</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>28.96</v>
+      </c>
+      <c r="I151" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4975,23 @@
         <v>1601.6993</v>
       </c>
       <c r="G152" t="n">
-        <v>-1401309.459351756</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>28.96</v>
+      </c>
+      <c r="I152" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5013,23 @@
         <v>640.801</v>
       </c>
       <c r="G153" t="n">
-        <v>-1401950.260351756</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>28.95</v>
+      </c>
+      <c r="I153" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5051,23 @@
         <v>5192.892</v>
       </c>
       <c r="G154" t="n">
-        <v>-1396757.368351756</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>28.89</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5089,23 @@
         <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>-1396657.368351756</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>28.9</v>
+      </c>
+      <c r="I155" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5127,23 @@
         <v>8768.210999999999</v>
       </c>
       <c r="G156" t="n">
-        <v>-1396657.368351756</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>28.96</v>
+      </c>
+      <c r="I156" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5165,21 @@
         <v>4102.9781</v>
       </c>
       <c r="G157" t="n">
-        <v>-1396657.368351756</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5201,21 @@
         <v>1254.5</v>
       </c>
       <c r="G158" t="n">
-        <v>-1396657.368351756</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5237,21 @@
         <v>20</v>
       </c>
       <c r="G159" t="n">
-        <v>-1396657.368351756</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5273,21 @@
         <v>39578.1086</v>
       </c>
       <c r="G160" t="n">
-        <v>-1396657.368351756</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5309,21 @@
         <v>72571.24249999999</v>
       </c>
       <c r="G161" t="n">
-        <v>-1324086.125851756</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5345,21 @@
         <v>1297.4</v>
       </c>
       <c r="G162" t="n">
-        <v>-1324086.125851756</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5381,21 @@
         <v>5750.2653</v>
       </c>
       <c r="G163" t="n">
-        <v>-1324086.125851756</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5417,21 @@
         <v>1014.801</v>
       </c>
       <c r="G164" t="n">
-        <v>-1325100.926851756</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5453,21 @@
         <v>9693.7803</v>
       </c>
       <c r="G165" t="n">
-        <v>-1315407.146551756</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5489,21 @@
         <v>1309.1</v>
       </c>
       <c r="G166" t="n">
-        <v>-1315407.146551756</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5525,21 @@
         <v>7313.7514</v>
       </c>
       <c r="G167" t="n">
-        <v>-1315407.146551756</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5561,21 @@
         <v>91851.61870000001</v>
       </c>
       <c r="G168" t="n">
-        <v>-1315407.146551756</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5597,21 @@
         <v>1288.3</v>
       </c>
       <c r="G169" t="n">
-        <v>-1315407.146551756</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5633,21 @@
         <v>84.90519999999999</v>
       </c>
       <c r="G170" t="n">
-        <v>-1315492.051751756</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,24 +5669,21 @@
         <v>1298.7</v>
       </c>
       <c r="G171" t="n">
-        <v>-1314193.351751756</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>28.61</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6064,24 +5705,21 @@
         <v>320.6123</v>
       </c>
       <c r="G172" t="n">
-        <v>-1314193.351751756</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
         <v>28.97</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6103,24 +5741,21 @@
         <v>7038.8894</v>
       </c>
       <c r="G173" t="n">
-        <v>-1321232.241151756</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
         <v>28.97</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6142,24 +5777,21 @@
         <v>1358.5</v>
       </c>
       <c r="G174" t="n">
-        <v>-1319873.741151756</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6181,24 +5813,21 @@
         <v>4941.0136</v>
       </c>
       <c r="G175" t="n">
-        <v>-1319873.741151756</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6220,24 +5849,21 @@
         <v>1360.2534</v>
       </c>
       <c r="G176" t="n">
-        <v>-1321233.994551756</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6259,24 +5885,21 @@
         <v>1360.2535</v>
       </c>
       <c r="G177" t="n">
-        <v>-1321233.994551756</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6298,24 +5921,21 @@
         <v>6186.836</v>
       </c>
       <c r="G178" t="n">
-        <v>-1315047.158551756</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6337,24 +5957,21 @@
         <v>10000</v>
       </c>
       <c r="G179" t="n">
-        <v>-1325047.158551756</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6376,24 +5993,21 @@
         <v>1435.2</v>
       </c>
       <c r="G180" t="n">
-        <v>-1323611.958551756</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6415,24 +6029,21 @@
         <v>55.3812</v>
       </c>
       <c r="G181" t="n">
-        <v>-1323611.958551756</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6454,24 +6065,21 @@
         <v>9293.6463</v>
       </c>
       <c r="G182" t="n">
-        <v>-1323611.958551756</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6493,24 +6101,21 @@
         <v>40793.2005</v>
       </c>
       <c r="G183" t="n">
-        <v>-1364405.159051756</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6532,24 +6137,21 @@
         <v>30000</v>
       </c>
       <c r="G184" t="n">
-        <v>-1394405.159051756</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6571,24 +6173,21 @@
         <v>142961.8869</v>
       </c>
       <c r="G185" t="n">
-        <v>-1394405.159051756</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6610,24 +6209,21 @@
         <v>249804.1</v>
       </c>
       <c r="G186" t="n">
-        <v>-1144601.059051756</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6649,24 +6245,21 @@
         <v>68000</v>
       </c>
       <c r="G187" t="n">
-        <v>-1144601.059051756</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
         <v>28.97</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6688,24 +6281,21 @@
         <v>6029.5256</v>
       </c>
       <c r="G188" t="n">
-        <v>-1144601.059051756</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
         <v>28.97</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6727,24 +6317,21 @@
         <v>832.2368</v>
       </c>
       <c r="G189" t="n">
-        <v>-1145433.295851756</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
         <v>28.97</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6766,24 +6353,21 @@
         <v>7310.6749</v>
       </c>
       <c r="G190" t="n">
-        <v>-1138122.620951756</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6805,24 +6389,21 @@
         <v>1449.5</v>
       </c>
       <c r="G191" t="n">
-        <v>-1138122.620951756</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
         <v>28.97</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6844,24 +6425,21 @@
         <v>33708.0257</v>
       </c>
       <c r="G192" t="n">
-        <v>-1138122.620951756</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
         <v>28.97</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6883,24 +6461,21 @@
         <v>20395.2034</v>
       </c>
       <c r="G193" t="n">
-        <v>-1158517.824351756</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
         <v>28.97</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6922,24 +6497,21 @@
         <v>3290.727</v>
       </c>
       <c r="G194" t="n">
-        <v>-1155227.097351756</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6961,24 +6533,21 @@
         <v>326051.8426</v>
       </c>
       <c r="G195" t="n">
-        <v>-829175.2547517562</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7000,24 +6569,21 @@
         <v>1340.3</v>
       </c>
       <c r="G196" t="n">
-        <v>-830515.5547517563</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
         <v>28.97</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7039,24 +6605,21 @@
         <v>1996.1931</v>
       </c>
       <c r="G197" t="n">
-        <v>-832511.7478517563</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7078,24 +6641,21 @@
         <v>1829.3922</v>
       </c>
       <c r="G198" t="n">
-        <v>-830682.3556517563</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>28.43</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7117,24 +6677,21 @@
         <v>9132.4218</v>
       </c>
       <c r="G199" t="n">
-        <v>-839814.7774517563</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7156,22 +6713,21 @@
         <v>1320.8</v>
       </c>
       <c r="G200" t="n">
-        <v>-839814.7774517563</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7193,24 +6749,21 @@
         <v>152000</v>
       </c>
       <c r="G201" t="n">
-        <v>-687814.7774517563</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>28.88</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7232,22 +6785,21 @@
         <v>381933.0255</v>
       </c>
       <c r="G202" t="n">
-        <v>-1069747.802951756</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7269,22 +6821,21 @@
         <v>190000</v>
       </c>
       <c r="G203" t="n">
-        <v>-1069747.802951756</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7306,22 +6857,21 @@
         <v>1267.5</v>
       </c>
       <c r="G204" t="n">
-        <v>-1071015.302951756</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7343,22 +6893,21 @@
         <v>1625.4057</v>
       </c>
       <c r="G205" t="n">
-        <v>-1072640.708651756</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7380,24 +6929,21 @@
         <v>133000</v>
       </c>
       <c r="G206" t="n">
-        <v>-939640.7086517564</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>28.97</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7419,22 +6965,21 @@
         <v>760000</v>
       </c>
       <c r="G207" t="n">
-        <v>-939640.7086517564</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7456,22 +7001,21 @@
         <v>1322.1</v>
       </c>
       <c r="G208" t="n">
-        <v>-940962.8086517564</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7493,22 +7037,21 @@
         <v>295151.7888</v>
       </c>
       <c r="G209" t="n">
-        <v>-645811.0198517564</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7530,22 +7073,21 @@
         <v>760922.2556</v>
       </c>
       <c r="G210" t="n">
-        <v>115111.2357482436</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7567,22 +7109,21 @@
         <v>31442.78017147708</v>
       </c>
       <c r="G211" t="n">
-        <v>146554.0159197207</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7604,22 +7145,21 @@
         <v>16609.6004</v>
       </c>
       <c r="G212" t="n">
-        <v>129944.4155197207</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7641,22 +7181,21 @@
         <v>25441.9362</v>
       </c>
       <c r="G213" t="n">
-        <v>104502.4793197207</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7678,22 +7217,21 @@
         <v>2099.8403</v>
       </c>
       <c r="G214" t="n">
-        <v>102402.6390197207</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7715,22 +7253,21 @@
         <v>278357.9326</v>
       </c>
       <c r="G215" t="n">
-        <v>380760.5716197207</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7752,22 +7289,21 @@
         <v>33708.0257</v>
       </c>
       <c r="G216" t="n">
-        <v>347052.5459197207</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7789,22 +7325,21 @@
         <v>1301.3</v>
       </c>
       <c r="G217" t="n">
-        <v>348353.8459197207</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7826,22 +7361,21 @@
         <v>14843.894</v>
       </c>
       <c r="G218" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7863,22 +7397,21 @@
         <v>30000</v>
       </c>
       <c r="G219" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7900,22 +7433,21 @@
         <v>22</v>
       </c>
       <c r="G220" t="n">
-        <v>333531.9519197207</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7937,22 +7469,21 @@
         <v>22</v>
       </c>
       <c r="G221" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7974,22 +7505,21 @@
         <v>1293.5</v>
       </c>
       <c r="G222" t="n">
-        <v>333509.9519197207</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8011,22 +7541,21 @@
         <v>23</v>
       </c>
       <c r="G223" t="n">
-        <v>333486.9519197207</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8048,22 +7577,21 @@
         <v>24.778</v>
       </c>
       <c r="G224" t="n">
-        <v>333462.1739197207</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8085,22 +7613,21 @@
         <v>33</v>
       </c>
       <c r="G225" t="n">
-        <v>333495.1739197207</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8122,22 +7649,21 @@
         <v>34.7889</v>
       </c>
       <c r="G226" t="n">
-        <v>333495.1739197207</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8159,22 +7685,21 @@
         <v>24663.1732</v>
       </c>
       <c r="G227" t="n">
-        <v>308832.0007197207</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8196,22 +7721,21 @@
         <v>46</v>
       </c>
       <c r="G228" t="n">
-        <v>308832.0007197207</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8233,22 +7757,21 @@
         <v>30691.196</v>
       </c>
       <c r="G229" t="n">
-        <v>339523.1967197207</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8270,22 +7793,21 @@
         <v>1319.7</v>
       </c>
       <c r="G230" t="n">
-        <v>338203.4967197207</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8307,22 +7829,21 @@
         <v>6246.912</v>
       </c>
       <c r="G231" t="n">
-        <v>331956.5847197207</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8344,22 +7865,21 @@
         <v>16650.2017</v>
       </c>
       <c r="G232" t="n">
-        <v>348606.7864197207</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8381,22 +7901,21 @@
         <v>1517.8651</v>
       </c>
       <c r="G233" t="n">
-        <v>347088.9213197207</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8418,22 +7937,21 @@
         <v>70</v>
       </c>
       <c r="G234" t="n">
-        <v>347158.9213197207</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8455,22 +7973,21 @@
         <v>108</v>
       </c>
       <c r="G235" t="n">
-        <v>347050.9213197207</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8492,22 +8009,21 @@
         <v>2422</v>
       </c>
       <c r="G236" t="n">
-        <v>349472.9213197207</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8529,22 +8045,21 @@
         <v>111744.0443</v>
       </c>
       <c r="G237" t="n">
-        <v>237728.8770197207</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8566,22 +8081,21 @@
         <v>190000</v>
       </c>
       <c r="G238" t="n">
-        <v>427728.8770197207</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8603,22 +8117,21 @@
         <v>35.5629</v>
       </c>
       <c r="G239" t="n">
-        <v>427764.4399197207</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8640,22 +8153,21 @@
         <v>2105.7234</v>
       </c>
       <c r="G240" t="n">
-        <v>425658.7165197207</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8677,22 +8189,21 @@
         <v>1292.2</v>
       </c>
       <c r="G241" t="n">
-        <v>426950.9165197207</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8714,22 +8225,21 @@
         <v>98000</v>
       </c>
       <c r="G242" t="n">
-        <v>328950.9165197207</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8751,22 +8261,21 @@
         <v>122422.646</v>
       </c>
       <c r="G243" t="n">
-        <v>451373.5625197207</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8788,22 +8297,21 @@
         <v>2400</v>
       </c>
       <c r="G244" t="n">
-        <v>453773.5625197207</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8825,22 +8333,21 @@
         <v>1272.7</v>
       </c>
       <c r="G245" t="n">
-        <v>452500.8625197207</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8862,22 +8369,21 @@
         <v>7470.8186</v>
       </c>
       <c r="G246" t="n">
-        <v>445030.0439197207</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8899,22 +8405,21 @@
         <v>4016.1122</v>
       </c>
       <c r="G247" t="n">
-        <v>441013.9317197207</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8936,22 +8441,21 @@
         <v>35.5746</v>
       </c>
       <c r="G248" t="n">
-        <v>441049.5063197207</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8973,22 +8477,21 @@
         <v>5019</v>
       </c>
       <c r="G249" t="n">
-        <v>446068.5063197207</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9010,22 +8513,21 @@
         <v>1294.8</v>
       </c>
       <c r="G250" t="n">
-        <v>446068.5063197207</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9047,22 +8549,21 @@
         <v>1301.3</v>
       </c>
       <c r="G251" t="n">
-        <v>444767.2063197207</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9084,22 +8585,21 @@
         <v>30000</v>
       </c>
       <c r="G252" t="n">
-        <v>474767.2063197207</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
